--- a/normalização de dados.xlsx
+++ b/normalização de dados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio -TI\Documents\faculdade\tcc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio-pc\Documents\facudade\tcc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1B3664-5692-4131-A673-B801F2C94FDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6BCE3D-A6ED-4374-8F89-8E82589786E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{82851AB4-57C7-4768-AD19-0F0102215559}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{82851AB4-57C7-4768-AD19-0F0102215559}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,59 @@
     <author>fabio -TI</author>
   </authors>
   <commentList>
-    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{26AE789C-FEA3-418B-9C5C-A373FC9ED89A}">
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{26AE789C-FEA3-418B-9C5C-A373FC9ED89A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>fabio -TI:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+normalizar:
+nome
+telefone</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{C9A3BD3F-E915-4E6B-B994-52208BAAF34D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>fabio -TI:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+normalizar:
+nome
+telefone</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{0B48475E-6356-4BF3-A06D-D7FC9DE555EE}">
       <text>
         <r>
           <rPr>
@@ -67,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="93">
   <si>
     <t>Normalização de Dados</t>
   </si>
@@ -90,9 +142,6 @@
     <t>senha</t>
   </si>
   <si>
-    <t>dep_funcionario</t>
-  </si>
-  <si>
     <t>cpf</t>
   </si>
   <si>
@@ -157,13 +206,205 @@
   </si>
   <si>
     <t>Pedra Branca</t>
+  </si>
+  <si>
+    <t>funcionarios</t>
+  </si>
+  <si>
+    <t>departamento</t>
+  </si>
+  <si>
+    <t>cod_departamento</t>
+  </si>
+  <si>
+    <t>obs</t>
+  </si>
+  <si>
+    <t>nome_dep</t>
+  </si>
+  <si>
+    <t>matricula_encarregado</t>
+  </si>
+  <si>
+    <t>000001</t>
+  </si>
+  <si>
+    <t>000002</t>
+  </si>
+  <si>
+    <t>000003</t>
+  </si>
+  <si>
+    <t>manutenção</t>
+  </si>
+  <si>
+    <t>elétrica</t>
+  </si>
+  <si>
+    <t>000010</t>
+  </si>
+  <si>
+    <t>000011</t>
+  </si>
+  <si>
+    <t>000012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedro </t>
+  </si>
+  <si>
+    <t>Vasconcellos</t>
+  </si>
+  <si>
+    <t>marcia</t>
+  </si>
+  <si>
+    <t>brito</t>
+  </si>
+  <si>
+    <t>centro</t>
+  </si>
+  <si>
+    <t>femenino</t>
+  </si>
+  <si>
+    <t>Pelotas</t>
+  </si>
+  <si>
+    <t>tarefa</t>
+  </si>
+  <si>
+    <t>codigo_tarefa</t>
+  </si>
+  <si>
+    <t>nome_tarefa</t>
+  </si>
+  <si>
+    <t>local_tarefa</t>
+  </si>
+  <si>
+    <t>status_tarefa</t>
+  </si>
+  <si>
+    <t>data_inicio_tarefa</t>
+  </si>
+  <si>
+    <t>hora_inicio_tarefa</t>
+  </si>
+  <si>
+    <t>hora_fim_tarefa</t>
+  </si>
+  <si>
+    <t>cod_cargo</t>
+  </si>
+  <si>
+    <t>nome_cargo</t>
+  </si>
+  <si>
+    <t>descricao_cargo</t>
+  </si>
+  <si>
+    <t>cargo</t>
+  </si>
+  <si>
+    <t>tecnico em informatica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mecanico </t>
+  </si>
+  <si>
+    <t>eletricista</t>
+  </si>
+  <si>
+    <t>00030</t>
+  </si>
+  <si>
+    <t>00040</t>
+  </si>
+  <si>
+    <t>00031</t>
+  </si>
+  <si>
+    <t>000032</t>
+  </si>
+  <si>
+    <t>serviços de T.I</t>
+  </si>
+  <si>
+    <t>rwrw</t>
+  </si>
+  <si>
+    <t>rewrw</t>
+  </si>
+  <si>
+    <t>00041</t>
+  </si>
+  <si>
+    <t>000042</t>
+  </si>
+  <si>
+    <t>ligação de quadro elétrico</t>
+  </si>
+  <si>
+    <t>o Funcionário necessita ligar novo quadro eletrico</t>
+  </si>
+  <si>
+    <t>fábrica de latas</t>
+  </si>
+  <si>
+    <t>aguardando aprovação</t>
+  </si>
+  <si>
+    <t>data_fim_tarefa</t>
+  </si>
+  <si>
+    <t>00051</t>
+  </si>
+  <si>
+    <t>00052</t>
+  </si>
+  <si>
+    <t>executante1</t>
+  </si>
+  <si>
+    <t>executante2</t>
+  </si>
+  <si>
+    <t>executante3</t>
+  </si>
+  <si>
+    <t>executante4</t>
+  </si>
+  <si>
+    <t>executante5</t>
+  </si>
+  <si>
+    <t>fulano 1</t>
+  </si>
+  <si>
+    <t>fulano 2</t>
+  </si>
+  <si>
+    <t>fulano 3</t>
+  </si>
+  <si>
+    <t>executante-tarefa</t>
+  </si>
+  <si>
+    <t>codigo_executante</t>
+  </si>
+  <si>
+    <t>00053</t>
+  </si>
+  <si>
+    <t>00012</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,16 +433,43 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -228,25 +496,105 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,165 +909,5353 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33215026-C023-41C6-931A-1B3971A4E820}">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:RP27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="22" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="24.28515625" customWidth="1"/>
+    <col min="9" max="10" width="22" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:484" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
     </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:484" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+    </row>
+    <row r="3" spans="1:484" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="4"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
+      <c r="BA3" s="4"/>
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="4"/>
+      <c r="BD3" s="4"/>
+      <c r="BE3" s="4"/>
+      <c r="BF3" s="4"/>
+      <c r="BG3" s="4"/>
+      <c r="BH3" s="4"/>
+      <c r="BI3" s="4"/>
+      <c r="BJ3" s="4"/>
+      <c r="BK3" s="4"/>
+      <c r="BL3" s="4"/>
+      <c r="BM3" s="4"/>
+      <c r="BN3" s="4"/>
+      <c r="BO3" s="4"/>
+      <c r="BP3" s="4"/>
+      <c r="BQ3" s="4"/>
+      <c r="BR3" s="4"/>
+      <c r="BS3" s="4"/>
+      <c r="BT3" s="4"/>
+      <c r="BU3" s="4"/>
+      <c r="BV3" s="4"/>
+      <c r="BW3" s="4"/>
+      <c r="BX3" s="4"/>
+      <c r="BY3" s="4"/>
+      <c r="BZ3" s="4"/>
+      <c r="CA3" s="4"/>
+      <c r="CB3" s="4"/>
+      <c r="CC3" s="4"/>
+      <c r="CD3" s="4"/>
+      <c r="CE3" s="4"/>
+      <c r="CF3" s="4"/>
+      <c r="CG3" s="4"/>
+      <c r="CH3" s="4"/>
+      <c r="CI3" s="4"/>
+      <c r="CJ3" s="4"/>
+      <c r="CK3" s="4"/>
+      <c r="CL3" s="4"/>
+      <c r="CM3" s="4"/>
+      <c r="CN3" s="4"/>
+      <c r="CO3" s="4"/>
+      <c r="CP3" s="4"/>
+      <c r="CQ3" s="4"/>
+      <c r="CR3" s="4"/>
+      <c r="CS3" s="4"/>
+      <c r="CT3" s="4"/>
+      <c r="CU3" s="4"/>
+      <c r="CV3" s="4"/>
+      <c r="CW3" s="4"/>
+      <c r="CX3" s="4"/>
+      <c r="CY3" s="4"/>
+      <c r="CZ3" s="4"/>
+      <c r="DA3" s="4"/>
+      <c r="DB3" s="4"/>
+      <c r="DC3" s="4"/>
+      <c r="DD3" s="4"/>
+      <c r="DE3" s="4"/>
+      <c r="DF3" s="4"/>
+      <c r="DG3" s="4"/>
+      <c r="DH3" s="4"/>
+      <c r="DI3" s="4"/>
+      <c r="DJ3" s="4"/>
+      <c r="DK3" s="4"/>
+      <c r="DL3" s="4"/>
+      <c r="DM3" s="4"/>
+      <c r="DN3" s="4"/>
+      <c r="DO3" s="4"/>
+      <c r="DP3" s="4"/>
+      <c r="DQ3" s="4"/>
+      <c r="DR3" s="4"/>
+      <c r="DS3" s="4"/>
+      <c r="DT3" s="4"/>
+      <c r="DU3" s="4"/>
+      <c r="DV3" s="4"/>
+      <c r="DW3" s="4"/>
+      <c r="DX3" s="4"/>
+      <c r="DY3" s="4"/>
+      <c r="DZ3" s="4"/>
+      <c r="EA3" s="4"/>
+      <c r="EB3" s="4"/>
+      <c r="EC3" s="4"/>
+      <c r="ED3" s="4"/>
+      <c r="EE3" s="4"/>
+      <c r="EF3" s="4"/>
+      <c r="EG3" s="4"/>
+      <c r="EH3" s="4"/>
+      <c r="EI3" s="4"/>
+      <c r="EJ3" s="4"/>
+      <c r="EK3" s="4"/>
+      <c r="EL3" s="4"/>
+      <c r="EM3" s="4"/>
+      <c r="EN3" s="4"/>
+      <c r="EO3" s="4"/>
+      <c r="EP3" s="4"/>
+      <c r="EQ3" s="4"/>
+      <c r="ER3" s="4"/>
+      <c r="ES3" s="4"/>
+      <c r="ET3" s="4"/>
+      <c r="EU3" s="4"/>
+      <c r="EV3" s="4"/>
+      <c r="EW3" s="4"/>
+      <c r="EX3" s="4"/>
+      <c r="EY3" s="4"/>
+      <c r="EZ3" s="4"/>
+      <c r="FA3" s="4"/>
+      <c r="FB3" s="4"/>
+      <c r="FC3" s="4"/>
+      <c r="FD3" s="4"/>
+      <c r="FE3" s="4"/>
+      <c r="FF3" s="4"/>
+      <c r="FG3" s="4"/>
+      <c r="FH3" s="4"/>
+      <c r="FI3" s="4"/>
+      <c r="FJ3" s="4"/>
+      <c r="FK3" s="4"/>
+      <c r="FL3" s="4"/>
+      <c r="FM3" s="4"/>
+      <c r="FN3" s="4"/>
+      <c r="FO3" s="4"/>
+      <c r="FP3" s="4"/>
+      <c r="FQ3" s="4"/>
+      <c r="FR3" s="4"/>
+      <c r="FS3" s="4"/>
+      <c r="FT3" s="4"/>
+      <c r="FU3" s="4"/>
+      <c r="FV3" s="4"/>
+      <c r="FW3" s="4"/>
+      <c r="FX3" s="4"/>
+      <c r="FY3" s="4"/>
+      <c r="FZ3" s="4"/>
+      <c r="GA3" s="4"/>
+      <c r="GB3" s="4"/>
+      <c r="GC3" s="4"/>
+      <c r="GD3" s="4"/>
+      <c r="GE3" s="4"/>
+      <c r="GF3" s="4"/>
+      <c r="GG3" s="4"/>
+      <c r="GH3" s="4"/>
+      <c r="GI3" s="4"/>
+      <c r="GJ3" s="4"/>
+      <c r="GK3" s="4"/>
+      <c r="GL3" s="4"/>
+      <c r="GM3" s="4"/>
+      <c r="GN3" s="4"/>
+      <c r="GO3" s="4"/>
+      <c r="GP3" s="4"/>
+      <c r="GQ3" s="4"/>
+      <c r="GR3" s="4"/>
+      <c r="GS3" s="4"/>
+      <c r="GT3" s="4"/>
+      <c r="GU3" s="4"/>
+      <c r="GV3" s="4"/>
+      <c r="GW3" s="4"/>
+      <c r="GX3" s="4"/>
+      <c r="GY3" s="4"/>
+      <c r="GZ3" s="4"/>
+      <c r="HA3" s="4"/>
+      <c r="HB3" s="4"/>
+      <c r="HC3" s="4"/>
+      <c r="HD3" s="4"/>
+      <c r="HE3" s="4"/>
+      <c r="HF3" s="4"/>
+      <c r="HG3" s="4"/>
+      <c r="HH3" s="4"/>
+      <c r="HI3" s="4"/>
+      <c r="HJ3" s="4"/>
+      <c r="HK3" s="4"/>
+      <c r="HL3" s="4"/>
+      <c r="HM3" s="4"/>
+      <c r="HN3" s="4"/>
+      <c r="HO3" s="4"/>
+      <c r="HP3" s="4"/>
+      <c r="HQ3" s="4"/>
+      <c r="HR3" s="4"/>
+      <c r="HS3" s="4"/>
+      <c r="HT3" s="4"/>
+      <c r="HU3" s="4"/>
+      <c r="HV3" s="4"/>
+      <c r="HW3" s="4"/>
+      <c r="HX3" s="4"/>
+      <c r="HY3" s="4"/>
+      <c r="HZ3" s="4"/>
+      <c r="IA3" s="4"/>
+      <c r="IB3" s="4"/>
+      <c r="IC3" s="4"/>
+      <c r="ID3" s="4"/>
+      <c r="IE3" s="4"/>
+      <c r="IF3" s="4"/>
+      <c r="IG3" s="4"/>
+      <c r="IH3" s="4"/>
+      <c r="II3" s="4"/>
+      <c r="IJ3" s="4"/>
+      <c r="IK3" s="4"/>
+      <c r="IL3" s="4"/>
+      <c r="IM3" s="4"/>
+      <c r="IN3" s="4"/>
+      <c r="IO3" s="4"/>
+      <c r="IP3" s="4"/>
+      <c r="IQ3" s="4"/>
+      <c r="IR3" s="4"/>
+      <c r="IS3" s="4"/>
+      <c r="IT3" s="4"/>
+      <c r="IU3" s="4"/>
+      <c r="IV3" s="4"/>
+      <c r="IW3" s="4"/>
+      <c r="IX3" s="4"/>
+      <c r="IY3" s="4"/>
+      <c r="IZ3" s="4"/>
+      <c r="JA3" s="4"/>
+      <c r="JB3" s="4"/>
+      <c r="JC3" s="4"/>
+      <c r="JD3" s="4"/>
+      <c r="JE3" s="4"/>
+      <c r="JF3" s="4"/>
+      <c r="JG3" s="4"/>
+      <c r="JH3" s="4"/>
+      <c r="JI3" s="4"/>
+      <c r="JJ3" s="4"/>
+      <c r="JK3" s="4"/>
+      <c r="JL3" s="4"/>
+      <c r="JM3" s="4"/>
+      <c r="JN3" s="4"/>
+      <c r="JO3" s="4"/>
+      <c r="JP3" s="4"/>
+      <c r="JQ3" s="4"/>
+      <c r="JR3" s="4"/>
+      <c r="JS3" s="4"/>
+      <c r="JT3" s="4"/>
+      <c r="JU3" s="4"/>
+      <c r="JV3" s="4"/>
+      <c r="JW3" s="4"/>
+      <c r="JX3" s="4"/>
+      <c r="JY3" s="4"/>
+      <c r="JZ3" s="4"/>
+      <c r="KA3" s="4"/>
+      <c r="KB3" s="4"/>
+      <c r="KC3" s="4"/>
+      <c r="KD3" s="4"/>
+      <c r="KE3" s="4"/>
+      <c r="KF3" s="4"/>
+      <c r="KG3" s="4"/>
+      <c r="KH3" s="4"/>
+      <c r="KI3" s="4"/>
+      <c r="KJ3" s="4"/>
+      <c r="KK3" s="4"/>
+      <c r="KL3" s="4"/>
+      <c r="KM3" s="4"/>
+      <c r="KN3" s="4"/>
+      <c r="KO3" s="4"/>
+      <c r="KP3" s="4"/>
+      <c r="KQ3" s="4"/>
+      <c r="KR3" s="4"/>
+      <c r="KS3" s="4"/>
+      <c r="KT3" s="4"/>
+      <c r="KU3" s="4"/>
+      <c r="KV3" s="4"/>
+      <c r="KW3" s="4"/>
+      <c r="KX3" s="4"/>
+      <c r="KY3" s="4"/>
+      <c r="KZ3" s="4"/>
+      <c r="LA3" s="4"/>
+      <c r="LB3" s="4"/>
+      <c r="LC3" s="4"/>
+      <c r="LD3" s="4"/>
+      <c r="LE3" s="4"/>
+      <c r="LF3" s="4"/>
+      <c r="LG3" s="4"/>
+      <c r="LH3" s="4"/>
+      <c r="LI3" s="4"/>
+      <c r="LJ3" s="4"/>
+      <c r="LK3" s="4"/>
+      <c r="LL3" s="4"/>
+      <c r="LM3" s="4"/>
+      <c r="LN3" s="4"/>
+      <c r="LO3" s="4"/>
+      <c r="LP3" s="4"/>
+      <c r="LQ3" s="4"/>
+      <c r="LR3" s="4"/>
+      <c r="LS3" s="4"/>
+      <c r="LT3" s="4"/>
+      <c r="LU3" s="4"/>
+      <c r="LV3" s="4"/>
+      <c r="LW3" s="4"/>
+      <c r="LX3" s="4"/>
+      <c r="LY3" s="4"/>
+      <c r="LZ3" s="4"/>
+      <c r="MA3" s="4"/>
+      <c r="MB3" s="4"/>
+      <c r="MC3" s="4"/>
+      <c r="MD3" s="4"/>
+      <c r="ME3" s="4"/>
+      <c r="MF3" s="4"/>
+      <c r="MG3" s="4"/>
+      <c r="MH3" s="4"/>
+      <c r="MI3" s="4"/>
+      <c r="MJ3" s="4"/>
+      <c r="MK3" s="4"/>
+      <c r="ML3" s="4"/>
+      <c r="MM3" s="4"/>
+      <c r="MN3" s="4"/>
+      <c r="MO3" s="4"/>
+      <c r="MP3" s="4"/>
+      <c r="MQ3" s="4"/>
+      <c r="MR3" s="4"/>
+      <c r="MS3" s="4"/>
+      <c r="MT3" s="4"/>
+      <c r="MU3" s="4"/>
+      <c r="MV3" s="4"/>
+      <c r="MW3" s="4"/>
+      <c r="MX3" s="4"/>
+      <c r="MY3" s="4"/>
+      <c r="MZ3" s="4"/>
+      <c r="NA3" s="4"/>
+      <c r="NB3" s="4"/>
+      <c r="NC3" s="4"/>
+      <c r="ND3" s="4"/>
+      <c r="NE3" s="4"/>
+      <c r="NF3" s="4"/>
+      <c r="NG3" s="4"/>
+      <c r="NH3" s="4"/>
+      <c r="NI3" s="4"/>
+      <c r="NJ3" s="4"/>
+      <c r="NK3" s="4"/>
+      <c r="NL3" s="4"/>
+      <c r="NM3" s="4"/>
+      <c r="NN3" s="4"/>
+      <c r="NO3" s="4"/>
+      <c r="NP3" s="4"/>
+      <c r="NQ3" s="4"/>
+      <c r="NR3" s="4"/>
+      <c r="NS3" s="4"/>
+      <c r="NT3" s="4"/>
+      <c r="NU3" s="4"/>
+      <c r="NV3" s="4"/>
+      <c r="NW3" s="4"/>
+      <c r="NX3" s="4"/>
+      <c r="NY3" s="4"/>
+      <c r="NZ3" s="4"/>
+      <c r="OA3" s="4"/>
+      <c r="OB3" s="4"/>
+      <c r="OC3" s="4"/>
+      <c r="OD3" s="4"/>
+      <c r="OE3" s="4"/>
+      <c r="OF3" s="4"/>
+      <c r="OG3" s="4"/>
+      <c r="OH3" s="4"/>
+      <c r="OI3" s="4"/>
+      <c r="OJ3" s="4"/>
+      <c r="OK3" s="4"/>
+      <c r="OL3" s="4"/>
+      <c r="OM3" s="4"/>
+      <c r="ON3" s="4"/>
+      <c r="OO3" s="4"/>
+      <c r="OP3" s="4"/>
+      <c r="OQ3" s="4"/>
+      <c r="OR3" s="4"/>
+      <c r="OS3" s="4"/>
+      <c r="OT3" s="4"/>
+      <c r="OU3" s="4"/>
+      <c r="OV3" s="4"/>
+      <c r="OW3" s="4"/>
+      <c r="OX3" s="4"/>
+      <c r="OY3" s="4"/>
+      <c r="OZ3" s="4"/>
+      <c r="PA3" s="4"/>
+      <c r="PB3" s="4"/>
+      <c r="PC3" s="4"/>
+      <c r="PD3" s="4"/>
+      <c r="PE3" s="4"/>
+      <c r="PF3" s="4"/>
+      <c r="PG3" s="4"/>
+      <c r="PH3" s="4"/>
+      <c r="PI3" s="4"/>
+      <c r="PJ3" s="4"/>
+      <c r="PK3" s="4"/>
+      <c r="PL3" s="4"/>
+      <c r="PM3" s="4"/>
+      <c r="PN3" s="4"/>
+      <c r="PO3" s="4"/>
+      <c r="PP3" s="4"/>
+      <c r="PQ3" s="4"/>
+      <c r="PR3" s="4"/>
+      <c r="PS3" s="4"/>
+      <c r="PT3" s="4"/>
+      <c r="PU3" s="4"/>
+      <c r="PV3" s="4"/>
+      <c r="PW3" s="4"/>
+      <c r="PX3" s="4"/>
+      <c r="PY3" s="4"/>
+      <c r="PZ3" s="4"/>
+      <c r="QA3" s="4"/>
+      <c r="QB3" s="4"/>
+      <c r="QC3" s="4"/>
+      <c r="QD3" s="4"/>
+      <c r="QE3" s="4"/>
+      <c r="QF3" s="4"/>
+      <c r="QG3" s="4"/>
+      <c r="QH3" s="4"/>
+      <c r="QI3" s="4"/>
+      <c r="QJ3" s="4"/>
+      <c r="QK3" s="4"/>
+      <c r="QL3" s="4"/>
+      <c r="QM3" s="4"/>
+      <c r="QN3" s="4"/>
+      <c r="QO3" s="4"/>
+      <c r="QP3" s="4"/>
+      <c r="QQ3" s="4"/>
+      <c r="QR3" s="4"/>
+      <c r="QS3" s="4"/>
+      <c r="QT3" s="4"/>
+      <c r="QU3" s="4"/>
+      <c r="QV3" s="4"/>
+      <c r="QW3" s="4"/>
+      <c r="QX3" s="4"/>
+      <c r="QY3" s="4"/>
+      <c r="QZ3" s="4"/>
+      <c r="RA3" s="4"/>
+      <c r="RB3" s="4"/>
+      <c r="RC3" s="4"/>
+      <c r="RD3" s="4"/>
+      <c r="RE3" s="4"/>
+      <c r="RF3" s="4"/>
+      <c r="RG3" s="4"/>
+      <c r="RH3" s="4"/>
+      <c r="RI3" s="4"/>
+      <c r="RJ3" s="4"/>
+      <c r="RK3" s="4"/>
+      <c r="RL3" s="4"/>
+      <c r="RM3" s="4"/>
+      <c r="RN3" s="4"/>
+      <c r="RO3" s="4"/>
+      <c r="RP3" s="4"/>
+    </row>
+    <row r="4" spans="1:484" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="F4" s="3">
+        <v>96853931</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3">
+        <v>841</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="K4" s="3">
+        <v>123546</v>
+      </c>
+      <c r="L4" s="3">
+        <v>2041884070</v>
+      </c>
+      <c r="M4" s="3">
+        <v>32</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="3">
+        <v>99098767</v>
+      </c>
+      <c r="P4" s="3">
+        <v>999987878</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" s="3">
+        <v>17111987</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="4"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="4"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="4"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="4"/>
+      <c r="BE4" s="4"/>
+      <c r="BF4" s="4"/>
+      <c r="BG4" s="4"/>
+      <c r="BH4" s="4"/>
+      <c r="BI4" s="4"/>
+      <c r="BJ4" s="4"/>
+      <c r="BK4" s="4"/>
+      <c r="BL4" s="4"/>
+      <c r="BM4" s="4"/>
+      <c r="BN4" s="4"/>
+      <c r="BO4" s="4"/>
+      <c r="BP4" s="4"/>
+      <c r="BQ4" s="4"/>
+      <c r="BR4" s="4"/>
+      <c r="BS4" s="4"/>
+      <c r="BT4" s="4"/>
+      <c r="BU4" s="4"/>
+      <c r="BV4" s="4"/>
+      <c r="BW4" s="4"/>
+      <c r="BX4" s="4"/>
+      <c r="BY4" s="4"/>
+      <c r="BZ4" s="4"/>
+      <c r="CA4" s="4"/>
+      <c r="CB4" s="4"/>
+      <c r="CC4" s="4"/>
+      <c r="CD4" s="4"/>
+      <c r="CE4" s="4"/>
+      <c r="CF4" s="4"/>
+      <c r="CG4" s="4"/>
+      <c r="CH4" s="4"/>
+      <c r="CI4" s="4"/>
+      <c r="CJ4" s="4"/>
+      <c r="CK4" s="4"/>
+      <c r="CL4" s="4"/>
+      <c r="CM4" s="4"/>
+      <c r="CN4" s="4"/>
+      <c r="CO4" s="4"/>
+      <c r="CP4" s="4"/>
+      <c r="CQ4" s="4"/>
+      <c r="CR4" s="4"/>
+      <c r="CS4" s="4"/>
+      <c r="CT4" s="4"/>
+      <c r="CU4" s="4"/>
+      <c r="CV4" s="4"/>
+      <c r="CW4" s="4"/>
+      <c r="CX4" s="4"/>
+      <c r="CY4" s="4"/>
+      <c r="CZ4" s="4"/>
+      <c r="DA4" s="4"/>
+      <c r="DB4" s="4"/>
+      <c r="DC4" s="4"/>
+      <c r="DD4" s="4"/>
+      <c r="DE4" s="4"/>
+      <c r="DF4" s="4"/>
+      <c r="DG4" s="4"/>
+      <c r="DH4" s="4"/>
+      <c r="DI4" s="4"/>
+      <c r="DJ4" s="4"/>
+      <c r="DK4" s="4"/>
+      <c r="DL4" s="4"/>
+      <c r="DM4" s="4"/>
+      <c r="DN4" s="4"/>
+      <c r="DO4" s="4"/>
+      <c r="DP4" s="4"/>
+      <c r="DQ4" s="4"/>
+      <c r="DR4" s="4"/>
+      <c r="DS4" s="4"/>
+      <c r="DT4" s="4"/>
+      <c r="DU4" s="4"/>
+      <c r="DV4" s="4"/>
+      <c r="DW4" s="4"/>
+      <c r="DX4" s="4"/>
+      <c r="DY4" s="4"/>
+      <c r="DZ4" s="4"/>
+      <c r="EA4" s="4"/>
+      <c r="EB4" s="4"/>
+      <c r="EC4" s="4"/>
+      <c r="ED4" s="4"/>
+      <c r="EE4" s="4"/>
+      <c r="EF4" s="4"/>
+      <c r="EG4" s="4"/>
+      <c r="EH4" s="4"/>
+      <c r="EI4" s="4"/>
+      <c r="EJ4" s="4"/>
+      <c r="EK4" s="4"/>
+      <c r="EL4" s="4"/>
+      <c r="EM4" s="4"/>
+      <c r="EN4" s="4"/>
+      <c r="EO4" s="4"/>
+      <c r="EP4" s="4"/>
+      <c r="EQ4" s="4"/>
+      <c r="ER4" s="4"/>
+      <c r="ES4" s="4"/>
+      <c r="ET4" s="4"/>
+      <c r="EU4" s="4"/>
+      <c r="EV4" s="4"/>
+      <c r="EW4" s="4"/>
+      <c r="EX4" s="4"/>
+      <c r="EY4" s="4"/>
+      <c r="EZ4" s="4"/>
+      <c r="FA4" s="4"/>
+      <c r="FB4" s="4"/>
+      <c r="FC4" s="4"/>
+      <c r="FD4" s="4"/>
+      <c r="FE4" s="4"/>
+      <c r="FF4" s="4"/>
+      <c r="FG4" s="4"/>
+      <c r="FH4" s="4"/>
+      <c r="FI4" s="4"/>
+      <c r="FJ4" s="4"/>
+      <c r="FK4" s="4"/>
+      <c r="FL4" s="4"/>
+      <c r="FM4" s="4"/>
+      <c r="FN4" s="4"/>
+      <c r="FO4" s="4"/>
+      <c r="FP4" s="4"/>
+      <c r="FQ4" s="4"/>
+      <c r="FR4" s="4"/>
+      <c r="FS4" s="4"/>
+      <c r="FT4" s="4"/>
+      <c r="FU4" s="4"/>
+      <c r="FV4" s="4"/>
+      <c r="FW4" s="4"/>
+      <c r="FX4" s="4"/>
+      <c r="FY4" s="4"/>
+      <c r="FZ4" s="4"/>
+      <c r="GA4" s="4"/>
+      <c r="GB4" s="4"/>
+      <c r="GC4" s="4"/>
+      <c r="GD4" s="4"/>
+      <c r="GE4" s="4"/>
+      <c r="GF4" s="4"/>
+      <c r="GG4" s="4"/>
+      <c r="GH4" s="4"/>
+      <c r="GI4" s="4"/>
+      <c r="GJ4" s="4"/>
+      <c r="GK4" s="4"/>
+      <c r="GL4" s="4"/>
+      <c r="GM4" s="4"/>
+      <c r="GN4" s="4"/>
+      <c r="GO4" s="4"/>
+      <c r="GP4" s="4"/>
+      <c r="GQ4" s="4"/>
+      <c r="GR4" s="4"/>
+      <c r="GS4" s="4"/>
+      <c r="GT4" s="4"/>
+      <c r="GU4" s="4"/>
+      <c r="GV4" s="4"/>
+      <c r="GW4" s="4"/>
+      <c r="GX4" s="4"/>
+      <c r="GY4" s="4"/>
+      <c r="GZ4" s="4"/>
+      <c r="HA4" s="4"/>
+      <c r="HB4" s="4"/>
+      <c r="HC4" s="4"/>
+      <c r="HD4" s="4"/>
+      <c r="HE4" s="4"/>
+      <c r="HF4" s="4"/>
+      <c r="HG4" s="4"/>
+      <c r="HH4" s="4"/>
+      <c r="HI4" s="4"/>
+      <c r="HJ4" s="4"/>
+      <c r="HK4" s="4"/>
+      <c r="HL4" s="4"/>
+      <c r="HM4" s="4"/>
+      <c r="HN4" s="4"/>
+      <c r="HO4" s="4"/>
+      <c r="HP4" s="4"/>
+      <c r="HQ4" s="4"/>
+      <c r="HR4" s="4"/>
+      <c r="HS4" s="4"/>
+      <c r="HT4" s="4"/>
+      <c r="HU4" s="4"/>
+      <c r="HV4" s="4"/>
+      <c r="HW4" s="4"/>
+      <c r="HX4" s="4"/>
+      <c r="HY4" s="4"/>
+      <c r="HZ4" s="4"/>
+      <c r="IA4" s="4"/>
+      <c r="IB4" s="4"/>
+      <c r="IC4" s="4"/>
+      <c r="ID4" s="4"/>
+      <c r="IE4" s="4"/>
+      <c r="IF4" s="4"/>
+      <c r="IG4" s="4"/>
+      <c r="IH4" s="4"/>
+      <c r="II4" s="4"/>
+      <c r="IJ4" s="4"/>
+      <c r="IK4" s="4"/>
+      <c r="IL4" s="4"/>
+      <c r="IM4" s="4"/>
+      <c r="IN4" s="4"/>
+      <c r="IO4" s="4"/>
+      <c r="IP4" s="4"/>
+      <c r="IQ4" s="4"/>
+      <c r="IR4" s="4"/>
+      <c r="IS4" s="4"/>
+      <c r="IT4" s="4"/>
+      <c r="IU4" s="4"/>
+      <c r="IV4" s="4"/>
+      <c r="IW4" s="4"/>
+      <c r="IX4" s="4"/>
+      <c r="IY4" s="4"/>
+      <c r="IZ4" s="4"/>
+      <c r="JA4" s="4"/>
+      <c r="JB4" s="4"/>
+      <c r="JC4" s="4"/>
+      <c r="JD4" s="4"/>
+      <c r="JE4" s="4"/>
+      <c r="JF4" s="4"/>
+      <c r="JG4" s="4"/>
+      <c r="JH4" s="4"/>
+      <c r="JI4" s="4"/>
+      <c r="JJ4" s="4"/>
+      <c r="JK4" s="4"/>
+      <c r="JL4" s="4"/>
+      <c r="JM4" s="4"/>
+      <c r="JN4" s="4"/>
+      <c r="JO4" s="4"/>
+      <c r="JP4" s="4"/>
+      <c r="JQ4" s="4"/>
+      <c r="JR4" s="4"/>
+      <c r="JS4" s="4"/>
+      <c r="JT4" s="4"/>
+      <c r="JU4" s="4"/>
+      <c r="JV4" s="4"/>
+      <c r="JW4" s="4"/>
+      <c r="JX4" s="4"/>
+      <c r="JY4" s="4"/>
+      <c r="JZ4" s="4"/>
+      <c r="KA4" s="4"/>
+      <c r="KB4" s="4"/>
+      <c r="KC4" s="4"/>
+      <c r="KD4" s="4"/>
+      <c r="KE4" s="4"/>
+      <c r="KF4" s="4"/>
+      <c r="KG4" s="4"/>
+      <c r="KH4" s="4"/>
+      <c r="KI4" s="4"/>
+      <c r="KJ4" s="4"/>
+      <c r="KK4" s="4"/>
+      <c r="KL4" s="4"/>
+      <c r="KM4" s="4"/>
+      <c r="KN4" s="4"/>
+      <c r="KO4" s="4"/>
+      <c r="KP4" s="4"/>
+      <c r="KQ4" s="4"/>
+      <c r="KR4" s="4"/>
+      <c r="KS4" s="4"/>
+      <c r="KT4" s="4"/>
+      <c r="KU4" s="4"/>
+      <c r="KV4" s="4"/>
+      <c r="KW4" s="4"/>
+      <c r="KX4" s="4"/>
+      <c r="KY4" s="4"/>
+      <c r="KZ4" s="4"/>
+      <c r="LA4" s="4"/>
+      <c r="LB4" s="4"/>
+      <c r="LC4" s="4"/>
+      <c r="LD4" s="4"/>
+      <c r="LE4" s="4"/>
+      <c r="LF4" s="4"/>
+      <c r="LG4" s="4"/>
+      <c r="LH4" s="4"/>
+      <c r="LI4" s="4"/>
+      <c r="LJ4" s="4"/>
+      <c r="LK4" s="4"/>
+      <c r="LL4" s="4"/>
+      <c r="LM4" s="4"/>
+      <c r="LN4" s="4"/>
+      <c r="LO4" s="4"/>
+      <c r="LP4" s="4"/>
+      <c r="LQ4" s="4"/>
+      <c r="LR4" s="4"/>
+      <c r="LS4" s="4"/>
+      <c r="LT4" s="4"/>
+      <c r="LU4" s="4"/>
+      <c r="LV4" s="4"/>
+      <c r="LW4" s="4"/>
+      <c r="LX4" s="4"/>
+      <c r="LY4" s="4"/>
+      <c r="LZ4" s="4"/>
+      <c r="MA4" s="4"/>
+      <c r="MB4" s="4"/>
+      <c r="MC4" s="4"/>
+      <c r="MD4" s="4"/>
+      <c r="ME4" s="4"/>
+      <c r="MF4" s="4"/>
+      <c r="MG4" s="4"/>
+      <c r="MH4" s="4"/>
+      <c r="MI4" s="4"/>
+      <c r="MJ4" s="4"/>
+      <c r="MK4" s="4"/>
+      <c r="ML4" s="4"/>
+      <c r="MM4" s="4"/>
+      <c r="MN4" s="4"/>
+      <c r="MO4" s="4"/>
+      <c r="MP4" s="4"/>
+      <c r="MQ4" s="4"/>
+      <c r="MR4" s="4"/>
+      <c r="MS4" s="4"/>
+      <c r="MT4" s="4"/>
+      <c r="MU4" s="4"/>
+      <c r="MV4" s="4"/>
+      <c r="MW4" s="4"/>
+      <c r="MX4" s="4"/>
+      <c r="MY4" s="4"/>
+      <c r="MZ4" s="4"/>
+      <c r="NA4" s="4"/>
+      <c r="NB4" s="4"/>
+      <c r="NC4" s="4"/>
+      <c r="ND4" s="4"/>
+      <c r="NE4" s="4"/>
+      <c r="NF4" s="4"/>
+      <c r="NG4" s="4"/>
+      <c r="NH4" s="4"/>
+      <c r="NI4" s="4"/>
+      <c r="NJ4" s="4"/>
+      <c r="NK4" s="4"/>
+      <c r="NL4" s="4"/>
+      <c r="NM4" s="4"/>
+      <c r="NN4" s="4"/>
+      <c r="NO4" s="4"/>
+      <c r="NP4" s="4"/>
+      <c r="NQ4" s="4"/>
+      <c r="NR4" s="4"/>
+      <c r="NS4" s="4"/>
+      <c r="NT4" s="4"/>
+      <c r="NU4" s="4"/>
+      <c r="NV4" s="4"/>
+      <c r="NW4" s="4"/>
+      <c r="NX4" s="4"/>
+      <c r="NY4" s="4"/>
+      <c r="NZ4" s="4"/>
+      <c r="OA4" s="4"/>
+      <c r="OB4" s="4"/>
+      <c r="OC4" s="4"/>
+      <c r="OD4" s="4"/>
+      <c r="OE4" s="4"/>
+      <c r="OF4" s="4"/>
+      <c r="OG4" s="4"/>
+      <c r="OH4" s="4"/>
+      <c r="OI4" s="4"/>
+      <c r="OJ4" s="4"/>
+      <c r="OK4" s="4"/>
+      <c r="OL4" s="4"/>
+      <c r="OM4" s="4"/>
+      <c r="ON4" s="4"/>
+      <c r="OO4" s="4"/>
+      <c r="OP4" s="4"/>
+      <c r="OQ4" s="4"/>
+      <c r="OR4" s="4"/>
+      <c r="OS4" s="4"/>
+      <c r="OT4" s="4"/>
+      <c r="OU4" s="4"/>
+      <c r="OV4" s="4"/>
+      <c r="OW4" s="4"/>
+      <c r="OX4" s="4"/>
+      <c r="OY4" s="4"/>
+      <c r="OZ4" s="4"/>
+      <c r="PA4" s="4"/>
+      <c r="PB4" s="4"/>
+      <c r="PC4" s="4"/>
+      <c r="PD4" s="4"/>
+      <c r="PE4" s="4"/>
+      <c r="PF4" s="4"/>
+      <c r="PG4" s="4"/>
+      <c r="PH4" s="4"/>
+      <c r="PI4" s="4"/>
+      <c r="PJ4" s="4"/>
+      <c r="PK4" s="4"/>
+      <c r="PL4" s="4"/>
+      <c r="PM4" s="4"/>
+      <c r="PN4" s="4"/>
+      <c r="PO4" s="4"/>
+      <c r="PP4" s="4"/>
+      <c r="PQ4" s="4"/>
+      <c r="PR4" s="4"/>
+      <c r="PS4" s="4"/>
+      <c r="PT4" s="4"/>
+      <c r="PU4" s="4"/>
+      <c r="PV4" s="4"/>
+      <c r="PW4" s="4"/>
+      <c r="PX4" s="4"/>
+      <c r="PY4" s="4"/>
+      <c r="PZ4" s="4"/>
+      <c r="QA4" s="4"/>
+      <c r="QB4" s="4"/>
+      <c r="QC4" s="4"/>
+      <c r="QD4" s="4"/>
+      <c r="QE4" s="4"/>
+      <c r="QF4" s="4"/>
+      <c r="QG4" s="4"/>
+      <c r="QH4" s="4"/>
+      <c r="QI4" s="4"/>
+      <c r="QJ4" s="4"/>
+      <c r="QK4" s="4"/>
+      <c r="QL4" s="4"/>
+      <c r="QM4" s="4"/>
+      <c r="QN4" s="4"/>
+      <c r="QO4" s="4"/>
+      <c r="QP4" s="4"/>
+      <c r="QQ4" s="4"/>
+      <c r="QR4" s="4"/>
+      <c r="QS4" s="4"/>
+      <c r="QT4" s="4"/>
+      <c r="QU4" s="4"/>
+      <c r="QV4" s="4"/>
+      <c r="QW4" s="4"/>
+      <c r="QX4" s="4"/>
+      <c r="QY4" s="4"/>
+      <c r="QZ4" s="4"/>
+      <c r="RA4" s="4"/>
+      <c r="RB4" s="4"/>
+      <c r="RC4" s="4"/>
+      <c r="RD4" s="4"/>
+      <c r="RE4" s="4"/>
+      <c r="RF4" s="4"/>
+      <c r="RG4" s="4"/>
+      <c r="RH4" s="4"/>
+      <c r="RI4" s="4"/>
+      <c r="RJ4" s="4"/>
+      <c r="RK4" s="4"/>
+      <c r="RL4" s="4"/>
+      <c r="RM4" s="4"/>
+      <c r="RN4" s="4"/>
+      <c r="RO4" s="4"/>
+      <c r="RP4" s="4"/>
+    </row>
+    <row r="5" spans="1:484" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4343554</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="3">
+        <v>456</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="3">
+        <v>34343</v>
+      </c>
+      <c r="L5" s="3">
+        <v>6456464</v>
+      </c>
+      <c r="M5" s="3">
+        <v>35</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="3">
+        <v>5435353</v>
+      </c>
+      <c r="P5" s="3">
+        <v>455345</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="3">
+        <v>13457889</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="4"/>
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="4"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="4"/>
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="4"/>
+      <c r="BD5" s="4"/>
+      <c r="BE5" s="4"/>
+      <c r="BF5" s="4"/>
+      <c r="BG5" s="4"/>
+      <c r="BH5" s="4"/>
+      <c r="BI5" s="4"/>
+      <c r="BJ5" s="4"/>
+      <c r="BK5" s="4"/>
+      <c r="BL5" s="4"/>
+      <c r="BM5" s="4"/>
+      <c r="BN5" s="4"/>
+      <c r="BO5" s="4"/>
+      <c r="BP5" s="4"/>
+      <c r="BQ5" s="4"/>
+      <c r="BR5" s="4"/>
+      <c r="BS5" s="4"/>
+      <c r="BT5" s="4"/>
+      <c r="BU5" s="4"/>
+      <c r="BV5" s="4"/>
+      <c r="BW5" s="4"/>
+      <c r="BX5" s="4"/>
+      <c r="BY5" s="4"/>
+      <c r="BZ5" s="4"/>
+      <c r="CA5" s="4"/>
+      <c r="CB5" s="4"/>
+      <c r="CC5" s="4"/>
+      <c r="CD5" s="4"/>
+      <c r="CE5" s="4"/>
+      <c r="CF5" s="4"/>
+      <c r="CG5" s="4"/>
+      <c r="CH5" s="4"/>
+      <c r="CI5" s="4"/>
+      <c r="CJ5" s="4"/>
+      <c r="CK5" s="4"/>
+      <c r="CL5" s="4"/>
+      <c r="CM5" s="4"/>
+      <c r="CN5" s="4"/>
+      <c r="CO5" s="4"/>
+      <c r="CP5" s="4"/>
+      <c r="CQ5" s="4"/>
+      <c r="CR5" s="4"/>
+      <c r="CS5" s="4"/>
+      <c r="CT5" s="4"/>
+      <c r="CU5" s="4"/>
+      <c r="CV5" s="4"/>
+      <c r="CW5" s="4"/>
+      <c r="CX5" s="4"/>
+      <c r="CY5" s="4"/>
+      <c r="CZ5" s="4"/>
+      <c r="DA5" s="4"/>
+      <c r="DB5" s="4"/>
+      <c r="DC5" s="4"/>
+      <c r="DD5" s="4"/>
+      <c r="DE5" s="4"/>
+      <c r="DF5" s="4"/>
+      <c r="DG5" s="4"/>
+      <c r="DH5" s="4"/>
+      <c r="DI5" s="4"/>
+      <c r="DJ5" s="4"/>
+      <c r="DK5" s="4"/>
+      <c r="DL5" s="4"/>
+      <c r="DM5" s="4"/>
+      <c r="DN5" s="4"/>
+      <c r="DO5" s="4"/>
+      <c r="DP5" s="4"/>
+      <c r="DQ5" s="4"/>
+      <c r="DR5" s="4"/>
+      <c r="DS5" s="4"/>
+      <c r="DT5" s="4"/>
+      <c r="DU5" s="4"/>
+      <c r="DV5" s="4"/>
+      <c r="DW5" s="4"/>
+      <c r="DX5" s="4"/>
+      <c r="DY5" s="4"/>
+      <c r="DZ5" s="4"/>
+      <c r="EA5" s="4"/>
+      <c r="EB5" s="4"/>
+      <c r="EC5" s="4"/>
+      <c r="ED5" s="4"/>
+      <c r="EE5" s="4"/>
+      <c r="EF5" s="4"/>
+      <c r="EG5" s="4"/>
+      <c r="EH5" s="4"/>
+      <c r="EI5" s="4"/>
+      <c r="EJ5" s="4"/>
+      <c r="EK5" s="4"/>
+      <c r="EL5" s="4"/>
+      <c r="EM5" s="4"/>
+      <c r="EN5" s="4"/>
+      <c r="EO5" s="4"/>
+      <c r="EP5" s="4"/>
+      <c r="EQ5" s="4"/>
+      <c r="ER5" s="4"/>
+      <c r="ES5" s="4"/>
+      <c r="ET5" s="4"/>
+      <c r="EU5" s="4"/>
+      <c r="EV5" s="4"/>
+      <c r="EW5" s="4"/>
+      <c r="EX5" s="4"/>
+      <c r="EY5" s="4"/>
+      <c r="EZ5" s="4"/>
+      <c r="FA5" s="4"/>
+      <c r="FB5" s="4"/>
+      <c r="FC5" s="4"/>
+      <c r="FD5" s="4"/>
+      <c r="FE5" s="4"/>
+      <c r="FF5" s="4"/>
+      <c r="FG5" s="4"/>
+      <c r="FH5" s="4"/>
+      <c r="FI5" s="4"/>
+      <c r="FJ5" s="4"/>
+      <c r="FK5" s="4"/>
+      <c r="FL5" s="4"/>
+      <c r="FM5" s="4"/>
+      <c r="FN5" s="4"/>
+      <c r="FO5" s="4"/>
+      <c r="FP5" s="4"/>
+      <c r="FQ5" s="4"/>
+      <c r="FR5" s="4"/>
+      <c r="FS5" s="4"/>
+      <c r="FT5" s="4"/>
+      <c r="FU5" s="4"/>
+      <c r="FV5" s="4"/>
+      <c r="FW5" s="4"/>
+      <c r="FX5" s="4"/>
+      <c r="FY5" s="4"/>
+      <c r="FZ5" s="4"/>
+      <c r="GA5" s="4"/>
+      <c r="GB5" s="4"/>
+      <c r="GC5" s="4"/>
+      <c r="GD5" s="4"/>
+      <c r="GE5" s="4"/>
+      <c r="GF5" s="4"/>
+      <c r="GG5" s="4"/>
+      <c r="GH5" s="4"/>
+      <c r="GI5" s="4"/>
+      <c r="GJ5" s="4"/>
+      <c r="GK5" s="4"/>
+      <c r="GL5" s="4"/>
+      <c r="GM5" s="4"/>
+      <c r="GN5" s="4"/>
+      <c r="GO5" s="4"/>
+      <c r="GP5" s="4"/>
+      <c r="GQ5" s="4"/>
+      <c r="GR5" s="4"/>
+      <c r="GS5" s="4"/>
+      <c r="GT5" s="4"/>
+      <c r="GU5" s="4"/>
+      <c r="GV5" s="4"/>
+      <c r="GW5" s="4"/>
+      <c r="GX5" s="4"/>
+      <c r="GY5" s="4"/>
+      <c r="GZ5" s="4"/>
+      <c r="HA5" s="4"/>
+      <c r="HB5" s="4"/>
+      <c r="HC5" s="4"/>
+      <c r="HD5" s="4"/>
+      <c r="HE5" s="4"/>
+      <c r="HF5" s="4"/>
+      <c r="HG5" s="4"/>
+      <c r="HH5" s="4"/>
+      <c r="HI5" s="4"/>
+      <c r="HJ5" s="4"/>
+      <c r="HK5" s="4"/>
+      <c r="HL5" s="4"/>
+      <c r="HM5" s="4"/>
+      <c r="HN5" s="4"/>
+      <c r="HO5" s="4"/>
+      <c r="HP5" s="4"/>
+      <c r="HQ5" s="4"/>
+      <c r="HR5" s="4"/>
+      <c r="HS5" s="4"/>
+      <c r="HT5" s="4"/>
+      <c r="HU5" s="4"/>
+      <c r="HV5" s="4"/>
+      <c r="HW5" s="4"/>
+      <c r="HX5" s="4"/>
+      <c r="HY5" s="4"/>
+      <c r="HZ5" s="4"/>
+      <c r="IA5" s="4"/>
+      <c r="IB5" s="4"/>
+      <c r="IC5" s="4"/>
+      <c r="ID5" s="4"/>
+      <c r="IE5" s="4"/>
+      <c r="IF5" s="4"/>
+      <c r="IG5" s="4"/>
+      <c r="IH5" s="4"/>
+      <c r="II5" s="4"/>
+      <c r="IJ5" s="4"/>
+      <c r="IK5" s="4"/>
+      <c r="IL5" s="4"/>
+      <c r="IM5" s="4"/>
+      <c r="IN5" s="4"/>
+      <c r="IO5" s="4"/>
+      <c r="IP5" s="4"/>
+      <c r="IQ5" s="4"/>
+      <c r="IR5" s="4"/>
+      <c r="IS5" s="4"/>
+      <c r="IT5" s="4"/>
+      <c r="IU5" s="4"/>
+      <c r="IV5" s="4"/>
+      <c r="IW5" s="4"/>
+      <c r="IX5" s="4"/>
+      <c r="IY5" s="4"/>
+      <c r="IZ5" s="4"/>
+      <c r="JA5" s="4"/>
+      <c r="JB5" s="4"/>
+      <c r="JC5" s="4"/>
+      <c r="JD5" s="4"/>
+      <c r="JE5" s="4"/>
+      <c r="JF5" s="4"/>
+      <c r="JG5" s="4"/>
+      <c r="JH5" s="4"/>
+      <c r="JI5" s="4"/>
+      <c r="JJ5" s="4"/>
+      <c r="JK5" s="4"/>
+      <c r="JL5" s="4"/>
+      <c r="JM5" s="4"/>
+      <c r="JN5" s="4"/>
+      <c r="JO5" s="4"/>
+      <c r="JP5" s="4"/>
+      <c r="JQ5" s="4"/>
+      <c r="JR5" s="4"/>
+      <c r="JS5" s="4"/>
+      <c r="JT5" s="4"/>
+      <c r="JU5" s="4"/>
+      <c r="JV5" s="4"/>
+      <c r="JW5" s="4"/>
+      <c r="JX5" s="4"/>
+      <c r="JY5" s="4"/>
+      <c r="JZ5" s="4"/>
+      <c r="KA5" s="4"/>
+      <c r="KB5" s="4"/>
+      <c r="KC5" s="4"/>
+      <c r="KD5" s="4"/>
+      <c r="KE5" s="4"/>
+      <c r="KF5" s="4"/>
+      <c r="KG5" s="4"/>
+      <c r="KH5" s="4"/>
+      <c r="KI5" s="4"/>
+      <c r="KJ5" s="4"/>
+      <c r="KK5" s="4"/>
+      <c r="KL5" s="4"/>
+      <c r="KM5" s="4"/>
+      <c r="KN5" s="4"/>
+      <c r="KO5" s="4"/>
+      <c r="KP5" s="4"/>
+      <c r="KQ5" s="4"/>
+      <c r="KR5" s="4"/>
+      <c r="KS5" s="4"/>
+      <c r="KT5" s="4"/>
+      <c r="KU5" s="4"/>
+      <c r="KV5" s="4"/>
+      <c r="KW5" s="4"/>
+      <c r="KX5" s="4"/>
+      <c r="KY5" s="4"/>
+      <c r="KZ5" s="4"/>
+      <c r="LA5" s="4"/>
+      <c r="LB5" s="4"/>
+      <c r="LC5" s="4"/>
+      <c r="LD5" s="4"/>
+      <c r="LE5" s="4"/>
+      <c r="LF5" s="4"/>
+      <c r="LG5" s="4"/>
+      <c r="LH5" s="4"/>
+      <c r="LI5" s="4"/>
+      <c r="LJ5" s="4"/>
+      <c r="LK5" s="4"/>
+      <c r="LL5" s="4"/>
+      <c r="LM5" s="4"/>
+      <c r="LN5" s="4"/>
+      <c r="LO5" s="4"/>
+      <c r="LP5" s="4"/>
+      <c r="LQ5" s="4"/>
+      <c r="LR5" s="4"/>
+      <c r="LS5" s="4"/>
+      <c r="LT5" s="4"/>
+      <c r="LU5" s="4"/>
+      <c r="LV5" s="4"/>
+      <c r="LW5" s="4"/>
+      <c r="LX5" s="4"/>
+      <c r="LY5" s="4"/>
+      <c r="LZ5" s="4"/>
+      <c r="MA5" s="4"/>
+      <c r="MB5" s="4"/>
+      <c r="MC5" s="4"/>
+      <c r="MD5" s="4"/>
+      <c r="ME5" s="4"/>
+      <c r="MF5" s="4"/>
+      <c r="MG5" s="4"/>
+      <c r="MH5" s="4"/>
+      <c r="MI5" s="4"/>
+      <c r="MJ5" s="4"/>
+      <c r="MK5" s="4"/>
+      <c r="ML5" s="4"/>
+      <c r="MM5" s="4"/>
+      <c r="MN5" s="4"/>
+      <c r="MO5" s="4"/>
+      <c r="MP5" s="4"/>
+      <c r="MQ5" s="4"/>
+      <c r="MR5" s="4"/>
+      <c r="MS5" s="4"/>
+      <c r="MT5" s="4"/>
+      <c r="MU5" s="4"/>
+      <c r="MV5" s="4"/>
+      <c r="MW5" s="4"/>
+      <c r="MX5" s="4"/>
+      <c r="MY5" s="4"/>
+      <c r="MZ5" s="4"/>
+      <c r="NA5" s="4"/>
+      <c r="NB5" s="4"/>
+      <c r="NC5" s="4"/>
+      <c r="ND5" s="4"/>
+      <c r="NE5" s="4"/>
+      <c r="NF5" s="4"/>
+      <c r="NG5" s="4"/>
+      <c r="NH5" s="4"/>
+      <c r="NI5" s="4"/>
+      <c r="NJ5" s="4"/>
+      <c r="NK5" s="4"/>
+      <c r="NL5" s="4"/>
+      <c r="NM5" s="4"/>
+      <c r="NN5" s="4"/>
+      <c r="NO5" s="4"/>
+      <c r="NP5" s="4"/>
+      <c r="NQ5" s="4"/>
+      <c r="NR5" s="4"/>
+      <c r="NS5" s="4"/>
+      <c r="NT5" s="4"/>
+      <c r="NU5" s="4"/>
+      <c r="NV5" s="4"/>
+      <c r="NW5" s="4"/>
+      <c r="NX5" s="4"/>
+      <c r="NY5" s="4"/>
+      <c r="NZ5" s="4"/>
+      <c r="OA5" s="4"/>
+      <c r="OB5" s="4"/>
+      <c r="OC5" s="4"/>
+      <c r="OD5" s="4"/>
+      <c r="OE5" s="4"/>
+      <c r="OF5" s="4"/>
+      <c r="OG5" s="4"/>
+      <c r="OH5" s="4"/>
+      <c r="OI5" s="4"/>
+      <c r="OJ5" s="4"/>
+      <c r="OK5" s="4"/>
+      <c r="OL5" s="4"/>
+      <c r="OM5" s="4"/>
+      <c r="ON5" s="4"/>
+      <c r="OO5" s="4"/>
+      <c r="OP5" s="4"/>
+      <c r="OQ5" s="4"/>
+      <c r="OR5" s="4"/>
+      <c r="OS5" s="4"/>
+      <c r="OT5" s="4"/>
+      <c r="OU5" s="4"/>
+      <c r="OV5" s="4"/>
+      <c r="OW5" s="4"/>
+      <c r="OX5" s="4"/>
+      <c r="OY5" s="4"/>
+      <c r="OZ5" s="4"/>
+      <c r="PA5" s="4"/>
+      <c r="PB5" s="4"/>
+      <c r="PC5" s="4"/>
+      <c r="PD5" s="4"/>
+      <c r="PE5" s="4"/>
+      <c r="PF5" s="4"/>
+      <c r="PG5" s="4"/>
+      <c r="PH5" s="4"/>
+      <c r="PI5" s="4"/>
+      <c r="PJ5" s="4"/>
+      <c r="PK5" s="4"/>
+      <c r="PL5" s="4"/>
+      <c r="PM5" s="4"/>
+      <c r="PN5" s="4"/>
+      <c r="PO5" s="4"/>
+      <c r="PP5" s="4"/>
+      <c r="PQ5" s="4"/>
+      <c r="PR5" s="4"/>
+      <c r="PS5" s="4"/>
+      <c r="PT5" s="4"/>
+      <c r="PU5" s="4"/>
+      <c r="PV5" s="4"/>
+      <c r="PW5" s="4"/>
+      <c r="PX5" s="4"/>
+      <c r="PY5" s="4"/>
+      <c r="PZ5" s="4"/>
+      <c r="QA5" s="4"/>
+      <c r="QB5" s="4"/>
+      <c r="QC5" s="4"/>
+      <c r="QD5" s="4"/>
+      <c r="QE5" s="4"/>
+      <c r="QF5" s="4"/>
+      <c r="QG5" s="4"/>
+      <c r="QH5" s="4"/>
+      <c r="QI5" s="4"/>
+      <c r="QJ5" s="4"/>
+      <c r="QK5" s="4"/>
+      <c r="QL5" s="4"/>
+      <c r="QM5" s="4"/>
+      <c r="QN5" s="4"/>
+      <c r="QO5" s="4"/>
+      <c r="QP5" s="4"/>
+      <c r="QQ5" s="4"/>
+      <c r="QR5" s="4"/>
+      <c r="QS5" s="4"/>
+      <c r="QT5" s="4"/>
+      <c r="QU5" s="4"/>
+      <c r="QV5" s="4"/>
+      <c r="QW5" s="4"/>
+      <c r="QX5" s="4"/>
+      <c r="QY5" s="4"/>
+      <c r="QZ5" s="4"/>
+      <c r="RA5" s="4"/>
+      <c r="RB5" s="4"/>
+      <c r="RC5" s="4"/>
+      <c r="RD5" s="4"/>
+      <c r="RE5" s="4"/>
+      <c r="RF5" s="4"/>
+      <c r="RG5" s="4"/>
+      <c r="RH5" s="4"/>
+      <c r="RI5" s="4"/>
+      <c r="RJ5" s="4"/>
+      <c r="RK5" s="4"/>
+      <c r="RL5" s="4"/>
+      <c r="RM5" s="4"/>
+      <c r="RN5" s="4"/>
+      <c r="RO5" s="4"/>
+      <c r="RP5" s="4"/>
+    </row>
+    <row r="6" spans="1:484" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="3">
+        <v>45545</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="3">
+        <v>897</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="3">
+        <v>34354</v>
+      </c>
+      <c r="L6" s="3">
+        <v>45354</v>
+      </c>
+      <c r="M6" s="3">
         <v>23</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="N6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" s="3">
+        <v>53898989</v>
+      </c>
+      <c r="P6" s="3">
+        <v>53888988</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="3">
+        <v>23455678</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="4"/>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="4"/>
+      <c r="AS6" s="4"/>
+      <c r="AT6" s="4"/>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="4"/>
+      <c r="AX6" s="4"/>
+      <c r="AY6" s="4"/>
+      <c r="AZ6" s="4"/>
+      <c r="BA6" s="4"/>
+      <c r="BB6" s="4"/>
+      <c r="BC6" s="4"/>
+      <c r="BD6" s="4"/>
+      <c r="BE6" s="4"/>
+      <c r="BF6" s="4"/>
+      <c r="BG6" s="4"/>
+      <c r="BH6" s="4"/>
+      <c r="BI6" s="4"/>
+      <c r="BJ6" s="4"/>
+      <c r="BK6" s="4"/>
+      <c r="BL6" s="4"/>
+      <c r="BM6" s="4"/>
+      <c r="BN6" s="4"/>
+      <c r="BO6" s="4"/>
+      <c r="BP6" s="4"/>
+      <c r="BQ6" s="4"/>
+      <c r="BR6" s="4"/>
+      <c r="BS6" s="4"/>
+      <c r="BT6" s="4"/>
+      <c r="BU6" s="4"/>
+      <c r="BV6" s="4"/>
+      <c r="BW6" s="4"/>
+      <c r="BX6" s="4"/>
+      <c r="BY6" s="4"/>
+      <c r="BZ6" s="4"/>
+      <c r="CA6" s="4"/>
+      <c r="CB6" s="4"/>
+      <c r="CC6" s="4"/>
+      <c r="CD6" s="4"/>
+      <c r="CE6" s="4"/>
+      <c r="CF6" s="4"/>
+      <c r="CG6" s="4"/>
+      <c r="CH6" s="4"/>
+      <c r="CI6" s="4"/>
+      <c r="CJ6" s="4"/>
+      <c r="CK6" s="4"/>
+      <c r="CL6" s="4"/>
+      <c r="CM6" s="4"/>
+      <c r="CN6" s="4"/>
+      <c r="CO6" s="4"/>
+      <c r="CP6" s="4"/>
+      <c r="CQ6" s="4"/>
+      <c r="CR6" s="4"/>
+      <c r="CS6" s="4"/>
+      <c r="CT6" s="4"/>
+      <c r="CU6" s="4"/>
+      <c r="CV6" s="4"/>
+      <c r="CW6" s="4"/>
+      <c r="CX6" s="4"/>
+      <c r="CY6" s="4"/>
+      <c r="CZ6" s="4"/>
+      <c r="DA6" s="4"/>
+      <c r="DB6" s="4"/>
+      <c r="DC6" s="4"/>
+      <c r="DD6" s="4"/>
+      <c r="DE6" s="4"/>
+      <c r="DF6" s="4"/>
+      <c r="DG6" s="4"/>
+      <c r="DH6" s="4"/>
+      <c r="DI6" s="4"/>
+      <c r="DJ6" s="4"/>
+      <c r="DK6" s="4"/>
+      <c r="DL6" s="4"/>
+      <c r="DM6" s="4"/>
+      <c r="DN6" s="4"/>
+      <c r="DO6" s="4"/>
+      <c r="DP6" s="4"/>
+      <c r="DQ6" s="4"/>
+      <c r="DR6" s="4"/>
+      <c r="DS6" s="4"/>
+      <c r="DT6" s="4"/>
+      <c r="DU6" s="4"/>
+      <c r="DV6" s="4"/>
+      <c r="DW6" s="4"/>
+      <c r="DX6" s="4"/>
+      <c r="DY6" s="4"/>
+      <c r="DZ6" s="4"/>
+      <c r="EA6" s="4"/>
+      <c r="EB6" s="4"/>
+      <c r="EC6" s="4"/>
+      <c r="ED6" s="4"/>
+      <c r="EE6" s="4"/>
+      <c r="EF6" s="4"/>
+      <c r="EG6" s="4"/>
+      <c r="EH6" s="4"/>
+      <c r="EI6" s="4"/>
+      <c r="EJ6" s="4"/>
+      <c r="EK6" s="4"/>
+      <c r="EL6" s="4"/>
+      <c r="EM6" s="4"/>
+      <c r="EN6" s="4"/>
+      <c r="EO6" s="4"/>
+      <c r="EP6" s="4"/>
+      <c r="EQ6" s="4"/>
+      <c r="ER6" s="4"/>
+      <c r="ES6" s="4"/>
+      <c r="ET6" s="4"/>
+      <c r="EU6" s="4"/>
+      <c r="EV6" s="4"/>
+      <c r="EW6" s="4"/>
+      <c r="EX6" s="4"/>
+      <c r="EY6" s="4"/>
+      <c r="EZ6" s="4"/>
+      <c r="FA6" s="4"/>
+      <c r="FB6" s="4"/>
+      <c r="FC6" s="4"/>
+      <c r="FD6" s="4"/>
+      <c r="FE6" s="4"/>
+      <c r="FF6" s="4"/>
+      <c r="FG6" s="4"/>
+      <c r="FH6" s="4"/>
+      <c r="FI6" s="4"/>
+      <c r="FJ6" s="4"/>
+      <c r="FK6" s="4"/>
+      <c r="FL6" s="4"/>
+      <c r="FM6" s="4"/>
+      <c r="FN6" s="4"/>
+      <c r="FO6" s="4"/>
+      <c r="FP6" s="4"/>
+      <c r="FQ6" s="4"/>
+      <c r="FR6" s="4"/>
+      <c r="FS6" s="4"/>
+      <c r="FT6" s="4"/>
+      <c r="FU6" s="4"/>
+      <c r="FV6" s="4"/>
+      <c r="FW6" s="4"/>
+      <c r="FX6" s="4"/>
+      <c r="FY6" s="4"/>
+      <c r="FZ6" s="4"/>
+      <c r="GA6" s="4"/>
+      <c r="GB6" s="4"/>
+      <c r="GC6" s="4"/>
+      <c r="GD6" s="4"/>
+      <c r="GE6" s="4"/>
+      <c r="GF6" s="4"/>
+      <c r="GG6" s="4"/>
+      <c r="GH6" s="4"/>
+      <c r="GI6" s="4"/>
+      <c r="GJ6" s="4"/>
+      <c r="GK6" s="4"/>
+      <c r="GL6" s="4"/>
+      <c r="GM6" s="4"/>
+      <c r="GN6" s="4"/>
+      <c r="GO6" s="4"/>
+      <c r="GP6" s="4"/>
+      <c r="GQ6" s="4"/>
+      <c r="GR6" s="4"/>
+      <c r="GS6" s="4"/>
+      <c r="GT6" s="4"/>
+      <c r="GU6" s="4"/>
+      <c r="GV6" s="4"/>
+      <c r="GW6" s="4"/>
+      <c r="GX6" s="4"/>
+      <c r="GY6" s="4"/>
+      <c r="GZ6" s="4"/>
+      <c r="HA6" s="4"/>
+      <c r="HB6" s="4"/>
+      <c r="HC6" s="4"/>
+      <c r="HD6" s="4"/>
+      <c r="HE6" s="4"/>
+      <c r="HF6" s="4"/>
+      <c r="HG6" s="4"/>
+      <c r="HH6" s="4"/>
+      <c r="HI6" s="4"/>
+      <c r="HJ6" s="4"/>
+      <c r="HK6" s="4"/>
+      <c r="HL6" s="4"/>
+      <c r="HM6" s="4"/>
+      <c r="HN6" s="4"/>
+      <c r="HO6" s="4"/>
+      <c r="HP6" s="4"/>
+      <c r="HQ6" s="4"/>
+      <c r="HR6" s="4"/>
+      <c r="HS6" s="4"/>
+      <c r="HT6" s="4"/>
+      <c r="HU6" s="4"/>
+      <c r="HV6" s="4"/>
+      <c r="HW6" s="4"/>
+      <c r="HX6" s="4"/>
+      <c r="HY6" s="4"/>
+      <c r="HZ6" s="4"/>
+      <c r="IA6" s="4"/>
+      <c r="IB6" s="4"/>
+      <c r="IC6" s="4"/>
+      <c r="ID6" s="4"/>
+      <c r="IE6" s="4"/>
+      <c r="IF6" s="4"/>
+      <c r="IG6" s="4"/>
+      <c r="IH6" s="4"/>
+      <c r="II6" s="4"/>
+      <c r="IJ6" s="4"/>
+      <c r="IK6" s="4"/>
+      <c r="IL6" s="4"/>
+      <c r="IM6" s="4"/>
+      <c r="IN6" s="4"/>
+      <c r="IO6" s="4"/>
+      <c r="IP6" s="4"/>
+      <c r="IQ6" s="4"/>
+      <c r="IR6" s="4"/>
+      <c r="IS6" s="4"/>
+      <c r="IT6" s="4"/>
+      <c r="IU6" s="4"/>
+      <c r="IV6" s="4"/>
+      <c r="IW6" s="4"/>
+      <c r="IX6" s="4"/>
+      <c r="IY6" s="4"/>
+      <c r="IZ6" s="4"/>
+      <c r="JA6" s="4"/>
+      <c r="JB6" s="4"/>
+      <c r="JC6" s="4"/>
+      <c r="JD6" s="4"/>
+      <c r="JE6" s="4"/>
+      <c r="JF6" s="4"/>
+      <c r="JG6" s="4"/>
+      <c r="JH6" s="4"/>
+      <c r="JI6" s="4"/>
+      <c r="JJ6" s="4"/>
+      <c r="JK6" s="4"/>
+      <c r="JL6" s="4"/>
+      <c r="JM6" s="4"/>
+      <c r="JN6" s="4"/>
+      <c r="JO6" s="4"/>
+      <c r="JP6" s="4"/>
+      <c r="JQ6" s="4"/>
+      <c r="JR6" s="4"/>
+      <c r="JS6" s="4"/>
+      <c r="JT6" s="4"/>
+      <c r="JU6" s="4"/>
+      <c r="JV6" s="4"/>
+      <c r="JW6" s="4"/>
+      <c r="JX6" s="4"/>
+      <c r="JY6" s="4"/>
+      <c r="JZ6" s="4"/>
+      <c r="KA6" s="4"/>
+      <c r="KB6" s="4"/>
+      <c r="KC6" s="4"/>
+      <c r="KD6" s="4"/>
+      <c r="KE6" s="4"/>
+      <c r="KF6" s="4"/>
+      <c r="KG6" s="4"/>
+      <c r="KH6" s="4"/>
+      <c r="KI6" s="4"/>
+      <c r="KJ6" s="4"/>
+      <c r="KK6" s="4"/>
+      <c r="KL6" s="4"/>
+      <c r="KM6" s="4"/>
+      <c r="KN6" s="4"/>
+      <c r="KO6" s="4"/>
+      <c r="KP6" s="4"/>
+      <c r="KQ6" s="4"/>
+      <c r="KR6" s="4"/>
+      <c r="KS6" s="4"/>
+      <c r="KT6" s="4"/>
+      <c r="KU6" s="4"/>
+      <c r="KV6" s="4"/>
+      <c r="KW6" s="4"/>
+      <c r="KX6" s="4"/>
+      <c r="KY6" s="4"/>
+      <c r="KZ6" s="4"/>
+      <c r="LA6" s="4"/>
+      <c r="LB6" s="4"/>
+      <c r="LC6" s="4"/>
+      <c r="LD6" s="4"/>
+      <c r="LE6" s="4"/>
+      <c r="LF6" s="4"/>
+      <c r="LG6" s="4"/>
+      <c r="LH6" s="4"/>
+      <c r="LI6" s="4"/>
+      <c r="LJ6" s="4"/>
+      <c r="LK6" s="4"/>
+      <c r="LL6" s="4"/>
+      <c r="LM6" s="4"/>
+      <c r="LN6" s="4"/>
+      <c r="LO6" s="4"/>
+      <c r="LP6" s="4"/>
+      <c r="LQ6" s="4"/>
+      <c r="LR6" s="4"/>
+      <c r="LS6" s="4"/>
+      <c r="LT6" s="4"/>
+      <c r="LU6" s="4"/>
+      <c r="LV6" s="4"/>
+      <c r="LW6" s="4"/>
+      <c r="LX6" s="4"/>
+      <c r="LY6" s="4"/>
+      <c r="LZ6" s="4"/>
+      <c r="MA6" s="4"/>
+      <c r="MB6" s="4"/>
+      <c r="MC6" s="4"/>
+      <c r="MD6" s="4"/>
+      <c r="ME6" s="4"/>
+      <c r="MF6" s="4"/>
+      <c r="MG6" s="4"/>
+      <c r="MH6" s="4"/>
+      <c r="MI6" s="4"/>
+      <c r="MJ6" s="4"/>
+      <c r="MK6" s="4"/>
+      <c r="ML6" s="4"/>
+      <c r="MM6" s="4"/>
+      <c r="MN6" s="4"/>
+      <c r="MO6" s="4"/>
+      <c r="MP6" s="4"/>
+      <c r="MQ6" s="4"/>
+      <c r="MR6" s="4"/>
+      <c r="MS6" s="4"/>
+      <c r="MT6" s="4"/>
+      <c r="MU6" s="4"/>
+      <c r="MV6" s="4"/>
+      <c r="MW6" s="4"/>
+      <c r="MX6" s="4"/>
+      <c r="MY6" s="4"/>
+      <c r="MZ6" s="4"/>
+      <c r="NA6" s="4"/>
+      <c r="NB6" s="4"/>
+      <c r="NC6" s="4"/>
+      <c r="ND6" s="4"/>
+      <c r="NE6" s="4"/>
+      <c r="NF6" s="4"/>
+      <c r="NG6" s="4"/>
+      <c r="NH6" s="4"/>
+      <c r="NI6" s="4"/>
+      <c r="NJ6" s="4"/>
+      <c r="NK6" s="4"/>
+      <c r="NL6" s="4"/>
+      <c r="NM6" s="4"/>
+      <c r="NN6" s="4"/>
+      <c r="NO6" s="4"/>
+      <c r="NP6" s="4"/>
+      <c r="NQ6" s="4"/>
+      <c r="NR6" s="4"/>
+      <c r="NS6" s="4"/>
+      <c r="NT6" s="4"/>
+      <c r="NU6" s="4"/>
+      <c r="NV6" s="4"/>
+      <c r="NW6" s="4"/>
+      <c r="NX6" s="4"/>
+      <c r="NY6" s="4"/>
+      <c r="NZ6" s="4"/>
+      <c r="OA6" s="4"/>
+      <c r="OB6" s="4"/>
+      <c r="OC6" s="4"/>
+      <c r="OD6" s="4"/>
+      <c r="OE6" s="4"/>
+      <c r="OF6" s="4"/>
+      <c r="OG6" s="4"/>
+      <c r="OH6" s="4"/>
+      <c r="OI6" s="4"/>
+      <c r="OJ6" s="4"/>
+      <c r="OK6" s="4"/>
+      <c r="OL6" s="4"/>
+      <c r="OM6" s="4"/>
+      <c r="ON6" s="4"/>
+      <c r="OO6" s="4"/>
+      <c r="OP6" s="4"/>
+      <c r="OQ6" s="4"/>
+      <c r="OR6" s="4"/>
+      <c r="OS6" s="4"/>
+      <c r="OT6" s="4"/>
+      <c r="OU6" s="4"/>
+      <c r="OV6" s="4"/>
+      <c r="OW6" s="4"/>
+      <c r="OX6" s="4"/>
+      <c r="OY6" s="4"/>
+      <c r="OZ6" s="4"/>
+      <c r="PA6" s="4"/>
+      <c r="PB6" s="4"/>
+      <c r="PC6" s="4"/>
+      <c r="PD6" s="4"/>
+      <c r="PE6" s="4"/>
+      <c r="PF6" s="4"/>
+      <c r="PG6" s="4"/>
+      <c r="PH6" s="4"/>
+      <c r="PI6" s="4"/>
+      <c r="PJ6" s="4"/>
+      <c r="PK6" s="4"/>
+      <c r="PL6" s="4"/>
+      <c r="PM6" s="4"/>
+      <c r="PN6" s="4"/>
+      <c r="PO6" s="4"/>
+      <c r="PP6" s="4"/>
+      <c r="PQ6" s="4"/>
+      <c r="PR6" s="4"/>
+      <c r="PS6" s="4"/>
+      <c r="PT6" s="4"/>
+      <c r="PU6" s="4"/>
+      <c r="PV6" s="4"/>
+      <c r="PW6" s="4"/>
+      <c r="PX6" s="4"/>
+      <c r="PY6" s="4"/>
+      <c r="PZ6" s="4"/>
+      <c r="QA6" s="4"/>
+      <c r="QB6" s="4"/>
+      <c r="QC6" s="4"/>
+      <c r="QD6" s="4"/>
+      <c r="QE6" s="4"/>
+      <c r="QF6" s="4"/>
+      <c r="QG6" s="4"/>
+      <c r="QH6" s="4"/>
+      <c r="QI6" s="4"/>
+      <c r="QJ6" s="4"/>
+      <c r="QK6" s="4"/>
+      <c r="QL6" s="4"/>
+      <c r="QM6" s="4"/>
+      <c r="QN6" s="4"/>
+      <c r="QO6" s="4"/>
+      <c r="QP6" s="4"/>
+      <c r="QQ6" s="4"/>
+      <c r="QR6" s="4"/>
+      <c r="QS6" s="4"/>
+      <c r="QT6" s="4"/>
+      <c r="QU6" s="4"/>
+      <c r="QV6" s="4"/>
+      <c r="QW6" s="4"/>
+      <c r="QX6" s="4"/>
+      <c r="QY6" s="4"/>
+      <c r="QZ6" s="4"/>
+      <c r="RA6" s="4"/>
+      <c r="RB6" s="4"/>
+      <c r="RC6" s="4"/>
+      <c r="RD6" s="4"/>
+      <c r="RE6" s="4"/>
+      <c r="RF6" s="4"/>
+      <c r="RG6" s="4"/>
+      <c r="RH6" s="4"/>
+      <c r="RI6" s="4"/>
+      <c r="RJ6" s="4"/>
+      <c r="RK6" s="4"/>
+      <c r="RL6" s="4"/>
+      <c r="RM6" s="4"/>
+      <c r="RN6" s="4"/>
+      <c r="RO6" s="4"/>
+      <c r="RP6" s="4"/>
     </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>132</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="2">
-        <v>96853931</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2">
-        <v>841</v>
-      </c>
-      <c r="G3" s="2" t="s">
+    <row r="7" spans="1:484" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="4"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="4"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="4"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4"/>
+      <c r="BE7" s="4"/>
+      <c r="BF7" s="4"/>
+      <c r="BG7" s="4"/>
+      <c r="BH7" s="4"/>
+      <c r="BI7" s="4"/>
+      <c r="BJ7" s="4"/>
+      <c r="BK7" s="4"/>
+      <c r="BL7" s="4"/>
+      <c r="BM7" s="4"/>
+      <c r="BN7" s="4"/>
+      <c r="BO7" s="4"/>
+      <c r="BP7" s="4"/>
+      <c r="BQ7" s="4"/>
+      <c r="BR7" s="4"/>
+      <c r="BS7" s="4"/>
+      <c r="BT7" s="4"/>
+      <c r="BU7" s="4"/>
+      <c r="BV7" s="4"/>
+      <c r="BW7" s="4"/>
+      <c r="BX7" s="4"/>
+      <c r="BY7" s="4"/>
+      <c r="BZ7" s="4"/>
+      <c r="CA7" s="4"/>
+      <c r="CB7" s="4"/>
+      <c r="CC7" s="4"/>
+      <c r="CD7" s="4"/>
+      <c r="CE7" s="4"/>
+      <c r="CF7" s="4"/>
+      <c r="CG7" s="4"/>
+      <c r="CH7" s="4"/>
+      <c r="CI7" s="4"/>
+      <c r="CJ7" s="4"/>
+      <c r="CK7" s="4"/>
+      <c r="CL7" s="4"/>
+      <c r="CM7" s="4"/>
+      <c r="CN7" s="4"/>
+      <c r="CO7" s="4"/>
+      <c r="CP7" s="4"/>
+      <c r="CQ7" s="4"/>
+      <c r="CR7" s="4"/>
+      <c r="CS7" s="4"/>
+      <c r="CT7" s="4"/>
+      <c r="CU7" s="4"/>
+      <c r="CV7" s="4"/>
+      <c r="CW7" s="4"/>
+      <c r="CX7" s="4"/>
+      <c r="CY7" s="4"/>
+      <c r="CZ7" s="4"/>
+      <c r="DA7" s="4"/>
+      <c r="DB7" s="4"/>
+      <c r="DC7" s="4"/>
+      <c r="DD7" s="4"/>
+      <c r="DE7" s="4"/>
+      <c r="DF7" s="4"/>
+      <c r="DG7" s="4"/>
+      <c r="DH7" s="4"/>
+      <c r="DI7" s="4"/>
+      <c r="DJ7" s="4"/>
+      <c r="DK7" s="4"/>
+      <c r="DL7" s="4"/>
+      <c r="DM7" s="4"/>
+      <c r="DN7" s="4"/>
+      <c r="DO7" s="4"/>
+      <c r="DP7" s="4"/>
+      <c r="DQ7" s="4"/>
+      <c r="DR7" s="4"/>
+      <c r="DS7" s="4"/>
+      <c r="DT7" s="4"/>
+      <c r="DU7" s="4"/>
+      <c r="DV7" s="4"/>
+      <c r="DW7" s="4"/>
+      <c r="DX7" s="4"/>
+      <c r="DY7" s="4"/>
+      <c r="DZ7" s="4"/>
+      <c r="EA7" s="4"/>
+      <c r="EB7" s="4"/>
+      <c r="EC7" s="4"/>
+      <c r="ED7" s="4"/>
+      <c r="EE7" s="4"/>
+      <c r="EF7" s="4"/>
+      <c r="EG7" s="4"/>
+      <c r="EH7" s="4"/>
+      <c r="EI7" s="4"/>
+      <c r="EJ7" s="4"/>
+      <c r="EK7" s="4"/>
+      <c r="EL7" s="4"/>
+      <c r="EM7" s="4"/>
+      <c r="EN7" s="4"/>
+      <c r="EO7" s="4"/>
+      <c r="EP7" s="4"/>
+      <c r="EQ7" s="4"/>
+      <c r="ER7" s="4"/>
+      <c r="ES7" s="4"/>
+      <c r="ET7" s="4"/>
+      <c r="EU7" s="4"/>
+      <c r="EV7" s="4"/>
+      <c r="EW7" s="4"/>
+      <c r="EX7" s="4"/>
+      <c r="EY7" s="4"/>
+      <c r="EZ7" s="4"/>
+      <c r="FA7" s="4"/>
+      <c r="FB7" s="4"/>
+      <c r="FC7" s="4"/>
+      <c r="FD7" s="4"/>
+      <c r="FE7" s="4"/>
+      <c r="FF7" s="4"/>
+      <c r="FG7" s="4"/>
+      <c r="FH7" s="4"/>
+      <c r="FI7" s="4"/>
+      <c r="FJ7" s="4"/>
+      <c r="FK7" s="4"/>
+      <c r="FL7" s="4"/>
+      <c r="FM7" s="4"/>
+      <c r="FN7" s="4"/>
+      <c r="FO7" s="4"/>
+      <c r="FP7" s="4"/>
+      <c r="FQ7" s="4"/>
+      <c r="FR7" s="4"/>
+      <c r="FS7" s="4"/>
+      <c r="FT7" s="4"/>
+      <c r="FU7" s="4"/>
+      <c r="FV7" s="4"/>
+      <c r="FW7" s="4"/>
+      <c r="FX7" s="4"/>
+      <c r="FY7" s="4"/>
+      <c r="FZ7" s="4"/>
+      <c r="GA7" s="4"/>
+      <c r="GB7" s="4"/>
+      <c r="GC7" s="4"/>
+      <c r="GD7" s="4"/>
+      <c r="GE7" s="4"/>
+      <c r="GF7" s="4"/>
+      <c r="GG7" s="4"/>
+      <c r="GH7" s="4"/>
+      <c r="GI7" s="4"/>
+      <c r="GJ7" s="4"/>
+      <c r="GK7" s="4"/>
+      <c r="GL7" s="4"/>
+      <c r="GM7" s="4"/>
+      <c r="GN7" s="4"/>
+      <c r="GO7" s="4"/>
+      <c r="GP7" s="4"/>
+      <c r="GQ7" s="4"/>
+      <c r="GR7" s="4"/>
+      <c r="GS7" s="4"/>
+      <c r="GT7" s="4"/>
+      <c r="GU7" s="4"/>
+      <c r="GV7" s="4"/>
+      <c r="GW7" s="4"/>
+      <c r="GX7" s="4"/>
+      <c r="GY7" s="4"/>
+      <c r="GZ7" s="4"/>
+      <c r="HA7" s="4"/>
+      <c r="HB7" s="4"/>
+      <c r="HC7" s="4"/>
+      <c r="HD7" s="4"/>
+      <c r="HE7" s="4"/>
+      <c r="HF7" s="4"/>
+      <c r="HG7" s="4"/>
+      <c r="HH7" s="4"/>
+      <c r="HI7" s="4"/>
+      <c r="HJ7" s="4"/>
+      <c r="HK7" s="4"/>
+      <c r="HL7" s="4"/>
+      <c r="HM7" s="4"/>
+      <c r="HN7" s="4"/>
+      <c r="HO7" s="4"/>
+      <c r="HP7" s="4"/>
+      <c r="HQ7" s="4"/>
+      <c r="HR7" s="4"/>
+      <c r="HS7" s="4"/>
+      <c r="HT7" s="4"/>
+      <c r="HU7" s="4"/>
+      <c r="HV7" s="4"/>
+      <c r="HW7" s="4"/>
+      <c r="HX7" s="4"/>
+      <c r="HY7" s="4"/>
+      <c r="HZ7" s="4"/>
+      <c r="IA7" s="4"/>
+      <c r="IB7" s="4"/>
+      <c r="IC7" s="4"/>
+      <c r="ID7" s="4"/>
+      <c r="IE7" s="4"/>
+      <c r="IF7" s="4"/>
+      <c r="IG7" s="4"/>
+      <c r="IH7" s="4"/>
+      <c r="II7" s="4"/>
+      <c r="IJ7" s="4"/>
+      <c r="IK7" s="4"/>
+      <c r="IL7" s="4"/>
+      <c r="IM7" s="4"/>
+      <c r="IN7" s="4"/>
+      <c r="IO7" s="4"/>
+      <c r="IP7" s="4"/>
+      <c r="IQ7" s="4"/>
+      <c r="IR7" s="4"/>
+      <c r="IS7" s="4"/>
+      <c r="IT7" s="4"/>
+      <c r="IU7" s="4"/>
+      <c r="IV7" s="4"/>
+      <c r="IW7" s="4"/>
+      <c r="IX7" s="4"/>
+      <c r="IY7" s="4"/>
+      <c r="IZ7" s="4"/>
+      <c r="JA7" s="4"/>
+      <c r="JB7" s="4"/>
+      <c r="JC7" s="4"/>
+      <c r="JD7" s="4"/>
+      <c r="JE7" s="4"/>
+      <c r="JF7" s="4"/>
+      <c r="JG7" s="4"/>
+      <c r="JH7" s="4"/>
+      <c r="JI7" s="4"/>
+      <c r="JJ7" s="4"/>
+      <c r="JK7" s="4"/>
+      <c r="JL7" s="4"/>
+      <c r="JM7" s="4"/>
+      <c r="JN7" s="4"/>
+      <c r="JO7" s="4"/>
+      <c r="JP7" s="4"/>
+      <c r="JQ7" s="4"/>
+      <c r="JR7" s="4"/>
+      <c r="JS7" s="4"/>
+      <c r="JT7" s="4"/>
+      <c r="JU7" s="4"/>
+      <c r="JV7" s="4"/>
+      <c r="JW7" s="4"/>
+      <c r="JX7" s="4"/>
+      <c r="JY7" s="4"/>
+      <c r="JZ7" s="4"/>
+      <c r="KA7" s="4"/>
+      <c r="KB7" s="4"/>
+      <c r="KC7" s="4"/>
+      <c r="KD7" s="4"/>
+      <c r="KE7" s="4"/>
+      <c r="KF7" s="4"/>
+      <c r="KG7" s="4"/>
+      <c r="KH7" s="4"/>
+      <c r="KI7" s="4"/>
+      <c r="KJ7" s="4"/>
+      <c r="KK7" s="4"/>
+      <c r="KL7" s="4"/>
+      <c r="KM7" s="4"/>
+      <c r="KN7" s="4"/>
+      <c r="KO7" s="4"/>
+      <c r="KP7" s="4"/>
+      <c r="KQ7" s="4"/>
+      <c r="KR7" s="4"/>
+      <c r="KS7" s="4"/>
+      <c r="KT7" s="4"/>
+      <c r="KU7" s="4"/>
+      <c r="KV7" s="4"/>
+      <c r="KW7" s="4"/>
+      <c r="KX7" s="4"/>
+      <c r="KY7" s="4"/>
+      <c r="KZ7" s="4"/>
+      <c r="LA7" s="4"/>
+      <c r="LB7" s="4"/>
+      <c r="LC7" s="4"/>
+      <c r="LD7" s="4"/>
+      <c r="LE7" s="4"/>
+      <c r="LF7" s="4"/>
+      <c r="LG7" s="4"/>
+      <c r="LH7" s="4"/>
+      <c r="LI7" s="4"/>
+      <c r="LJ7" s="4"/>
+      <c r="LK7" s="4"/>
+      <c r="LL7" s="4"/>
+      <c r="LM7" s="4"/>
+      <c r="LN7" s="4"/>
+      <c r="LO7" s="4"/>
+      <c r="LP7" s="4"/>
+      <c r="LQ7" s="4"/>
+      <c r="LR7" s="4"/>
+      <c r="LS7" s="4"/>
+      <c r="LT7" s="4"/>
+      <c r="LU7" s="4"/>
+      <c r="LV7" s="4"/>
+      <c r="LW7" s="4"/>
+      <c r="LX7" s="4"/>
+      <c r="LY7" s="4"/>
+      <c r="LZ7" s="4"/>
+      <c r="MA7" s="4"/>
+      <c r="MB7" s="4"/>
+      <c r="MC7" s="4"/>
+      <c r="MD7" s="4"/>
+      <c r="ME7" s="4"/>
+      <c r="MF7" s="4"/>
+      <c r="MG7" s="4"/>
+      <c r="MH7" s="4"/>
+      <c r="MI7" s="4"/>
+      <c r="MJ7" s="4"/>
+      <c r="MK7" s="4"/>
+      <c r="ML7" s="4"/>
+      <c r="MM7" s="4"/>
+      <c r="MN7" s="4"/>
+      <c r="MO7" s="4"/>
+      <c r="MP7" s="4"/>
+      <c r="MQ7" s="4"/>
+      <c r="MR7" s="4"/>
+      <c r="MS7" s="4"/>
+      <c r="MT7" s="4"/>
+      <c r="MU7" s="4"/>
+      <c r="MV7" s="4"/>
+      <c r="MW7" s="4"/>
+      <c r="MX7" s="4"/>
+      <c r="MY7" s="4"/>
+      <c r="MZ7" s="4"/>
+      <c r="NA7" s="4"/>
+      <c r="NB7" s="4"/>
+      <c r="NC7" s="4"/>
+      <c r="ND7" s="4"/>
+      <c r="NE7" s="4"/>
+      <c r="NF7" s="4"/>
+      <c r="NG7" s="4"/>
+      <c r="NH7" s="4"/>
+      <c r="NI7" s="4"/>
+      <c r="NJ7" s="4"/>
+      <c r="NK7" s="4"/>
+      <c r="NL7" s="4"/>
+      <c r="NM7" s="4"/>
+      <c r="NN7" s="4"/>
+      <c r="NO7" s="4"/>
+      <c r="NP7" s="4"/>
+      <c r="NQ7" s="4"/>
+      <c r="NR7" s="4"/>
+      <c r="NS7" s="4"/>
+      <c r="NT7" s="4"/>
+      <c r="NU7" s="4"/>
+      <c r="NV7" s="4"/>
+      <c r="NW7" s="4"/>
+      <c r="NX7" s="4"/>
+      <c r="NY7" s="4"/>
+      <c r="NZ7" s="4"/>
+      <c r="OA7" s="4"/>
+      <c r="OB7" s="4"/>
+      <c r="OC7" s="4"/>
+      <c r="OD7" s="4"/>
+      <c r="OE7" s="4"/>
+      <c r="OF7" s="4"/>
+      <c r="OG7" s="4"/>
+      <c r="OH7" s="4"/>
+      <c r="OI7" s="4"/>
+      <c r="OJ7" s="4"/>
+      <c r="OK7" s="4"/>
+      <c r="OL7" s="4"/>
+      <c r="OM7" s="4"/>
+      <c r="ON7" s="4"/>
+      <c r="OO7" s="4"/>
+      <c r="OP7" s="4"/>
+      <c r="OQ7" s="4"/>
+      <c r="OR7" s="4"/>
+      <c r="OS7" s="4"/>
+      <c r="OT7" s="4"/>
+      <c r="OU7" s="4"/>
+      <c r="OV7" s="4"/>
+      <c r="OW7" s="4"/>
+      <c r="OX7" s="4"/>
+      <c r="OY7" s="4"/>
+      <c r="OZ7" s="4"/>
+      <c r="PA7" s="4"/>
+      <c r="PB7" s="4"/>
+      <c r="PC7" s="4"/>
+      <c r="PD7" s="4"/>
+      <c r="PE7" s="4"/>
+      <c r="PF7" s="4"/>
+      <c r="PG7" s="4"/>
+      <c r="PH7" s="4"/>
+      <c r="PI7" s="4"/>
+      <c r="PJ7" s="4"/>
+      <c r="PK7" s="4"/>
+      <c r="PL7" s="4"/>
+      <c r="PM7" s="4"/>
+      <c r="PN7" s="4"/>
+      <c r="PO7" s="4"/>
+      <c r="PP7" s="4"/>
+      <c r="PQ7" s="4"/>
+      <c r="PR7" s="4"/>
+      <c r="PS7" s="4"/>
+      <c r="PT7" s="4"/>
+      <c r="PU7" s="4"/>
+      <c r="PV7" s="4"/>
+      <c r="PW7" s="4"/>
+      <c r="PX7" s="4"/>
+      <c r="PY7" s="4"/>
+      <c r="PZ7" s="4"/>
+      <c r="QA7" s="4"/>
+      <c r="QB7" s="4"/>
+      <c r="QC7" s="4"/>
+      <c r="QD7" s="4"/>
+      <c r="QE7" s="4"/>
+      <c r="QF7" s="4"/>
+      <c r="QG7" s="4"/>
+      <c r="QH7" s="4"/>
+      <c r="QI7" s="4"/>
+      <c r="QJ7" s="4"/>
+      <c r="QK7" s="4"/>
+      <c r="QL7" s="4"/>
+      <c r="QM7" s="4"/>
+      <c r="QN7" s="4"/>
+      <c r="QO7" s="4"/>
+      <c r="QP7" s="4"/>
+      <c r="QQ7" s="4"/>
+      <c r="QR7" s="4"/>
+      <c r="QS7" s="4"/>
+      <c r="QT7" s="4"/>
+      <c r="QU7" s="4"/>
+      <c r="QV7" s="4"/>
+      <c r="QW7" s="4"/>
+      <c r="QX7" s="4"/>
+      <c r="QY7" s="4"/>
+      <c r="QZ7" s="4"/>
+      <c r="RA7" s="4"/>
+      <c r="RB7" s="4"/>
+      <c r="RC7" s="4"/>
+      <c r="RD7" s="4"/>
+      <c r="RE7" s="4"/>
+      <c r="RF7" s="4"/>
+      <c r="RG7" s="4"/>
+      <c r="RH7" s="4"/>
+      <c r="RI7" s="4"/>
+      <c r="RJ7" s="4"/>
+      <c r="RK7" s="4"/>
+      <c r="RL7" s="4"/>
+      <c r="RM7" s="4"/>
+      <c r="RN7" s="4"/>
+      <c r="RO7" s="4"/>
+      <c r="RP7" s="4"/>
+    </row>
+    <row r="8" spans="1:484" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="4"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
+      <c r="BA8" s="4"/>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="4"/>
+      <c r="BD8" s="4"/>
+      <c r="BE8" s="4"/>
+      <c r="BF8" s="4"/>
+      <c r="BG8" s="4"/>
+      <c r="BH8" s="4"/>
+      <c r="BI8" s="4"/>
+      <c r="BJ8" s="4"/>
+      <c r="BK8" s="4"/>
+      <c r="BL8" s="4"/>
+      <c r="BM8" s="4"/>
+      <c r="BN8" s="4"/>
+      <c r="BO8" s="4"/>
+      <c r="BP8" s="4"/>
+      <c r="BQ8" s="4"/>
+      <c r="BR8" s="4"/>
+      <c r="BS8" s="4"/>
+      <c r="BT8" s="4"/>
+      <c r="BU8" s="4"/>
+      <c r="BV8" s="4"/>
+      <c r="BW8" s="4"/>
+      <c r="BX8" s="4"/>
+      <c r="BY8" s="4"/>
+      <c r="BZ8" s="4"/>
+      <c r="CA8" s="4"/>
+      <c r="CB8" s="4"/>
+      <c r="CC8" s="4"/>
+      <c r="CD8" s="4"/>
+      <c r="CE8" s="4"/>
+      <c r="CF8" s="4"/>
+      <c r="CG8" s="4"/>
+      <c r="CH8" s="4"/>
+      <c r="CI8" s="4"/>
+      <c r="CJ8" s="4"/>
+      <c r="CK8" s="4"/>
+      <c r="CL8" s="4"/>
+      <c r="CM8" s="4"/>
+      <c r="CN8" s="4"/>
+      <c r="CO8" s="4"/>
+      <c r="CP8" s="4"/>
+      <c r="CQ8" s="4"/>
+      <c r="CR8" s="4"/>
+      <c r="CS8" s="4"/>
+      <c r="CT8" s="4"/>
+      <c r="CU8" s="4"/>
+      <c r="CV8" s="4"/>
+      <c r="CW8" s="4"/>
+      <c r="CX8" s="4"/>
+      <c r="CY8" s="4"/>
+      <c r="CZ8" s="4"/>
+      <c r="DA8" s="4"/>
+      <c r="DB8" s="4"/>
+      <c r="DC8" s="4"/>
+      <c r="DD8" s="4"/>
+      <c r="DE8" s="4"/>
+      <c r="DF8" s="4"/>
+      <c r="DG8" s="4"/>
+      <c r="DH8" s="4"/>
+      <c r="DI8" s="4"/>
+      <c r="DJ8" s="4"/>
+      <c r="DK8" s="4"/>
+      <c r="DL8" s="4"/>
+      <c r="DM8" s="4"/>
+      <c r="DN8" s="4"/>
+      <c r="DO8" s="4"/>
+      <c r="DP8" s="4"/>
+      <c r="DQ8" s="4"/>
+      <c r="DR8" s="4"/>
+      <c r="DS8" s="4"/>
+      <c r="DT8" s="4"/>
+      <c r="DU8" s="4"/>
+      <c r="DV8" s="4"/>
+      <c r="DW8" s="4"/>
+      <c r="DX8" s="4"/>
+      <c r="DY8" s="4"/>
+      <c r="DZ8" s="4"/>
+      <c r="EA8" s="4"/>
+      <c r="EB8" s="4"/>
+      <c r="EC8" s="4"/>
+      <c r="ED8" s="4"/>
+      <c r="EE8" s="4"/>
+      <c r="EF8" s="4"/>
+      <c r="EG8" s="4"/>
+      <c r="EH8" s="4"/>
+      <c r="EI8" s="4"/>
+      <c r="EJ8" s="4"/>
+      <c r="EK8" s="4"/>
+      <c r="EL8" s="4"/>
+      <c r="EM8" s="4"/>
+      <c r="EN8" s="4"/>
+      <c r="EO8" s="4"/>
+      <c r="EP8" s="4"/>
+      <c r="EQ8" s="4"/>
+      <c r="ER8" s="4"/>
+      <c r="ES8" s="4"/>
+      <c r="ET8" s="4"/>
+      <c r="EU8" s="4"/>
+      <c r="EV8" s="4"/>
+      <c r="EW8" s="4"/>
+      <c r="EX8" s="4"/>
+      <c r="EY8" s="4"/>
+      <c r="EZ8" s="4"/>
+      <c r="FA8" s="4"/>
+      <c r="FB8" s="4"/>
+      <c r="FC8" s="4"/>
+      <c r="FD8" s="4"/>
+      <c r="FE8" s="4"/>
+      <c r="FF8" s="4"/>
+      <c r="FG8" s="4"/>
+      <c r="FH8" s="4"/>
+      <c r="FI8" s="4"/>
+      <c r="FJ8" s="4"/>
+      <c r="FK8" s="4"/>
+      <c r="FL8" s="4"/>
+      <c r="FM8" s="4"/>
+      <c r="FN8" s="4"/>
+      <c r="FO8" s="4"/>
+      <c r="FP8" s="4"/>
+      <c r="FQ8" s="4"/>
+      <c r="FR8" s="4"/>
+      <c r="FS8" s="4"/>
+      <c r="FT8" s="4"/>
+      <c r="FU8" s="4"/>
+      <c r="FV8" s="4"/>
+      <c r="FW8" s="4"/>
+      <c r="FX8" s="4"/>
+      <c r="FY8" s="4"/>
+      <c r="FZ8" s="4"/>
+      <c r="GA8" s="4"/>
+      <c r="GB8" s="4"/>
+      <c r="GC8" s="4"/>
+      <c r="GD8" s="4"/>
+      <c r="GE8" s="4"/>
+      <c r="GF8" s="4"/>
+      <c r="GG8" s="4"/>
+      <c r="GH8" s="4"/>
+      <c r="GI8" s="4"/>
+      <c r="GJ8" s="4"/>
+      <c r="GK8" s="4"/>
+      <c r="GL8" s="4"/>
+      <c r="GM8" s="4"/>
+      <c r="GN8" s="4"/>
+      <c r="GO8" s="4"/>
+      <c r="GP8" s="4"/>
+      <c r="GQ8" s="4"/>
+      <c r="GR8" s="4"/>
+      <c r="GS8" s="4"/>
+      <c r="GT8" s="4"/>
+      <c r="GU8" s="4"/>
+      <c r="GV8" s="4"/>
+      <c r="GW8" s="4"/>
+      <c r="GX8" s="4"/>
+      <c r="GY8" s="4"/>
+      <c r="GZ8" s="4"/>
+      <c r="HA8" s="4"/>
+      <c r="HB8" s="4"/>
+      <c r="HC8" s="4"/>
+      <c r="HD8" s="4"/>
+      <c r="HE8" s="4"/>
+      <c r="HF8" s="4"/>
+      <c r="HG8" s="4"/>
+      <c r="HH8" s="4"/>
+      <c r="HI8" s="4"/>
+      <c r="HJ8" s="4"/>
+      <c r="HK8" s="4"/>
+      <c r="HL8" s="4"/>
+      <c r="HM8" s="4"/>
+      <c r="HN8" s="4"/>
+      <c r="HO8" s="4"/>
+      <c r="HP8" s="4"/>
+      <c r="HQ8" s="4"/>
+      <c r="HR8" s="4"/>
+      <c r="HS8" s="4"/>
+      <c r="HT8" s="4"/>
+      <c r="HU8" s="4"/>
+      <c r="HV8" s="4"/>
+      <c r="HW8" s="4"/>
+      <c r="HX8" s="4"/>
+      <c r="HY8" s="4"/>
+      <c r="HZ8" s="4"/>
+      <c r="IA8" s="4"/>
+      <c r="IB8" s="4"/>
+      <c r="IC8" s="4"/>
+      <c r="ID8" s="4"/>
+      <c r="IE8" s="4"/>
+      <c r="IF8" s="4"/>
+      <c r="IG8" s="4"/>
+      <c r="IH8" s="4"/>
+      <c r="II8" s="4"/>
+      <c r="IJ8" s="4"/>
+      <c r="IK8" s="4"/>
+      <c r="IL8" s="4"/>
+      <c r="IM8" s="4"/>
+      <c r="IN8" s="4"/>
+      <c r="IO8" s="4"/>
+      <c r="IP8" s="4"/>
+      <c r="IQ8" s="4"/>
+      <c r="IR8" s="4"/>
+      <c r="IS8" s="4"/>
+      <c r="IT8" s="4"/>
+      <c r="IU8" s="4"/>
+      <c r="IV8" s="4"/>
+      <c r="IW8" s="4"/>
+      <c r="IX8" s="4"/>
+      <c r="IY8" s="4"/>
+      <c r="IZ8" s="4"/>
+      <c r="JA8" s="4"/>
+      <c r="JB8" s="4"/>
+      <c r="JC8" s="4"/>
+      <c r="JD8" s="4"/>
+      <c r="JE8" s="4"/>
+      <c r="JF8" s="4"/>
+      <c r="JG8" s="4"/>
+      <c r="JH8" s="4"/>
+      <c r="JI8" s="4"/>
+      <c r="JJ8" s="4"/>
+      <c r="JK8" s="4"/>
+      <c r="JL8" s="4"/>
+      <c r="JM8" s="4"/>
+      <c r="JN8" s="4"/>
+      <c r="JO8" s="4"/>
+      <c r="JP8" s="4"/>
+      <c r="JQ8" s="4"/>
+      <c r="JR8" s="4"/>
+      <c r="JS8" s="4"/>
+      <c r="JT8" s="4"/>
+      <c r="JU8" s="4"/>
+      <c r="JV8" s="4"/>
+      <c r="JW8" s="4"/>
+      <c r="JX8" s="4"/>
+      <c r="JY8" s="4"/>
+      <c r="JZ8" s="4"/>
+      <c r="KA8" s="4"/>
+      <c r="KB8" s="4"/>
+      <c r="KC8" s="4"/>
+      <c r="KD8" s="4"/>
+      <c r="KE8" s="4"/>
+      <c r="KF8" s="4"/>
+      <c r="KG8" s="4"/>
+      <c r="KH8" s="4"/>
+      <c r="KI8" s="4"/>
+      <c r="KJ8" s="4"/>
+      <c r="KK8" s="4"/>
+      <c r="KL8" s="4"/>
+      <c r="KM8" s="4"/>
+      <c r="KN8" s="4"/>
+      <c r="KO8" s="4"/>
+      <c r="KP8" s="4"/>
+      <c r="KQ8" s="4"/>
+      <c r="KR8" s="4"/>
+      <c r="KS8" s="4"/>
+      <c r="KT8" s="4"/>
+      <c r="KU8" s="4"/>
+      <c r="KV8" s="4"/>
+      <c r="KW8" s="4"/>
+      <c r="KX8" s="4"/>
+      <c r="KY8" s="4"/>
+      <c r="KZ8" s="4"/>
+      <c r="LA8" s="4"/>
+      <c r="LB8" s="4"/>
+      <c r="LC8" s="4"/>
+      <c r="LD8" s="4"/>
+      <c r="LE8" s="4"/>
+      <c r="LF8" s="4"/>
+      <c r="LG8" s="4"/>
+      <c r="LH8" s="4"/>
+      <c r="LI8" s="4"/>
+      <c r="LJ8" s="4"/>
+      <c r="LK8" s="4"/>
+      <c r="LL8" s="4"/>
+      <c r="LM8" s="4"/>
+      <c r="LN8" s="4"/>
+      <c r="LO8" s="4"/>
+      <c r="LP8" s="4"/>
+      <c r="LQ8" s="4"/>
+      <c r="LR8" s="4"/>
+      <c r="LS8" s="4"/>
+      <c r="LT8" s="4"/>
+      <c r="LU8" s="4"/>
+      <c r="LV8" s="4"/>
+      <c r="LW8" s="4"/>
+      <c r="LX8" s="4"/>
+      <c r="LY8" s="4"/>
+      <c r="LZ8" s="4"/>
+      <c r="MA8" s="4"/>
+      <c r="MB8" s="4"/>
+      <c r="MC8" s="4"/>
+      <c r="MD8" s="4"/>
+      <c r="ME8" s="4"/>
+      <c r="MF8" s="4"/>
+      <c r="MG8" s="4"/>
+      <c r="MH8" s="4"/>
+      <c r="MI8" s="4"/>
+      <c r="MJ8" s="4"/>
+      <c r="MK8" s="4"/>
+      <c r="ML8" s="4"/>
+      <c r="MM8" s="4"/>
+      <c r="MN8" s="4"/>
+      <c r="MO8" s="4"/>
+      <c r="MP8" s="4"/>
+      <c r="MQ8" s="4"/>
+      <c r="MR8" s="4"/>
+      <c r="MS8" s="4"/>
+      <c r="MT8" s="4"/>
+      <c r="MU8" s="4"/>
+      <c r="MV8" s="4"/>
+      <c r="MW8" s="4"/>
+      <c r="MX8" s="4"/>
+      <c r="MY8" s="4"/>
+      <c r="MZ8" s="4"/>
+      <c r="NA8" s="4"/>
+      <c r="NB8" s="4"/>
+      <c r="NC8" s="4"/>
+      <c r="ND8" s="4"/>
+      <c r="NE8" s="4"/>
+      <c r="NF8" s="4"/>
+      <c r="NG8" s="4"/>
+      <c r="NH8" s="4"/>
+      <c r="NI8" s="4"/>
+      <c r="NJ8" s="4"/>
+      <c r="NK8" s="4"/>
+      <c r="NL8" s="4"/>
+      <c r="NM8" s="4"/>
+      <c r="NN8" s="4"/>
+      <c r="NO8" s="4"/>
+      <c r="NP8" s="4"/>
+      <c r="NQ8" s="4"/>
+      <c r="NR8" s="4"/>
+      <c r="NS8" s="4"/>
+      <c r="NT8" s="4"/>
+      <c r="NU8" s="4"/>
+      <c r="NV8" s="4"/>
+      <c r="NW8" s="4"/>
+      <c r="NX8" s="4"/>
+      <c r="NY8" s="4"/>
+      <c r="NZ8" s="4"/>
+      <c r="OA8" s="4"/>
+      <c r="OB8" s="4"/>
+      <c r="OC8" s="4"/>
+      <c r="OD8" s="4"/>
+      <c r="OE8" s="4"/>
+      <c r="OF8" s="4"/>
+      <c r="OG8" s="4"/>
+      <c r="OH8" s="4"/>
+      <c r="OI8" s="4"/>
+      <c r="OJ8" s="4"/>
+      <c r="OK8" s="4"/>
+      <c r="OL8" s="4"/>
+      <c r="OM8" s="4"/>
+      <c r="ON8" s="4"/>
+      <c r="OO8" s="4"/>
+      <c r="OP8" s="4"/>
+      <c r="OQ8" s="4"/>
+      <c r="OR8" s="4"/>
+      <c r="OS8" s="4"/>
+      <c r="OT8" s="4"/>
+      <c r="OU8" s="4"/>
+      <c r="OV8" s="4"/>
+      <c r="OW8" s="4"/>
+      <c r="OX8" s="4"/>
+      <c r="OY8" s="4"/>
+      <c r="OZ8" s="4"/>
+      <c r="PA8" s="4"/>
+      <c r="PB8" s="4"/>
+      <c r="PC8" s="4"/>
+      <c r="PD8" s="4"/>
+      <c r="PE8" s="4"/>
+      <c r="PF8" s="4"/>
+      <c r="PG8" s="4"/>
+      <c r="PH8" s="4"/>
+      <c r="PI8" s="4"/>
+      <c r="PJ8" s="4"/>
+      <c r="PK8" s="4"/>
+      <c r="PL8" s="4"/>
+      <c r="PM8" s="4"/>
+      <c r="PN8" s="4"/>
+      <c r="PO8" s="4"/>
+      <c r="PP8" s="4"/>
+      <c r="PQ8" s="4"/>
+      <c r="PR8" s="4"/>
+      <c r="PS8" s="4"/>
+      <c r="PT8" s="4"/>
+      <c r="PU8" s="4"/>
+      <c r="PV8" s="4"/>
+      <c r="PW8" s="4"/>
+      <c r="PX8" s="4"/>
+      <c r="PY8" s="4"/>
+      <c r="PZ8" s="4"/>
+      <c r="QA8" s="4"/>
+      <c r="QB8" s="4"/>
+      <c r="QC8" s="4"/>
+      <c r="QD8" s="4"/>
+      <c r="QE8" s="4"/>
+      <c r="QF8" s="4"/>
+      <c r="QG8" s="4"/>
+      <c r="QH8" s="4"/>
+      <c r="QI8" s="4"/>
+      <c r="QJ8" s="4"/>
+      <c r="QK8" s="4"/>
+      <c r="QL8" s="4"/>
+      <c r="QM8" s="4"/>
+      <c r="QN8" s="4"/>
+      <c r="QO8" s="4"/>
+      <c r="QP8" s="4"/>
+      <c r="QQ8" s="4"/>
+      <c r="QR8" s="4"/>
+      <c r="QS8" s="4"/>
+      <c r="QT8" s="4"/>
+      <c r="QU8" s="4"/>
+      <c r="QV8" s="4"/>
+      <c r="QW8" s="4"/>
+      <c r="QX8" s="4"/>
+      <c r="QY8" s="4"/>
+      <c r="QZ8" s="4"/>
+      <c r="RA8" s="4"/>
+      <c r="RB8" s="4"/>
+      <c r="RC8" s="4"/>
+      <c r="RD8" s="4"/>
+      <c r="RE8" s="4"/>
+      <c r="RF8" s="4"/>
+      <c r="RG8" s="4"/>
+      <c r="RH8" s="4"/>
+      <c r="RI8" s="4"/>
+      <c r="RJ8" s="4"/>
+      <c r="RK8" s="4"/>
+      <c r="RL8" s="4"/>
+      <c r="RM8" s="4"/>
+      <c r="RN8" s="4"/>
+      <c r="RO8" s="4"/>
+      <c r="RP8" s="4"/>
+    </row>
+    <row r="9" spans="1:484" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="9"/>
+      <c r="L9" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="M9" s="14"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="4"/>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="4"/>
+      <c r="AR9" s="4"/>
+      <c r="AS9" s="4"/>
+      <c r="AT9" s="4"/>
+      <c r="AU9" s="4"/>
+      <c r="AV9" s="4"/>
+      <c r="AW9" s="4"/>
+      <c r="AX9" s="4"/>
+      <c r="AY9" s="4"/>
+      <c r="AZ9" s="4"/>
+      <c r="BA9" s="4"/>
+      <c r="BB9" s="4"/>
+      <c r="BC9" s="4"/>
+      <c r="BD9" s="4"/>
+      <c r="BE9" s="4"/>
+      <c r="BF9" s="4"/>
+      <c r="BG9" s="4"/>
+      <c r="BH9" s="4"/>
+      <c r="BI9" s="4"/>
+      <c r="BJ9" s="4"/>
+      <c r="BK9" s="4"/>
+      <c r="BL9" s="4"/>
+      <c r="BM9" s="4"/>
+      <c r="BN9" s="4"/>
+      <c r="BO9" s="4"/>
+      <c r="BP9" s="4"/>
+      <c r="BQ9" s="4"/>
+      <c r="BR9" s="4"/>
+      <c r="BS9" s="4"/>
+      <c r="BT9" s="4"/>
+      <c r="BU9" s="4"/>
+      <c r="BV9" s="4"/>
+      <c r="BW9" s="4"/>
+      <c r="BX9" s="4"/>
+      <c r="BY9" s="4"/>
+      <c r="BZ9" s="4"/>
+      <c r="CA9" s="4"/>
+      <c r="CB9" s="4"/>
+      <c r="CC9" s="4"/>
+      <c r="CD9" s="4"/>
+      <c r="CE9" s="4"/>
+      <c r="CF9" s="4"/>
+      <c r="CG9" s="4"/>
+      <c r="CH9" s="4"/>
+      <c r="CI9" s="4"/>
+      <c r="CJ9" s="4"/>
+      <c r="CK9" s="4"/>
+      <c r="CL9" s="4"/>
+      <c r="CM9" s="4"/>
+      <c r="CN9" s="4"/>
+      <c r="CO9" s="4"/>
+      <c r="CP9" s="4"/>
+      <c r="CQ9" s="4"/>
+      <c r="CR9" s="4"/>
+      <c r="CS9" s="4"/>
+      <c r="CT9" s="4"/>
+      <c r="CU9" s="4"/>
+      <c r="CV9" s="4"/>
+      <c r="CW9" s="4"/>
+      <c r="CX9" s="4"/>
+      <c r="CY9" s="4"/>
+      <c r="CZ9" s="4"/>
+      <c r="DA9" s="4"/>
+      <c r="DB9" s="4"/>
+      <c r="DC9" s="4"/>
+      <c r="DD9" s="4"/>
+      <c r="DE9" s="4"/>
+      <c r="DF9" s="4"/>
+      <c r="DG9" s="4"/>
+      <c r="DH9" s="4"/>
+      <c r="DI9" s="4"/>
+      <c r="DJ9" s="4"/>
+      <c r="DK9" s="4"/>
+      <c r="DL9" s="4"/>
+      <c r="DM9" s="4"/>
+      <c r="DN9" s="4"/>
+      <c r="DO9" s="4"/>
+      <c r="DP9" s="4"/>
+      <c r="DQ9" s="4"/>
+      <c r="DR9" s="4"/>
+      <c r="DS9" s="4"/>
+      <c r="DT9" s="4"/>
+      <c r="DU9" s="4"/>
+      <c r="DV9" s="4"/>
+      <c r="DW9" s="4"/>
+      <c r="DX9" s="4"/>
+      <c r="DY9" s="4"/>
+      <c r="DZ9" s="4"/>
+      <c r="EA9" s="4"/>
+      <c r="EB9" s="4"/>
+      <c r="EC9" s="4"/>
+      <c r="ED9" s="4"/>
+      <c r="EE9" s="4"/>
+      <c r="EF9" s="4"/>
+      <c r="EG9" s="4"/>
+      <c r="EH9" s="4"/>
+      <c r="EI9" s="4"/>
+      <c r="EJ9" s="4"/>
+      <c r="EK9" s="4"/>
+      <c r="EL9" s="4"/>
+      <c r="EM9" s="4"/>
+      <c r="EN9" s="4"/>
+      <c r="EO9" s="4"/>
+      <c r="EP9" s="4"/>
+      <c r="EQ9" s="4"/>
+      <c r="ER9" s="4"/>
+      <c r="ES9" s="4"/>
+      <c r="ET9" s="4"/>
+      <c r="EU9" s="4"/>
+      <c r="EV9" s="4"/>
+      <c r="EW9" s="4"/>
+      <c r="EX9" s="4"/>
+      <c r="EY9" s="4"/>
+      <c r="EZ9" s="4"/>
+      <c r="FA9" s="4"/>
+      <c r="FB9" s="4"/>
+      <c r="FC9" s="4"/>
+      <c r="FD9" s="4"/>
+      <c r="FE9" s="4"/>
+      <c r="FF9" s="4"/>
+      <c r="FG9" s="4"/>
+      <c r="FH9" s="4"/>
+      <c r="FI9" s="4"/>
+      <c r="FJ9" s="4"/>
+      <c r="FK9" s="4"/>
+      <c r="FL9" s="4"/>
+      <c r="FM9" s="4"/>
+      <c r="FN9" s="4"/>
+      <c r="FO9" s="4"/>
+      <c r="FP9" s="4"/>
+      <c r="FQ9" s="4"/>
+      <c r="FR9" s="4"/>
+      <c r="FS9" s="4"/>
+      <c r="FT9" s="4"/>
+      <c r="FU9" s="4"/>
+      <c r="FV9" s="4"/>
+      <c r="FW9" s="4"/>
+      <c r="FX9" s="4"/>
+      <c r="FY9" s="4"/>
+      <c r="FZ9" s="4"/>
+      <c r="GA9" s="4"/>
+      <c r="GB9" s="4"/>
+      <c r="GC9" s="4"/>
+      <c r="GD9" s="4"/>
+      <c r="GE9" s="4"/>
+      <c r="GF9" s="4"/>
+      <c r="GG9" s="4"/>
+      <c r="GH9" s="4"/>
+      <c r="GI9" s="4"/>
+      <c r="GJ9" s="4"/>
+      <c r="GK9" s="4"/>
+      <c r="GL9" s="4"/>
+      <c r="GM9" s="4"/>
+      <c r="GN9" s="4"/>
+      <c r="GO9" s="4"/>
+      <c r="GP9" s="4"/>
+      <c r="GQ9" s="4"/>
+      <c r="GR9" s="4"/>
+      <c r="GS9" s="4"/>
+      <c r="GT9" s="4"/>
+      <c r="GU9" s="4"/>
+      <c r="GV9" s="4"/>
+      <c r="GW9" s="4"/>
+      <c r="GX9" s="4"/>
+      <c r="GY9" s="4"/>
+      <c r="GZ9" s="4"/>
+      <c r="HA9" s="4"/>
+      <c r="HB9" s="4"/>
+      <c r="HC9" s="4"/>
+      <c r="HD9" s="4"/>
+      <c r="HE9" s="4"/>
+      <c r="HF9" s="4"/>
+      <c r="HG9" s="4"/>
+      <c r="HH9" s="4"/>
+      <c r="HI9" s="4"/>
+      <c r="HJ9" s="4"/>
+      <c r="HK9" s="4"/>
+      <c r="HL9" s="4"/>
+      <c r="HM9" s="4"/>
+      <c r="HN9" s="4"/>
+      <c r="HO9" s="4"/>
+      <c r="HP9" s="4"/>
+      <c r="HQ9" s="4"/>
+      <c r="HR9" s="4"/>
+      <c r="HS9" s="4"/>
+      <c r="HT9" s="4"/>
+      <c r="HU9" s="4"/>
+      <c r="HV9" s="4"/>
+      <c r="HW9" s="4"/>
+      <c r="HX9" s="4"/>
+      <c r="HY9" s="4"/>
+      <c r="HZ9" s="4"/>
+      <c r="IA9" s="4"/>
+      <c r="IB9" s="4"/>
+      <c r="IC9" s="4"/>
+      <c r="ID9" s="4"/>
+      <c r="IE9" s="4"/>
+      <c r="IF9" s="4"/>
+      <c r="IG9" s="4"/>
+      <c r="IH9" s="4"/>
+      <c r="II9" s="4"/>
+      <c r="IJ9" s="4"/>
+      <c r="IK9" s="4"/>
+      <c r="IL9" s="4"/>
+      <c r="IM9" s="4"/>
+      <c r="IN9" s="4"/>
+      <c r="IO9" s="4"/>
+      <c r="IP9" s="4"/>
+      <c r="IQ9" s="4"/>
+      <c r="IR9" s="4"/>
+      <c r="IS9" s="4"/>
+      <c r="IT9" s="4"/>
+      <c r="IU9" s="4"/>
+      <c r="IV9" s="4"/>
+      <c r="IW9" s="4"/>
+      <c r="IX9" s="4"/>
+      <c r="IY9" s="4"/>
+      <c r="IZ9" s="4"/>
+      <c r="JA9" s="4"/>
+      <c r="JB9" s="4"/>
+      <c r="JC9" s="4"/>
+      <c r="JD9" s="4"/>
+      <c r="JE9" s="4"/>
+      <c r="JF9" s="4"/>
+      <c r="JG9" s="4"/>
+      <c r="JH9" s="4"/>
+      <c r="JI9" s="4"/>
+      <c r="JJ9" s="4"/>
+      <c r="JK9" s="4"/>
+      <c r="JL9" s="4"/>
+      <c r="JM9" s="4"/>
+      <c r="JN9" s="4"/>
+      <c r="JO9" s="4"/>
+      <c r="JP9" s="4"/>
+      <c r="JQ9" s="4"/>
+      <c r="JR9" s="4"/>
+      <c r="JS9" s="4"/>
+      <c r="JT9" s="4"/>
+      <c r="JU9" s="4"/>
+      <c r="JV9" s="4"/>
+      <c r="JW9" s="4"/>
+      <c r="JX9" s="4"/>
+      <c r="JY9" s="4"/>
+      <c r="JZ9" s="4"/>
+      <c r="KA9" s="4"/>
+      <c r="KB9" s="4"/>
+      <c r="KC9" s="4"/>
+      <c r="KD9" s="4"/>
+      <c r="KE9" s="4"/>
+      <c r="KF9" s="4"/>
+      <c r="KG9" s="4"/>
+      <c r="KH9" s="4"/>
+      <c r="KI9" s="4"/>
+      <c r="KJ9" s="4"/>
+      <c r="KK9" s="4"/>
+      <c r="KL9" s="4"/>
+      <c r="KM9" s="4"/>
+      <c r="KN9" s="4"/>
+      <c r="KO9" s="4"/>
+      <c r="KP9" s="4"/>
+      <c r="KQ9" s="4"/>
+      <c r="KR9" s="4"/>
+      <c r="KS9" s="4"/>
+      <c r="KT9" s="4"/>
+      <c r="KU9" s="4"/>
+      <c r="KV9" s="4"/>
+      <c r="KW9" s="4"/>
+      <c r="KX9" s="4"/>
+      <c r="KY9" s="4"/>
+      <c r="KZ9" s="4"/>
+      <c r="LA9" s="4"/>
+      <c r="LB9" s="4"/>
+      <c r="LC9" s="4"/>
+      <c r="LD9" s="4"/>
+      <c r="LE9" s="4"/>
+      <c r="LF9" s="4"/>
+      <c r="LG9" s="4"/>
+      <c r="LH9" s="4"/>
+      <c r="LI9" s="4"/>
+      <c r="LJ9" s="4"/>
+      <c r="LK9" s="4"/>
+      <c r="LL9" s="4"/>
+      <c r="LM9" s="4"/>
+      <c r="LN9" s="4"/>
+      <c r="LO9" s="4"/>
+      <c r="LP9" s="4"/>
+      <c r="LQ9" s="4"/>
+      <c r="LR9" s="4"/>
+      <c r="LS9" s="4"/>
+      <c r="LT9" s="4"/>
+      <c r="LU9" s="4"/>
+      <c r="LV9" s="4"/>
+      <c r="LW9" s="4"/>
+      <c r="LX9" s="4"/>
+      <c r="LY9" s="4"/>
+      <c r="LZ9" s="4"/>
+      <c r="MA9" s="4"/>
+      <c r="MB9" s="4"/>
+      <c r="MC9" s="4"/>
+      <c r="MD9" s="4"/>
+      <c r="ME9" s="4"/>
+      <c r="MF9" s="4"/>
+      <c r="MG9" s="4"/>
+      <c r="MH9" s="4"/>
+      <c r="MI9" s="4"/>
+      <c r="MJ9" s="4"/>
+      <c r="MK9" s="4"/>
+      <c r="ML9" s="4"/>
+      <c r="MM9" s="4"/>
+      <c r="MN9" s="4"/>
+      <c r="MO9" s="4"/>
+      <c r="MP9" s="4"/>
+      <c r="MQ9" s="4"/>
+      <c r="MR9" s="4"/>
+      <c r="MS9" s="4"/>
+      <c r="MT9" s="4"/>
+      <c r="MU9" s="4"/>
+      <c r="MV9" s="4"/>
+      <c r="MW9" s="4"/>
+      <c r="MX9" s="4"/>
+      <c r="MY9" s="4"/>
+      <c r="MZ9" s="4"/>
+      <c r="NA9" s="4"/>
+      <c r="NB9" s="4"/>
+      <c r="NC9" s="4"/>
+      <c r="ND9" s="4"/>
+      <c r="NE9" s="4"/>
+      <c r="NF9" s="4"/>
+      <c r="NG9" s="4"/>
+      <c r="NH9" s="4"/>
+      <c r="NI9" s="4"/>
+      <c r="NJ9" s="4"/>
+      <c r="NK9" s="4"/>
+      <c r="NL9" s="4"/>
+      <c r="NM9" s="4"/>
+      <c r="NN9" s="4"/>
+      <c r="NO9" s="4"/>
+      <c r="NP9" s="4"/>
+      <c r="NQ9" s="4"/>
+      <c r="NR9" s="4"/>
+      <c r="NS9" s="4"/>
+      <c r="NT9" s="4"/>
+      <c r="NU9" s="4"/>
+      <c r="NV9" s="4"/>
+      <c r="NW9" s="4"/>
+      <c r="NX9" s="4"/>
+      <c r="NY9" s="4"/>
+      <c r="NZ9" s="4"/>
+      <c r="OA9" s="4"/>
+      <c r="OB9" s="4"/>
+      <c r="OC9" s="4"/>
+      <c r="OD9" s="4"/>
+      <c r="OE9" s="4"/>
+      <c r="OF9" s="4"/>
+      <c r="OG9" s="4"/>
+      <c r="OH9" s="4"/>
+      <c r="OI9" s="4"/>
+      <c r="OJ9" s="4"/>
+      <c r="OK9" s="4"/>
+      <c r="OL9" s="4"/>
+      <c r="OM9" s="4"/>
+      <c r="ON9" s="4"/>
+      <c r="OO9" s="4"/>
+      <c r="OP9" s="4"/>
+      <c r="OQ9" s="4"/>
+      <c r="OR9" s="4"/>
+      <c r="OS9" s="4"/>
+      <c r="OT9" s="4"/>
+      <c r="OU9" s="4"/>
+      <c r="OV9" s="4"/>
+      <c r="OW9" s="4"/>
+      <c r="OX9" s="4"/>
+      <c r="OY9" s="4"/>
+      <c r="OZ9" s="4"/>
+      <c r="PA9" s="4"/>
+      <c r="PB9" s="4"/>
+      <c r="PC9" s="4"/>
+      <c r="PD9" s="4"/>
+      <c r="PE9" s="4"/>
+      <c r="PF9" s="4"/>
+      <c r="PG9" s="4"/>
+      <c r="PH9" s="4"/>
+      <c r="PI9" s="4"/>
+      <c r="PJ9" s="4"/>
+      <c r="PK9" s="4"/>
+      <c r="PL9" s="4"/>
+      <c r="PM9" s="4"/>
+      <c r="PN9" s="4"/>
+      <c r="PO9" s="4"/>
+      <c r="PP9" s="4"/>
+      <c r="PQ9" s="4"/>
+      <c r="PR9" s="4"/>
+      <c r="PS9" s="4"/>
+      <c r="PT9" s="4"/>
+      <c r="PU9" s="4"/>
+      <c r="PV9" s="4"/>
+      <c r="PW9" s="4"/>
+      <c r="PX9" s="4"/>
+      <c r="PY9" s="4"/>
+      <c r="PZ9" s="4"/>
+      <c r="QA9" s="4"/>
+      <c r="QB9" s="4"/>
+      <c r="QC9" s="4"/>
+      <c r="QD9" s="4"/>
+      <c r="QE9" s="4"/>
+      <c r="QF9" s="4"/>
+      <c r="QG9" s="4"/>
+      <c r="QH9" s="4"/>
+      <c r="QI9" s="4"/>
+      <c r="QJ9" s="4"/>
+      <c r="QK9" s="4"/>
+      <c r="QL9" s="4"/>
+      <c r="QM9" s="4"/>
+      <c r="QN9" s="4"/>
+      <c r="QO9" s="4"/>
+      <c r="QP9" s="4"/>
+      <c r="QQ9" s="4"/>
+      <c r="QR9" s="4"/>
+      <c r="QS9" s="4"/>
+      <c r="QT9" s="4"/>
+      <c r="QU9" s="4"/>
+      <c r="QV9" s="4"/>
+      <c r="QW9" s="4"/>
+      <c r="QX9" s="4"/>
+      <c r="QY9" s="4"/>
+      <c r="QZ9" s="4"/>
+      <c r="RA9" s="4"/>
+      <c r="RB9" s="4"/>
+      <c r="RC9" s="4"/>
+      <c r="RD9" s="4"/>
+      <c r="RE9" s="4"/>
+      <c r="RF9" s="4"/>
+      <c r="RG9" s="4"/>
+      <c r="RH9" s="4"/>
+      <c r="RI9" s="4"/>
+      <c r="RJ9" s="4"/>
+      <c r="RK9" s="4"/>
+      <c r="RL9" s="4"/>
+      <c r="RM9" s="4"/>
+      <c r="RN9" s="4"/>
+      <c r="RO9" s="4"/>
+      <c r="RP9" s="4"/>
+    </row>
+    <row r="10" spans="1:484" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="4"/>
+      <c r="AP10" s="4"/>
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="4"/>
+      <c r="AS10" s="4"/>
+      <c r="AT10" s="4"/>
+      <c r="AU10" s="4"/>
+      <c r="AV10" s="4"/>
+      <c r="AW10" s="4"/>
+      <c r="AX10" s="4"/>
+      <c r="AY10" s="4"/>
+      <c r="AZ10" s="4"/>
+      <c r="BA10" s="4"/>
+      <c r="BB10" s="4"/>
+      <c r="BC10" s="4"/>
+      <c r="BD10" s="4"/>
+      <c r="BE10" s="4"/>
+      <c r="BF10" s="4"/>
+      <c r="BG10" s="4"/>
+      <c r="BH10" s="4"/>
+      <c r="BI10" s="4"/>
+      <c r="BJ10" s="4"/>
+      <c r="BK10" s="4"/>
+      <c r="BL10" s="4"/>
+      <c r="BM10" s="4"/>
+      <c r="BN10" s="4"/>
+      <c r="BO10" s="4"/>
+      <c r="BP10" s="4"/>
+      <c r="BQ10" s="4"/>
+      <c r="BR10" s="4"/>
+      <c r="BS10" s="4"/>
+      <c r="BT10" s="4"/>
+      <c r="BU10" s="4"/>
+      <c r="BV10" s="4"/>
+      <c r="BW10" s="4"/>
+      <c r="BX10" s="4"/>
+      <c r="BY10" s="4"/>
+      <c r="BZ10" s="4"/>
+      <c r="CA10" s="4"/>
+      <c r="CB10" s="4"/>
+      <c r="CC10" s="4"/>
+      <c r="CD10" s="4"/>
+      <c r="CE10" s="4"/>
+      <c r="CF10" s="4"/>
+      <c r="CG10" s="4"/>
+      <c r="CH10" s="4"/>
+      <c r="CI10" s="4"/>
+      <c r="CJ10" s="4"/>
+      <c r="CK10" s="4"/>
+      <c r="CL10" s="4"/>
+      <c r="CM10" s="4"/>
+      <c r="CN10" s="4"/>
+      <c r="CO10" s="4"/>
+      <c r="CP10" s="4"/>
+      <c r="CQ10" s="4"/>
+      <c r="CR10" s="4"/>
+      <c r="CS10" s="4"/>
+      <c r="CT10" s="4"/>
+      <c r="CU10" s="4"/>
+      <c r="CV10" s="4"/>
+      <c r="CW10" s="4"/>
+      <c r="CX10" s="4"/>
+      <c r="CY10" s="4"/>
+      <c r="CZ10" s="4"/>
+      <c r="DA10" s="4"/>
+      <c r="DB10" s="4"/>
+      <c r="DC10" s="4"/>
+      <c r="DD10" s="4"/>
+      <c r="DE10" s="4"/>
+      <c r="DF10" s="4"/>
+      <c r="DG10" s="4"/>
+      <c r="DH10" s="4"/>
+      <c r="DI10" s="4"/>
+      <c r="DJ10" s="4"/>
+      <c r="DK10" s="4"/>
+      <c r="DL10" s="4"/>
+      <c r="DM10" s="4"/>
+      <c r="DN10" s="4"/>
+      <c r="DO10" s="4"/>
+      <c r="DP10" s="4"/>
+      <c r="DQ10" s="4"/>
+      <c r="DR10" s="4"/>
+      <c r="DS10" s="4"/>
+      <c r="DT10" s="4"/>
+      <c r="DU10" s="4"/>
+      <c r="DV10" s="4"/>
+      <c r="DW10" s="4"/>
+      <c r="DX10" s="4"/>
+      <c r="DY10" s="4"/>
+      <c r="DZ10" s="4"/>
+      <c r="EA10" s="4"/>
+      <c r="EB10" s="4"/>
+      <c r="EC10" s="4"/>
+      <c r="ED10" s="4"/>
+      <c r="EE10" s="4"/>
+      <c r="EF10" s="4"/>
+      <c r="EG10" s="4"/>
+      <c r="EH10" s="4"/>
+      <c r="EI10" s="4"/>
+      <c r="EJ10" s="4"/>
+      <c r="EK10" s="4"/>
+      <c r="EL10" s="4"/>
+      <c r="EM10" s="4"/>
+      <c r="EN10" s="4"/>
+      <c r="EO10" s="4"/>
+      <c r="EP10" s="4"/>
+      <c r="EQ10" s="4"/>
+      <c r="ER10" s="4"/>
+      <c r="ES10" s="4"/>
+      <c r="ET10" s="4"/>
+      <c r="EU10" s="4"/>
+      <c r="EV10" s="4"/>
+      <c r="EW10" s="4"/>
+      <c r="EX10" s="4"/>
+      <c r="EY10" s="4"/>
+      <c r="EZ10" s="4"/>
+      <c r="FA10" s="4"/>
+      <c r="FB10" s="4"/>
+      <c r="FC10" s="4"/>
+      <c r="FD10" s="4"/>
+      <c r="FE10" s="4"/>
+      <c r="FF10" s="4"/>
+      <c r="FG10" s="4"/>
+      <c r="FH10" s="4"/>
+      <c r="FI10" s="4"/>
+      <c r="FJ10" s="4"/>
+      <c r="FK10" s="4"/>
+      <c r="FL10" s="4"/>
+      <c r="FM10" s="4"/>
+      <c r="FN10" s="4"/>
+      <c r="FO10" s="4"/>
+      <c r="FP10" s="4"/>
+      <c r="FQ10" s="4"/>
+      <c r="FR10" s="4"/>
+      <c r="FS10" s="4"/>
+      <c r="FT10" s="4"/>
+      <c r="FU10" s="4"/>
+      <c r="FV10" s="4"/>
+      <c r="FW10" s="4"/>
+      <c r="FX10" s="4"/>
+      <c r="FY10" s="4"/>
+      <c r="FZ10" s="4"/>
+      <c r="GA10" s="4"/>
+      <c r="GB10" s="4"/>
+      <c r="GC10" s="4"/>
+      <c r="GD10" s="4"/>
+      <c r="GE10" s="4"/>
+      <c r="GF10" s="4"/>
+      <c r="GG10" s="4"/>
+      <c r="GH10" s="4"/>
+      <c r="GI10" s="4"/>
+      <c r="GJ10" s="4"/>
+      <c r="GK10" s="4"/>
+      <c r="GL10" s="4"/>
+      <c r="GM10" s="4"/>
+      <c r="GN10" s="4"/>
+      <c r="GO10" s="4"/>
+      <c r="GP10" s="4"/>
+      <c r="GQ10" s="4"/>
+      <c r="GR10" s="4"/>
+      <c r="GS10" s="4"/>
+      <c r="GT10" s="4"/>
+      <c r="GU10" s="4"/>
+      <c r="GV10" s="4"/>
+      <c r="GW10" s="4"/>
+      <c r="GX10" s="4"/>
+      <c r="GY10" s="4"/>
+      <c r="GZ10" s="4"/>
+      <c r="HA10" s="4"/>
+      <c r="HB10" s="4"/>
+      <c r="HC10" s="4"/>
+      <c r="HD10" s="4"/>
+      <c r="HE10" s="4"/>
+      <c r="HF10" s="4"/>
+      <c r="HG10" s="4"/>
+      <c r="HH10" s="4"/>
+      <c r="HI10" s="4"/>
+      <c r="HJ10" s="4"/>
+      <c r="HK10" s="4"/>
+      <c r="HL10" s="4"/>
+      <c r="HM10" s="4"/>
+      <c r="HN10" s="4"/>
+      <c r="HO10" s="4"/>
+      <c r="HP10" s="4"/>
+      <c r="HQ10" s="4"/>
+      <c r="HR10" s="4"/>
+      <c r="HS10" s="4"/>
+      <c r="HT10" s="4"/>
+      <c r="HU10" s="4"/>
+      <c r="HV10" s="4"/>
+      <c r="HW10" s="4"/>
+      <c r="HX10" s="4"/>
+      <c r="HY10" s="4"/>
+      <c r="HZ10" s="4"/>
+      <c r="IA10" s="4"/>
+      <c r="IB10" s="4"/>
+      <c r="IC10" s="4"/>
+      <c r="ID10" s="4"/>
+      <c r="IE10" s="4"/>
+      <c r="IF10" s="4"/>
+      <c r="IG10" s="4"/>
+      <c r="IH10" s="4"/>
+      <c r="II10" s="4"/>
+      <c r="IJ10" s="4"/>
+      <c r="IK10" s="4"/>
+      <c r="IL10" s="4"/>
+      <c r="IM10" s="4"/>
+      <c r="IN10" s="4"/>
+      <c r="IO10" s="4"/>
+      <c r="IP10" s="4"/>
+      <c r="IQ10" s="4"/>
+      <c r="IR10" s="4"/>
+      <c r="IS10" s="4"/>
+      <c r="IT10" s="4"/>
+      <c r="IU10" s="4"/>
+      <c r="IV10" s="4"/>
+      <c r="IW10" s="4"/>
+      <c r="IX10" s="4"/>
+      <c r="IY10" s="4"/>
+      <c r="IZ10" s="4"/>
+      <c r="JA10" s="4"/>
+      <c r="JB10" s="4"/>
+      <c r="JC10" s="4"/>
+      <c r="JD10" s="4"/>
+      <c r="JE10" s="4"/>
+      <c r="JF10" s="4"/>
+      <c r="JG10" s="4"/>
+      <c r="JH10" s="4"/>
+      <c r="JI10" s="4"/>
+      <c r="JJ10" s="4"/>
+      <c r="JK10" s="4"/>
+      <c r="JL10" s="4"/>
+      <c r="JM10" s="4"/>
+      <c r="JN10" s="4"/>
+      <c r="JO10" s="4"/>
+      <c r="JP10" s="4"/>
+      <c r="JQ10" s="4"/>
+      <c r="JR10" s="4"/>
+      <c r="JS10" s="4"/>
+      <c r="JT10" s="4"/>
+      <c r="JU10" s="4"/>
+      <c r="JV10" s="4"/>
+      <c r="JW10" s="4"/>
+      <c r="JX10" s="4"/>
+      <c r="JY10" s="4"/>
+      <c r="JZ10" s="4"/>
+      <c r="KA10" s="4"/>
+      <c r="KB10" s="4"/>
+      <c r="KC10" s="4"/>
+      <c r="KD10" s="4"/>
+      <c r="KE10" s="4"/>
+      <c r="KF10" s="4"/>
+      <c r="KG10" s="4"/>
+      <c r="KH10" s="4"/>
+      <c r="KI10" s="4"/>
+      <c r="KJ10" s="4"/>
+      <c r="KK10" s="4"/>
+      <c r="KL10" s="4"/>
+      <c r="KM10" s="4"/>
+      <c r="KN10" s="4"/>
+      <c r="KO10" s="4"/>
+      <c r="KP10" s="4"/>
+      <c r="KQ10" s="4"/>
+      <c r="KR10" s="4"/>
+      <c r="KS10" s="4"/>
+      <c r="KT10" s="4"/>
+      <c r="KU10" s="4"/>
+      <c r="KV10" s="4"/>
+      <c r="KW10" s="4"/>
+      <c r="KX10" s="4"/>
+      <c r="KY10" s="4"/>
+      <c r="KZ10" s="4"/>
+      <c r="LA10" s="4"/>
+      <c r="LB10" s="4"/>
+      <c r="LC10" s="4"/>
+      <c r="LD10" s="4"/>
+      <c r="LE10" s="4"/>
+      <c r="LF10" s="4"/>
+      <c r="LG10" s="4"/>
+      <c r="LH10" s="4"/>
+      <c r="LI10" s="4"/>
+      <c r="LJ10" s="4"/>
+      <c r="LK10" s="4"/>
+      <c r="LL10" s="4"/>
+      <c r="LM10" s="4"/>
+      <c r="LN10" s="4"/>
+      <c r="LO10" s="4"/>
+      <c r="LP10" s="4"/>
+      <c r="LQ10" s="4"/>
+      <c r="LR10" s="4"/>
+      <c r="LS10" s="4"/>
+      <c r="LT10" s="4"/>
+      <c r="LU10" s="4"/>
+      <c r="LV10" s="4"/>
+      <c r="LW10" s="4"/>
+      <c r="LX10" s="4"/>
+      <c r="LY10" s="4"/>
+      <c r="LZ10" s="4"/>
+      <c r="MA10" s="4"/>
+      <c r="MB10" s="4"/>
+      <c r="MC10" s="4"/>
+      <c r="MD10" s="4"/>
+      <c r="ME10" s="4"/>
+      <c r="MF10" s="4"/>
+      <c r="MG10" s="4"/>
+      <c r="MH10" s="4"/>
+      <c r="MI10" s="4"/>
+      <c r="MJ10" s="4"/>
+      <c r="MK10" s="4"/>
+      <c r="ML10" s="4"/>
+      <c r="MM10" s="4"/>
+      <c r="MN10" s="4"/>
+      <c r="MO10" s="4"/>
+      <c r="MP10" s="4"/>
+      <c r="MQ10" s="4"/>
+      <c r="MR10" s="4"/>
+      <c r="MS10" s="4"/>
+      <c r="MT10" s="4"/>
+      <c r="MU10" s="4"/>
+      <c r="MV10" s="4"/>
+      <c r="MW10" s="4"/>
+      <c r="MX10" s="4"/>
+      <c r="MY10" s="4"/>
+      <c r="MZ10" s="4"/>
+      <c r="NA10" s="4"/>
+      <c r="NB10" s="4"/>
+      <c r="NC10" s="4"/>
+      <c r="ND10" s="4"/>
+      <c r="NE10" s="4"/>
+      <c r="NF10" s="4"/>
+      <c r="NG10" s="4"/>
+      <c r="NH10" s="4"/>
+      <c r="NI10" s="4"/>
+      <c r="NJ10" s="4"/>
+      <c r="NK10" s="4"/>
+      <c r="NL10" s="4"/>
+      <c r="NM10" s="4"/>
+      <c r="NN10" s="4"/>
+      <c r="NO10" s="4"/>
+      <c r="NP10" s="4"/>
+      <c r="NQ10" s="4"/>
+      <c r="NR10" s="4"/>
+      <c r="NS10" s="4"/>
+      <c r="NT10" s="4"/>
+      <c r="NU10" s="4"/>
+      <c r="NV10" s="4"/>
+      <c r="NW10" s="4"/>
+      <c r="NX10" s="4"/>
+      <c r="NY10" s="4"/>
+      <c r="NZ10" s="4"/>
+      <c r="OA10" s="4"/>
+      <c r="OB10" s="4"/>
+      <c r="OC10" s="4"/>
+      <c r="OD10" s="4"/>
+      <c r="OE10" s="4"/>
+      <c r="OF10" s="4"/>
+      <c r="OG10" s="4"/>
+      <c r="OH10" s="4"/>
+      <c r="OI10" s="4"/>
+      <c r="OJ10" s="4"/>
+      <c r="OK10" s="4"/>
+      <c r="OL10" s="4"/>
+      <c r="OM10" s="4"/>
+      <c r="ON10" s="4"/>
+      <c r="OO10" s="4"/>
+      <c r="OP10" s="4"/>
+      <c r="OQ10" s="4"/>
+      <c r="OR10" s="4"/>
+      <c r="OS10" s="4"/>
+      <c r="OT10" s="4"/>
+      <c r="OU10" s="4"/>
+      <c r="OV10" s="4"/>
+      <c r="OW10" s="4"/>
+      <c r="OX10" s="4"/>
+      <c r="OY10" s="4"/>
+      <c r="OZ10" s="4"/>
+      <c r="PA10" s="4"/>
+      <c r="PB10" s="4"/>
+      <c r="PC10" s="4"/>
+      <c r="PD10" s="4"/>
+      <c r="PE10" s="4"/>
+      <c r="PF10" s="4"/>
+      <c r="PG10" s="4"/>
+      <c r="PH10" s="4"/>
+      <c r="PI10" s="4"/>
+      <c r="PJ10" s="4"/>
+      <c r="PK10" s="4"/>
+      <c r="PL10" s="4"/>
+      <c r="PM10" s="4"/>
+      <c r="PN10" s="4"/>
+      <c r="PO10" s="4"/>
+      <c r="PP10" s="4"/>
+      <c r="PQ10" s="4"/>
+      <c r="PR10" s="4"/>
+      <c r="PS10" s="4"/>
+      <c r="PT10" s="4"/>
+      <c r="PU10" s="4"/>
+      <c r="PV10" s="4"/>
+      <c r="PW10" s="4"/>
+      <c r="PX10" s="4"/>
+      <c r="PY10" s="4"/>
+      <c r="PZ10" s="4"/>
+      <c r="QA10" s="4"/>
+      <c r="QB10" s="4"/>
+      <c r="QC10" s="4"/>
+      <c r="QD10" s="4"/>
+      <c r="QE10" s="4"/>
+      <c r="QF10" s="4"/>
+      <c r="QG10" s="4"/>
+      <c r="QH10" s="4"/>
+      <c r="QI10" s="4"/>
+      <c r="QJ10" s="4"/>
+      <c r="QK10" s="4"/>
+      <c r="QL10" s="4"/>
+      <c r="QM10" s="4"/>
+      <c r="QN10" s="4"/>
+      <c r="QO10" s="4"/>
+      <c r="QP10" s="4"/>
+      <c r="QQ10" s="4"/>
+      <c r="QR10" s="4"/>
+      <c r="QS10" s="4"/>
+      <c r="QT10" s="4"/>
+      <c r="QU10" s="4"/>
+      <c r="QV10" s="4"/>
+      <c r="QW10" s="4"/>
+      <c r="QX10" s="4"/>
+      <c r="QY10" s="4"/>
+      <c r="QZ10" s="4"/>
+      <c r="RA10" s="4"/>
+      <c r="RB10" s="4"/>
+      <c r="RC10" s="4"/>
+      <c r="RD10" s="4"/>
+      <c r="RE10" s="4"/>
+      <c r="RF10" s="4"/>
+      <c r="RG10" s="4"/>
+      <c r="RH10" s="4"/>
+      <c r="RI10" s="4"/>
+      <c r="RJ10" s="4"/>
+      <c r="RK10" s="4"/>
+      <c r="RL10" s="4"/>
+      <c r="RM10" s="4"/>
+      <c r="RN10" s="4"/>
+      <c r="RO10" s="4"/>
+      <c r="RP10" s="4"/>
+    </row>
+    <row r="11" spans="1:484" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="2">
-        <v>123546</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="2">
-        <v>2041884070</v>
-      </c>
-      <c r="L3" s="2">
+      <c r="L11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="4"/>
+      <c r="AP11" s="4"/>
+      <c r="AQ11" s="4"/>
+      <c r="AR11" s="4"/>
+      <c r="AS11" s="4"/>
+      <c r="AT11" s="4"/>
+      <c r="AU11" s="4"/>
+      <c r="AV11" s="4"/>
+      <c r="AW11" s="4"/>
+      <c r="AX11" s="4"/>
+      <c r="AY11" s="4"/>
+      <c r="AZ11" s="4"/>
+      <c r="BA11" s="4"/>
+      <c r="BB11" s="4"/>
+      <c r="BC11" s="4"/>
+      <c r="BD11" s="4"/>
+      <c r="BE11" s="4"/>
+      <c r="BF11" s="4"/>
+      <c r="BG11" s="4"/>
+      <c r="BH11" s="4"/>
+      <c r="BI11" s="4"/>
+      <c r="BJ11" s="4"/>
+      <c r="BK11" s="4"/>
+      <c r="BL11" s="4"/>
+      <c r="BM11" s="4"/>
+      <c r="BN11" s="4"/>
+      <c r="BO11" s="4"/>
+      <c r="BP11" s="4"/>
+      <c r="BQ11" s="4"/>
+      <c r="BR11" s="4"/>
+      <c r="BS11" s="4"/>
+      <c r="BT11" s="4"/>
+      <c r="BU11" s="4"/>
+      <c r="BV11" s="4"/>
+      <c r="BW11" s="4"/>
+      <c r="BX11" s="4"/>
+      <c r="BY11" s="4"/>
+      <c r="BZ11" s="4"/>
+      <c r="CA11" s="4"/>
+      <c r="CB11" s="4"/>
+      <c r="CC11" s="4"/>
+      <c r="CD11" s="4"/>
+      <c r="CE11" s="4"/>
+      <c r="CF11" s="4"/>
+      <c r="CG11" s="4"/>
+      <c r="CH11" s="4"/>
+      <c r="CI11" s="4"/>
+      <c r="CJ11" s="4"/>
+      <c r="CK11" s="4"/>
+      <c r="CL11" s="4"/>
+      <c r="CM11" s="4"/>
+      <c r="CN11" s="4"/>
+      <c r="CO11" s="4"/>
+      <c r="CP11" s="4"/>
+      <c r="CQ11" s="4"/>
+      <c r="CR11" s="4"/>
+      <c r="CS11" s="4"/>
+      <c r="CT11" s="4"/>
+      <c r="CU11" s="4"/>
+      <c r="CV11" s="4"/>
+      <c r="CW11" s="4"/>
+      <c r="CX11" s="4"/>
+      <c r="CY11" s="4"/>
+      <c r="CZ11" s="4"/>
+      <c r="DA11" s="4"/>
+      <c r="DB11" s="4"/>
+      <c r="DC11" s="4"/>
+      <c r="DD11" s="4"/>
+      <c r="DE11" s="4"/>
+      <c r="DF11" s="4"/>
+      <c r="DG11" s="4"/>
+      <c r="DH11" s="4"/>
+      <c r="DI11" s="4"/>
+      <c r="DJ11" s="4"/>
+      <c r="DK11" s="4"/>
+      <c r="DL11" s="4"/>
+      <c r="DM11" s="4"/>
+      <c r="DN11" s="4"/>
+      <c r="DO11" s="4"/>
+      <c r="DP11" s="4"/>
+      <c r="DQ11" s="4"/>
+      <c r="DR11" s="4"/>
+      <c r="DS11" s="4"/>
+      <c r="DT11" s="4"/>
+      <c r="DU11" s="4"/>
+      <c r="DV11" s="4"/>
+      <c r="DW11" s="4"/>
+      <c r="DX11" s="4"/>
+      <c r="DY11" s="4"/>
+      <c r="DZ11" s="4"/>
+      <c r="EA11" s="4"/>
+      <c r="EB11" s="4"/>
+      <c r="EC11" s="4"/>
+      <c r="ED11" s="4"/>
+      <c r="EE11" s="4"/>
+      <c r="EF11" s="4"/>
+      <c r="EG11" s="4"/>
+      <c r="EH11" s="4"/>
+      <c r="EI11" s="4"/>
+      <c r="EJ11" s="4"/>
+      <c r="EK11" s="4"/>
+      <c r="EL11" s="4"/>
+      <c r="EM11" s="4"/>
+      <c r="EN11" s="4"/>
+      <c r="EO11" s="4"/>
+      <c r="EP11" s="4"/>
+      <c r="EQ11" s="4"/>
+      <c r="ER11" s="4"/>
+      <c r="ES11" s="4"/>
+      <c r="ET11" s="4"/>
+      <c r="EU11" s="4"/>
+      <c r="EV11" s="4"/>
+      <c r="EW11" s="4"/>
+      <c r="EX11" s="4"/>
+      <c r="EY11" s="4"/>
+      <c r="EZ11" s="4"/>
+      <c r="FA11" s="4"/>
+      <c r="FB11" s="4"/>
+      <c r="FC11" s="4"/>
+      <c r="FD11" s="4"/>
+      <c r="FE11" s="4"/>
+      <c r="FF11" s="4"/>
+      <c r="FG11" s="4"/>
+      <c r="FH11" s="4"/>
+      <c r="FI11" s="4"/>
+      <c r="FJ11" s="4"/>
+      <c r="FK11" s="4"/>
+      <c r="FL11" s="4"/>
+      <c r="FM11" s="4"/>
+      <c r="FN11" s="4"/>
+      <c r="FO11" s="4"/>
+      <c r="FP11" s="4"/>
+      <c r="FQ11" s="4"/>
+      <c r="FR11" s="4"/>
+      <c r="FS11" s="4"/>
+      <c r="FT11" s="4"/>
+      <c r="FU11" s="4"/>
+      <c r="FV11" s="4"/>
+      <c r="FW11" s="4"/>
+      <c r="FX11" s="4"/>
+      <c r="FY11" s="4"/>
+      <c r="FZ11" s="4"/>
+      <c r="GA11" s="4"/>
+      <c r="GB11" s="4"/>
+      <c r="GC11" s="4"/>
+      <c r="GD11" s="4"/>
+      <c r="GE11" s="4"/>
+      <c r="GF11" s="4"/>
+      <c r="GG11" s="4"/>
+      <c r="GH11" s="4"/>
+      <c r="GI11" s="4"/>
+      <c r="GJ11" s="4"/>
+      <c r="GK11" s="4"/>
+      <c r="GL11" s="4"/>
+      <c r="GM11" s="4"/>
+      <c r="GN11" s="4"/>
+      <c r="GO11" s="4"/>
+      <c r="GP11" s="4"/>
+      <c r="GQ11" s="4"/>
+      <c r="GR11" s="4"/>
+      <c r="GS11" s="4"/>
+      <c r="GT11" s="4"/>
+      <c r="GU11" s="4"/>
+      <c r="GV11" s="4"/>
+      <c r="GW11" s="4"/>
+      <c r="GX11" s="4"/>
+      <c r="GY11" s="4"/>
+      <c r="GZ11" s="4"/>
+      <c r="HA11" s="4"/>
+      <c r="HB11" s="4"/>
+      <c r="HC11" s="4"/>
+      <c r="HD11" s="4"/>
+      <c r="HE11" s="4"/>
+      <c r="HF11" s="4"/>
+      <c r="HG11" s="4"/>
+      <c r="HH11" s="4"/>
+      <c r="HI11" s="4"/>
+      <c r="HJ11" s="4"/>
+      <c r="HK11" s="4"/>
+      <c r="HL11" s="4"/>
+      <c r="HM11" s="4"/>
+      <c r="HN11" s="4"/>
+      <c r="HO11" s="4"/>
+      <c r="HP11" s="4"/>
+      <c r="HQ11" s="4"/>
+      <c r="HR11" s="4"/>
+      <c r="HS11" s="4"/>
+      <c r="HT11" s="4"/>
+      <c r="HU11" s="4"/>
+      <c r="HV11" s="4"/>
+      <c r="HW11" s="4"/>
+      <c r="HX11" s="4"/>
+      <c r="HY11" s="4"/>
+      <c r="HZ11" s="4"/>
+      <c r="IA11" s="4"/>
+      <c r="IB11" s="4"/>
+      <c r="IC11" s="4"/>
+      <c r="ID11" s="4"/>
+      <c r="IE11" s="4"/>
+      <c r="IF11" s="4"/>
+      <c r="IG11" s="4"/>
+      <c r="IH11" s="4"/>
+      <c r="II11" s="4"/>
+      <c r="IJ11" s="4"/>
+      <c r="IK11" s="4"/>
+      <c r="IL11" s="4"/>
+      <c r="IM11" s="4"/>
+      <c r="IN11" s="4"/>
+      <c r="IO11" s="4"/>
+      <c r="IP11" s="4"/>
+      <c r="IQ11" s="4"/>
+      <c r="IR11" s="4"/>
+      <c r="IS11" s="4"/>
+      <c r="IT11" s="4"/>
+      <c r="IU11" s="4"/>
+      <c r="IV11" s="4"/>
+      <c r="IW11" s="4"/>
+      <c r="IX11" s="4"/>
+      <c r="IY11" s="4"/>
+      <c r="IZ11" s="4"/>
+      <c r="JA11" s="4"/>
+      <c r="JB11" s="4"/>
+      <c r="JC11" s="4"/>
+      <c r="JD11" s="4"/>
+      <c r="JE11" s="4"/>
+      <c r="JF11" s="4"/>
+      <c r="JG11" s="4"/>
+      <c r="JH11" s="4"/>
+      <c r="JI11" s="4"/>
+      <c r="JJ11" s="4"/>
+      <c r="JK11" s="4"/>
+      <c r="JL11" s="4"/>
+      <c r="JM11" s="4"/>
+      <c r="JN11" s="4"/>
+      <c r="JO11" s="4"/>
+      <c r="JP11" s="4"/>
+      <c r="JQ11" s="4"/>
+      <c r="JR11" s="4"/>
+      <c r="JS11" s="4"/>
+      <c r="JT11" s="4"/>
+      <c r="JU11" s="4"/>
+      <c r="JV11" s="4"/>
+      <c r="JW11" s="4"/>
+      <c r="JX11" s="4"/>
+      <c r="JY11" s="4"/>
+      <c r="JZ11" s="4"/>
+      <c r="KA11" s="4"/>
+      <c r="KB11" s="4"/>
+      <c r="KC11" s="4"/>
+      <c r="KD11" s="4"/>
+      <c r="KE11" s="4"/>
+      <c r="KF11" s="4"/>
+      <c r="KG11" s="4"/>
+      <c r="KH11" s="4"/>
+      <c r="KI11" s="4"/>
+      <c r="KJ11" s="4"/>
+      <c r="KK11" s="4"/>
+      <c r="KL11" s="4"/>
+      <c r="KM11" s="4"/>
+      <c r="KN11" s="4"/>
+      <c r="KO11" s="4"/>
+      <c r="KP11" s="4"/>
+      <c r="KQ11" s="4"/>
+      <c r="KR11" s="4"/>
+      <c r="KS11" s="4"/>
+      <c r="KT11" s="4"/>
+      <c r="KU11" s="4"/>
+      <c r="KV11" s="4"/>
+      <c r="KW11" s="4"/>
+      <c r="KX11" s="4"/>
+      <c r="KY11" s="4"/>
+      <c r="KZ11" s="4"/>
+      <c r="LA11" s="4"/>
+      <c r="LB11" s="4"/>
+      <c r="LC11" s="4"/>
+      <c r="LD11" s="4"/>
+      <c r="LE11" s="4"/>
+      <c r="LF11" s="4"/>
+      <c r="LG11" s="4"/>
+      <c r="LH11" s="4"/>
+      <c r="LI11" s="4"/>
+      <c r="LJ11" s="4"/>
+      <c r="LK11" s="4"/>
+      <c r="LL11" s="4"/>
+      <c r="LM11" s="4"/>
+      <c r="LN11" s="4"/>
+      <c r="LO11" s="4"/>
+      <c r="LP11" s="4"/>
+      <c r="LQ11" s="4"/>
+      <c r="LR11" s="4"/>
+      <c r="LS11" s="4"/>
+      <c r="LT11" s="4"/>
+      <c r="LU11" s="4"/>
+      <c r="LV11" s="4"/>
+      <c r="LW11" s="4"/>
+      <c r="LX11" s="4"/>
+      <c r="LY11" s="4"/>
+      <c r="LZ11" s="4"/>
+      <c r="MA11" s="4"/>
+      <c r="MB11" s="4"/>
+      <c r="MC11" s="4"/>
+      <c r="MD11" s="4"/>
+      <c r="ME11" s="4"/>
+      <c r="MF11" s="4"/>
+      <c r="MG11" s="4"/>
+      <c r="MH11" s="4"/>
+      <c r="MI11" s="4"/>
+      <c r="MJ11" s="4"/>
+      <c r="MK11" s="4"/>
+      <c r="ML11" s="4"/>
+      <c r="MM11" s="4"/>
+      <c r="MN11" s="4"/>
+      <c r="MO11" s="4"/>
+      <c r="MP11" s="4"/>
+      <c r="MQ11" s="4"/>
+      <c r="MR11" s="4"/>
+      <c r="MS11" s="4"/>
+      <c r="MT11" s="4"/>
+      <c r="MU11" s="4"/>
+      <c r="MV11" s="4"/>
+      <c r="MW11" s="4"/>
+      <c r="MX11" s="4"/>
+      <c r="MY11" s="4"/>
+      <c r="MZ11" s="4"/>
+      <c r="NA11" s="4"/>
+      <c r="NB11" s="4"/>
+      <c r="NC11" s="4"/>
+      <c r="ND11" s="4"/>
+      <c r="NE11" s="4"/>
+      <c r="NF11" s="4"/>
+      <c r="NG11" s="4"/>
+      <c r="NH11" s="4"/>
+      <c r="NI11" s="4"/>
+      <c r="NJ11" s="4"/>
+      <c r="NK11" s="4"/>
+      <c r="NL11" s="4"/>
+      <c r="NM11" s="4"/>
+      <c r="NN11" s="4"/>
+      <c r="NO11" s="4"/>
+      <c r="NP11" s="4"/>
+      <c r="NQ11" s="4"/>
+      <c r="NR11" s="4"/>
+      <c r="NS11" s="4"/>
+      <c r="NT11" s="4"/>
+      <c r="NU11" s="4"/>
+      <c r="NV11" s="4"/>
+      <c r="NW11" s="4"/>
+      <c r="NX11" s="4"/>
+      <c r="NY11" s="4"/>
+      <c r="NZ11" s="4"/>
+      <c r="OA11" s="4"/>
+      <c r="OB11" s="4"/>
+      <c r="OC11" s="4"/>
+      <c r="OD11" s="4"/>
+      <c r="OE11" s="4"/>
+      <c r="OF11" s="4"/>
+      <c r="OG11" s="4"/>
+      <c r="OH11" s="4"/>
+      <c r="OI11" s="4"/>
+      <c r="OJ11" s="4"/>
+      <c r="OK11" s="4"/>
+      <c r="OL11" s="4"/>
+      <c r="OM11" s="4"/>
+      <c r="ON11" s="4"/>
+      <c r="OO11" s="4"/>
+      <c r="OP11" s="4"/>
+      <c r="OQ11" s="4"/>
+      <c r="OR11" s="4"/>
+      <c r="OS11" s="4"/>
+      <c r="OT11" s="4"/>
+      <c r="OU11" s="4"/>
+      <c r="OV11" s="4"/>
+      <c r="OW11" s="4"/>
+      <c r="OX11" s="4"/>
+      <c r="OY11" s="4"/>
+      <c r="OZ11" s="4"/>
+      <c r="PA11" s="4"/>
+      <c r="PB11" s="4"/>
+      <c r="PC11" s="4"/>
+      <c r="PD11" s="4"/>
+      <c r="PE11" s="4"/>
+      <c r="PF11" s="4"/>
+      <c r="PG11" s="4"/>
+      <c r="PH11" s="4"/>
+      <c r="PI11" s="4"/>
+      <c r="PJ11" s="4"/>
+      <c r="PK11" s="4"/>
+      <c r="PL11" s="4"/>
+      <c r="PM11" s="4"/>
+      <c r="PN11" s="4"/>
+      <c r="PO11" s="4"/>
+      <c r="PP11" s="4"/>
+      <c r="PQ11" s="4"/>
+      <c r="PR11" s="4"/>
+      <c r="PS11" s="4"/>
+      <c r="PT11" s="4"/>
+      <c r="PU11" s="4"/>
+      <c r="PV11" s="4"/>
+      <c r="PW11" s="4"/>
+      <c r="PX11" s="4"/>
+      <c r="PY11" s="4"/>
+      <c r="PZ11" s="4"/>
+      <c r="QA11" s="4"/>
+      <c r="QB11" s="4"/>
+      <c r="QC11" s="4"/>
+      <c r="QD11" s="4"/>
+      <c r="QE11" s="4"/>
+      <c r="QF11" s="4"/>
+      <c r="QG11" s="4"/>
+      <c r="QH11" s="4"/>
+      <c r="QI11" s="4"/>
+      <c r="QJ11" s="4"/>
+      <c r="QK11" s="4"/>
+      <c r="QL11" s="4"/>
+      <c r="QM11" s="4"/>
+      <c r="QN11" s="4"/>
+      <c r="QO11" s="4"/>
+      <c r="QP11" s="4"/>
+      <c r="QQ11" s="4"/>
+      <c r="QR11" s="4"/>
+      <c r="QS11" s="4"/>
+      <c r="QT11" s="4"/>
+      <c r="QU11" s="4"/>
+      <c r="QV11" s="4"/>
+      <c r="QW11" s="4"/>
+      <c r="QX11" s="4"/>
+      <c r="QY11" s="4"/>
+      <c r="QZ11" s="4"/>
+      <c r="RA11" s="4"/>
+      <c r="RB11" s="4"/>
+      <c r="RC11" s="4"/>
+      <c r="RD11" s="4"/>
+      <c r="RE11" s="4"/>
+      <c r="RF11" s="4"/>
+      <c r="RG11" s="4"/>
+      <c r="RH11" s="4"/>
+      <c r="RI11" s="4"/>
+      <c r="RJ11" s="4"/>
+      <c r="RK11" s="4"/>
+      <c r="RL11" s="4"/>
+      <c r="RM11" s="4"/>
+      <c r="RN11" s="4"/>
+      <c r="RO11" s="4"/>
+      <c r="RP11" s="4"/>
+    </row>
+    <row r="12" spans="1:484" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="4"/>
+      <c r="AP12" s="4"/>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="4"/>
+      <c r="AS12" s="4"/>
+      <c r="AT12" s="4"/>
+      <c r="AU12" s="4"/>
+      <c r="AV12" s="4"/>
+      <c r="AW12" s="4"/>
+      <c r="AX12" s="4"/>
+      <c r="AY12" s="4"/>
+      <c r="AZ12" s="4"/>
+      <c r="BA12" s="4"/>
+      <c r="BB12" s="4"/>
+      <c r="BC12" s="4"/>
+      <c r="BD12" s="4"/>
+      <c r="BE12" s="4"/>
+      <c r="BF12" s="4"/>
+      <c r="BG12" s="4"/>
+      <c r="BH12" s="4"/>
+      <c r="BI12" s="4"/>
+      <c r="BJ12" s="4"/>
+      <c r="BK12" s="4"/>
+      <c r="BL12" s="4"/>
+      <c r="BM12" s="4"/>
+      <c r="BN12" s="4"/>
+      <c r="BO12" s="4"/>
+      <c r="BP12" s="4"/>
+      <c r="BQ12" s="4"/>
+      <c r="BR12" s="4"/>
+      <c r="BS12" s="4"/>
+      <c r="BT12" s="4"/>
+      <c r="BU12" s="4"/>
+      <c r="BV12" s="4"/>
+      <c r="BW12" s="4"/>
+      <c r="BX12" s="4"/>
+      <c r="BY12" s="4"/>
+      <c r="BZ12" s="4"/>
+      <c r="CA12" s="4"/>
+      <c r="CB12" s="4"/>
+      <c r="CC12" s="4"/>
+      <c r="CD12" s="4"/>
+      <c r="CE12" s="4"/>
+      <c r="CF12" s="4"/>
+      <c r="CG12" s="4"/>
+      <c r="CH12" s="4"/>
+      <c r="CI12" s="4"/>
+      <c r="CJ12" s="4"/>
+      <c r="CK12" s="4"/>
+      <c r="CL12" s="4"/>
+      <c r="CM12" s="4"/>
+      <c r="CN12" s="4"/>
+      <c r="CO12" s="4"/>
+      <c r="CP12" s="4"/>
+      <c r="CQ12" s="4"/>
+      <c r="CR12" s="4"/>
+      <c r="CS12" s="4"/>
+      <c r="CT12" s="4"/>
+      <c r="CU12" s="4"/>
+      <c r="CV12" s="4"/>
+      <c r="CW12" s="4"/>
+      <c r="CX12" s="4"/>
+      <c r="CY12" s="4"/>
+      <c r="CZ12" s="4"/>
+      <c r="DA12" s="4"/>
+      <c r="DB12" s="4"/>
+      <c r="DC12" s="4"/>
+      <c r="DD12" s="4"/>
+      <c r="DE12" s="4"/>
+      <c r="DF12" s="4"/>
+      <c r="DG12" s="4"/>
+      <c r="DH12" s="4"/>
+      <c r="DI12" s="4"/>
+      <c r="DJ12" s="4"/>
+      <c r="DK12" s="4"/>
+      <c r="DL12" s="4"/>
+      <c r="DM12" s="4"/>
+      <c r="DN12" s="4"/>
+      <c r="DO12" s="4"/>
+      <c r="DP12" s="4"/>
+      <c r="DQ12" s="4"/>
+      <c r="DR12" s="4"/>
+      <c r="DS12" s="4"/>
+      <c r="DT12" s="4"/>
+      <c r="DU12" s="4"/>
+      <c r="DV12" s="4"/>
+      <c r="DW12" s="4"/>
+      <c r="DX12" s="4"/>
+      <c r="DY12" s="4"/>
+      <c r="DZ12" s="4"/>
+      <c r="EA12" s="4"/>
+      <c r="EB12" s="4"/>
+      <c r="EC12" s="4"/>
+      <c r="ED12" s="4"/>
+      <c r="EE12" s="4"/>
+      <c r="EF12" s="4"/>
+      <c r="EG12" s="4"/>
+      <c r="EH12" s="4"/>
+      <c r="EI12" s="4"/>
+      <c r="EJ12" s="4"/>
+      <c r="EK12" s="4"/>
+      <c r="EL12" s="4"/>
+      <c r="EM12" s="4"/>
+      <c r="EN12" s="4"/>
+      <c r="EO12" s="4"/>
+      <c r="EP12" s="4"/>
+      <c r="EQ12" s="4"/>
+      <c r="ER12" s="4"/>
+      <c r="ES12" s="4"/>
+      <c r="ET12" s="4"/>
+      <c r="EU12" s="4"/>
+      <c r="EV12" s="4"/>
+      <c r="EW12" s="4"/>
+      <c r="EX12" s="4"/>
+      <c r="EY12" s="4"/>
+      <c r="EZ12" s="4"/>
+      <c r="FA12" s="4"/>
+      <c r="FB12" s="4"/>
+      <c r="FC12" s="4"/>
+      <c r="FD12" s="4"/>
+      <c r="FE12" s="4"/>
+      <c r="FF12" s="4"/>
+      <c r="FG12" s="4"/>
+      <c r="FH12" s="4"/>
+      <c r="FI12" s="4"/>
+      <c r="FJ12" s="4"/>
+      <c r="FK12" s="4"/>
+      <c r="FL12" s="4"/>
+      <c r="FM12" s="4"/>
+      <c r="FN12" s="4"/>
+      <c r="FO12" s="4"/>
+      <c r="FP12" s="4"/>
+      <c r="FQ12" s="4"/>
+      <c r="FR12" s="4"/>
+      <c r="FS12" s="4"/>
+      <c r="FT12" s="4"/>
+      <c r="FU12" s="4"/>
+      <c r="FV12" s="4"/>
+      <c r="FW12" s="4"/>
+      <c r="FX12" s="4"/>
+      <c r="FY12" s="4"/>
+      <c r="FZ12" s="4"/>
+      <c r="GA12" s="4"/>
+      <c r="GB12" s="4"/>
+      <c r="GC12" s="4"/>
+      <c r="GD12" s="4"/>
+      <c r="GE12" s="4"/>
+      <c r="GF12" s="4"/>
+      <c r="GG12" s="4"/>
+      <c r="GH12" s="4"/>
+      <c r="GI12" s="4"/>
+      <c r="GJ12" s="4"/>
+      <c r="GK12" s="4"/>
+      <c r="GL12" s="4"/>
+      <c r="GM12" s="4"/>
+      <c r="GN12" s="4"/>
+      <c r="GO12" s="4"/>
+      <c r="GP12" s="4"/>
+      <c r="GQ12" s="4"/>
+      <c r="GR12" s="4"/>
+      <c r="GS12" s="4"/>
+      <c r="GT12" s="4"/>
+      <c r="GU12" s="4"/>
+      <c r="GV12" s="4"/>
+      <c r="GW12" s="4"/>
+      <c r="GX12" s="4"/>
+      <c r="GY12" s="4"/>
+      <c r="GZ12" s="4"/>
+      <c r="HA12" s="4"/>
+      <c r="HB12" s="4"/>
+      <c r="HC12" s="4"/>
+      <c r="HD12" s="4"/>
+      <c r="HE12" s="4"/>
+      <c r="HF12" s="4"/>
+      <c r="HG12" s="4"/>
+      <c r="HH12" s="4"/>
+      <c r="HI12" s="4"/>
+      <c r="HJ12" s="4"/>
+      <c r="HK12" s="4"/>
+      <c r="HL12" s="4"/>
+      <c r="HM12" s="4"/>
+      <c r="HN12" s="4"/>
+      <c r="HO12" s="4"/>
+      <c r="HP12" s="4"/>
+      <c r="HQ12" s="4"/>
+      <c r="HR12" s="4"/>
+      <c r="HS12" s="4"/>
+      <c r="HT12" s="4"/>
+      <c r="HU12" s="4"/>
+      <c r="HV12" s="4"/>
+      <c r="HW12" s="4"/>
+      <c r="HX12" s="4"/>
+      <c r="HY12" s="4"/>
+      <c r="HZ12" s="4"/>
+      <c r="IA12" s="4"/>
+      <c r="IB12" s="4"/>
+      <c r="IC12" s="4"/>
+      <c r="ID12" s="4"/>
+      <c r="IE12" s="4"/>
+      <c r="IF12" s="4"/>
+      <c r="IG12" s="4"/>
+      <c r="IH12" s="4"/>
+      <c r="II12" s="4"/>
+      <c r="IJ12" s="4"/>
+      <c r="IK12" s="4"/>
+      <c r="IL12" s="4"/>
+      <c r="IM12" s="4"/>
+      <c r="IN12" s="4"/>
+      <c r="IO12" s="4"/>
+      <c r="IP12" s="4"/>
+      <c r="IQ12" s="4"/>
+      <c r="IR12" s="4"/>
+      <c r="IS12" s="4"/>
+      <c r="IT12" s="4"/>
+      <c r="IU12" s="4"/>
+      <c r="IV12" s="4"/>
+      <c r="IW12" s="4"/>
+      <c r="IX12" s="4"/>
+      <c r="IY12" s="4"/>
+      <c r="IZ12" s="4"/>
+      <c r="JA12" s="4"/>
+      <c r="JB12" s="4"/>
+      <c r="JC12" s="4"/>
+      <c r="JD12" s="4"/>
+      <c r="JE12" s="4"/>
+      <c r="JF12" s="4"/>
+      <c r="JG12" s="4"/>
+      <c r="JH12" s="4"/>
+      <c r="JI12" s="4"/>
+      <c r="JJ12" s="4"/>
+      <c r="JK12" s="4"/>
+      <c r="JL12" s="4"/>
+      <c r="JM12" s="4"/>
+      <c r="JN12" s="4"/>
+      <c r="JO12" s="4"/>
+      <c r="JP12" s="4"/>
+      <c r="JQ12" s="4"/>
+      <c r="JR12" s="4"/>
+      <c r="JS12" s="4"/>
+      <c r="JT12" s="4"/>
+      <c r="JU12" s="4"/>
+      <c r="JV12" s="4"/>
+      <c r="JW12" s="4"/>
+      <c r="JX12" s="4"/>
+      <c r="JY12" s="4"/>
+      <c r="JZ12" s="4"/>
+      <c r="KA12" s="4"/>
+      <c r="KB12" s="4"/>
+      <c r="KC12" s="4"/>
+      <c r="KD12" s="4"/>
+      <c r="KE12" s="4"/>
+      <c r="KF12" s="4"/>
+      <c r="KG12" s="4"/>
+      <c r="KH12" s="4"/>
+      <c r="KI12" s="4"/>
+      <c r="KJ12" s="4"/>
+      <c r="KK12" s="4"/>
+      <c r="KL12" s="4"/>
+      <c r="KM12" s="4"/>
+      <c r="KN12" s="4"/>
+      <c r="KO12" s="4"/>
+      <c r="KP12" s="4"/>
+      <c r="KQ12" s="4"/>
+      <c r="KR12" s="4"/>
+      <c r="KS12" s="4"/>
+      <c r="KT12" s="4"/>
+      <c r="KU12" s="4"/>
+      <c r="KV12" s="4"/>
+      <c r="KW12" s="4"/>
+      <c r="KX12" s="4"/>
+      <c r="KY12" s="4"/>
+      <c r="KZ12" s="4"/>
+      <c r="LA12" s="4"/>
+      <c r="LB12" s="4"/>
+      <c r="LC12" s="4"/>
+      <c r="LD12" s="4"/>
+      <c r="LE12" s="4"/>
+      <c r="LF12" s="4"/>
+      <c r="LG12" s="4"/>
+      <c r="LH12" s="4"/>
+      <c r="LI12" s="4"/>
+      <c r="LJ12" s="4"/>
+      <c r="LK12" s="4"/>
+      <c r="LL12" s="4"/>
+      <c r="LM12" s="4"/>
+      <c r="LN12" s="4"/>
+      <c r="LO12" s="4"/>
+      <c r="LP12" s="4"/>
+      <c r="LQ12" s="4"/>
+      <c r="LR12" s="4"/>
+      <c r="LS12" s="4"/>
+      <c r="LT12" s="4"/>
+      <c r="LU12" s="4"/>
+      <c r="LV12" s="4"/>
+      <c r="LW12" s="4"/>
+      <c r="LX12" s="4"/>
+      <c r="LY12" s="4"/>
+      <c r="LZ12" s="4"/>
+      <c r="MA12" s="4"/>
+      <c r="MB12" s="4"/>
+      <c r="MC12" s="4"/>
+      <c r="MD12" s="4"/>
+      <c r="ME12" s="4"/>
+      <c r="MF12" s="4"/>
+      <c r="MG12" s="4"/>
+      <c r="MH12" s="4"/>
+      <c r="MI12" s="4"/>
+      <c r="MJ12" s="4"/>
+      <c r="MK12" s="4"/>
+      <c r="ML12" s="4"/>
+      <c r="MM12" s="4"/>
+      <c r="MN12" s="4"/>
+      <c r="MO12" s="4"/>
+      <c r="MP12" s="4"/>
+      <c r="MQ12" s="4"/>
+      <c r="MR12" s="4"/>
+      <c r="MS12" s="4"/>
+      <c r="MT12" s="4"/>
+      <c r="MU12" s="4"/>
+      <c r="MV12" s="4"/>
+      <c r="MW12" s="4"/>
+      <c r="MX12" s="4"/>
+      <c r="MY12" s="4"/>
+      <c r="MZ12" s="4"/>
+      <c r="NA12" s="4"/>
+      <c r="NB12" s="4"/>
+      <c r="NC12" s="4"/>
+      <c r="ND12" s="4"/>
+      <c r="NE12" s="4"/>
+      <c r="NF12" s="4"/>
+      <c r="NG12" s="4"/>
+      <c r="NH12" s="4"/>
+      <c r="NI12" s="4"/>
+      <c r="NJ12" s="4"/>
+      <c r="NK12" s="4"/>
+      <c r="NL12" s="4"/>
+      <c r="NM12" s="4"/>
+      <c r="NN12" s="4"/>
+      <c r="NO12" s="4"/>
+      <c r="NP12" s="4"/>
+      <c r="NQ12" s="4"/>
+      <c r="NR12" s="4"/>
+      <c r="NS12" s="4"/>
+      <c r="NT12" s="4"/>
+      <c r="NU12" s="4"/>
+      <c r="NV12" s="4"/>
+      <c r="NW12" s="4"/>
+      <c r="NX12" s="4"/>
+      <c r="NY12" s="4"/>
+      <c r="NZ12" s="4"/>
+      <c r="OA12" s="4"/>
+      <c r="OB12" s="4"/>
+      <c r="OC12" s="4"/>
+      <c r="OD12" s="4"/>
+      <c r="OE12" s="4"/>
+      <c r="OF12" s="4"/>
+      <c r="OG12" s="4"/>
+      <c r="OH12" s="4"/>
+      <c r="OI12" s="4"/>
+      <c r="OJ12" s="4"/>
+      <c r="OK12" s="4"/>
+      <c r="OL12" s="4"/>
+      <c r="OM12" s="4"/>
+      <c r="ON12" s="4"/>
+      <c r="OO12" s="4"/>
+      <c r="OP12" s="4"/>
+      <c r="OQ12" s="4"/>
+      <c r="OR12" s="4"/>
+      <c r="OS12" s="4"/>
+      <c r="OT12" s="4"/>
+      <c r="OU12" s="4"/>
+      <c r="OV12" s="4"/>
+      <c r="OW12" s="4"/>
+      <c r="OX12" s="4"/>
+      <c r="OY12" s="4"/>
+      <c r="OZ12" s="4"/>
+      <c r="PA12" s="4"/>
+      <c r="PB12" s="4"/>
+      <c r="PC12" s="4"/>
+      <c r="PD12" s="4"/>
+      <c r="PE12" s="4"/>
+      <c r="PF12" s="4"/>
+      <c r="PG12" s="4"/>
+      <c r="PH12" s="4"/>
+      <c r="PI12" s="4"/>
+      <c r="PJ12" s="4"/>
+      <c r="PK12" s="4"/>
+      <c r="PL12" s="4"/>
+      <c r="PM12" s="4"/>
+      <c r="PN12" s="4"/>
+      <c r="PO12" s="4"/>
+      <c r="PP12" s="4"/>
+      <c r="PQ12" s="4"/>
+      <c r="PR12" s="4"/>
+      <c r="PS12" s="4"/>
+      <c r="PT12" s="4"/>
+      <c r="PU12" s="4"/>
+      <c r="PV12" s="4"/>
+      <c r="PW12" s="4"/>
+      <c r="PX12" s="4"/>
+      <c r="PY12" s="4"/>
+      <c r="PZ12" s="4"/>
+      <c r="QA12" s="4"/>
+      <c r="QB12" s="4"/>
+      <c r="QC12" s="4"/>
+      <c r="QD12" s="4"/>
+      <c r="QE12" s="4"/>
+      <c r="QF12" s="4"/>
+      <c r="QG12" s="4"/>
+      <c r="QH12" s="4"/>
+      <c r="QI12" s="4"/>
+      <c r="QJ12" s="4"/>
+      <c r="QK12" s="4"/>
+      <c r="QL12" s="4"/>
+      <c r="QM12" s="4"/>
+      <c r="QN12" s="4"/>
+      <c r="QO12" s="4"/>
+      <c r="QP12" s="4"/>
+      <c r="QQ12" s="4"/>
+      <c r="QR12" s="4"/>
+      <c r="QS12" s="4"/>
+      <c r="QT12" s="4"/>
+      <c r="QU12" s="4"/>
+      <c r="QV12" s="4"/>
+      <c r="QW12" s="4"/>
+      <c r="QX12" s="4"/>
+      <c r="QY12" s="4"/>
+      <c r="QZ12" s="4"/>
+      <c r="RA12" s="4"/>
+      <c r="RB12" s="4"/>
+      <c r="RC12" s="4"/>
+      <c r="RD12" s="4"/>
+      <c r="RE12" s="4"/>
+      <c r="RF12" s="4"/>
+      <c r="RG12" s="4"/>
+      <c r="RH12" s="4"/>
+      <c r="RI12" s="4"/>
+      <c r="RJ12" s="4"/>
+      <c r="RK12" s="4"/>
+      <c r="RL12" s="4"/>
+      <c r="RM12" s="4"/>
+      <c r="RN12" s="4"/>
+      <c r="RO12" s="4"/>
+      <c r="RP12" s="4"/>
+    </row>
+    <row r="13" spans="1:484" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:484" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+    </row>
+    <row r="16" spans="1:484" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" s="2">
-        <v>999987878</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>17111987</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>21</v>
+      <c r="J17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L18" s="17">
+        <v>44022</v>
+      </c>
+      <c r="M18" s="17">
+        <v>44022</v>
+      </c>
+      <c r="N18" s="18">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="O18" s="18">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="20"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+  <mergeCells count="6">
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="A16:O16"/>
+    <mergeCell ref="A2:Y2"/>
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="A9:J9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/normalização de dados.xlsx
+++ b/normalização de dados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio-pc\Documents\facudade\tcc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio -TI\Documents\faculdade\tcc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6BCE3D-A6ED-4374-8F89-8E82589786E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1159E5AA-A510-4CA7-AA1B-97D1CBDAA540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{82851AB4-57C7-4768-AD19-0F0102215559}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{82851AB4-57C7-4768-AD19-0F0102215559}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{C9A3BD3F-E915-4E6B-B994-52208BAAF34D}">
+    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{C9A3BD3F-E915-4E6B-B994-52208BAAF34D}">
       <text>
         <r>
           <rPr>
@@ -88,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{0B48475E-6356-4BF3-A06D-D7FC9DE555EE}">
+    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{0B48475E-6356-4BF3-A06D-D7FC9DE555EE}">
       <text>
         <r>
           <rPr>
@@ -114,12 +114,62 @@
         </r>
       </text>
     </comment>
+    <comment ref="A43" authorId="0" shapeId="0" xr:uid="{70422FC8-D4F4-49A4-B53C-0F97F78FEF15}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>fabio -TI:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+normalizar:
+nome
+telefone</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C63" authorId="0" shapeId="0" xr:uid="{367D0889-EBBC-44C0-82A0-E0F6232938FE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>fabio -TI:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+em campo ou em uso</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="171">
   <si>
     <t>Normalização de Dados</t>
   </si>
@@ -223,9 +273,6 @@
     <t>nome_dep</t>
   </si>
   <si>
-    <t>matricula_encarregado</t>
-  </si>
-  <si>
     <t>000001</t>
   </si>
   <si>
@@ -238,9 +285,6 @@
     <t>manutenção</t>
   </si>
   <si>
-    <t>elétrica</t>
-  </si>
-  <si>
     <t>000010</t>
   </si>
   <si>
@@ -313,9 +357,6 @@
     <t xml:space="preserve">mecanico </t>
   </si>
   <si>
-    <t>eletricista</t>
-  </si>
-  <si>
     <t>00030</t>
   </si>
   <si>
@@ -343,12 +384,6 @@
     <t>000042</t>
   </si>
   <si>
-    <t>ligação de quadro elétrico</t>
-  </si>
-  <si>
-    <t>o Funcionário necessita ligar novo quadro eletrico</t>
-  </si>
-  <si>
     <t>fábrica de latas</t>
   </si>
   <si>
@@ -361,50 +396,299 @@
     <t>00051</t>
   </si>
   <si>
-    <t>00052</t>
-  </si>
-  <si>
-    <t>executante1</t>
-  </si>
-  <si>
-    <t>executante2</t>
-  </si>
-  <si>
-    <t>executante3</t>
-  </si>
-  <si>
-    <t>executante4</t>
-  </si>
-  <si>
-    <t>executante5</t>
-  </si>
-  <si>
-    <t>fulano 1</t>
-  </si>
-  <si>
-    <t>fulano 2</t>
-  </si>
-  <si>
-    <t>fulano 3</t>
-  </si>
-  <si>
     <t>executante-tarefa</t>
   </si>
   <si>
     <t>codigo_executante</t>
   </si>
   <si>
-    <t>00053</t>
-  </si>
-  <si>
     <t>00012</t>
+  </si>
+  <si>
+    <t>Manutenção</t>
+  </si>
+  <si>
+    <t>encarregado</t>
+  </si>
+  <si>
+    <t>colaborador</t>
+  </si>
+  <si>
+    <t>000013</t>
+  </si>
+  <si>
+    <t>000004</t>
+  </si>
+  <si>
+    <t>Limpeza</t>
+  </si>
+  <si>
+    <t>000033</t>
+  </si>
+  <si>
+    <t>Serviçõs Gerais</t>
+  </si>
+  <si>
+    <t>ererf</t>
+  </si>
+  <si>
+    <t>Henrrique</t>
+  </si>
+  <si>
+    <t>Fagundes</t>
+  </si>
+  <si>
+    <t>....</t>
+  </si>
+  <si>
+    <t>laboratório</t>
+  </si>
+  <si>
+    <t>Quimica</t>
+  </si>
+  <si>
+    <t>Manipulação de produto quimico</t>
+  </si>
+  <si>
+    <t>o Funcionário necessita manipular produto quimico para analisar a qualidade do produto da fábrica</t>
+  </si>
+  <si>
+    <t>Ficha de E.P.I</t>
+  </si>
+  <si>
+    <t>codigo_ficha_epi</t>
+  </si>
+  <si>
+    <t>codigo_motivo</t>
+  </si>
+  <si>
+    <t>cod_ficha_epi</t>
+  </si>
+  <si>
+    <t>quant_epi</t>
+  </si>
+  <si>
+    <t>nome_epi</t>
+  </si>
+  <si>
+    <t>data_dev_epi</t>
+  </si>
+  <si>
+    <t>obs_entrega</t>
+  </si>
+  <si>
+    <t>data_entrega_epi</t>
+  </si>
+  <si>
+    <t>obs_devolucao</t>
+  </si>
+  <si>
+    <t>tipo_funcionario</t>
+  </si>
+  <si>
+    <t>Encarregado</t>
+  </si>
+  <si>
+    <t>laboratorio</t>
+  </si>
+  <si>
+    <t>limpeza</t>
+  </si>
+  <si>
+    <t>00061</t>
+  </si>
+  <si>
+    <t>Motivo_devolucao</t>
+  </si>
+  <si>
+    <t>00071</t>
+  </si>
+  <si>
+    <t>00072</t>
+  </si>
+  <si>
+    <t>00073</t>
+  </si>
+  <si>
+    <t>00062</t>
+  </si>
+  <si>
+    <t>00063</t>
+  </si>
+  <si>
+    <t>Calça anti-chamas</t>
+  </si>
+  <si>
+    <t>é usado pelo setor de eletrica</t>
+  </si>
+  <si>
+    <t>o epi encontra-se em estado de novo</t>
+  </si>
+  <si>
+    <t>Demissão</t>
+  </si>
+  <si>
+    <t>Adimissção</t>
+  </si>
+  <si>
+    <t>perda</t>
+  </si>
+  <si>
+    <t>roubo</t>
+  </si>
+  <si>
+    <t>extravio</t>
+  </si>
+  <si>
+    <t>vencimento C.A</t>
+  </si>
+  <si>
+    <t>Desgaste Natural</t>
+  </si>
+  <si>
+    <t>00074</t>
+  </si>
+  <si>
+    <t>00075</t>
+  </si>
+  <si>
+    <t>00076</t>
+  </si>
+  <si>
+    <t>00077</t>
+  </si>
+  <si>
+    <t>cod_motivo</t>
+  </si>
+  <si>
+    <t>Nome motivo</t>
+  </si>
+  <si>
+    <t>funcionario-ficha_epi</t>
+  </si>
+  <si>
+    <t>00064</t>
+  </si>
+  <si>
+    <t>Elétrica</t>
+  </si>
+  <si>
+    <t>000014</t>
+  </si>
+  <si>
+    <t>000005</t>
+  </si>
+  <si>
+    <t>Eletricista</t>
+  </si>
+  <si>
+    <t>rerer</t>
+  </si>
+  <si>
+    <t>000034</t>
+  </si>
+  <si>
+    <t>Vinicius</t>
+  </si>
+  <si>
+    <t>Paixao</t>
+  </si>
+  <si>
+    <t>Bairro</t>
+  </si>
+  <si>
+    <t>Huulha Negra</t>
+  </si>
+  <si>
+    <t>capacete</t>
+  </si>
+  <si>
+    <t>o E.P.I foi perdido pelo colaborador, será descontado</t>
+  </si>
+  <si>
+    <t>OBS: estudar o caso do atributo c.a</t>
+  </si>
+  <si>
+    <t>E.P.I</t>
+  </si>
+  <si>
+    <t>cod_epi</t>
+  </si>
+  <si>
+    <t>situação</t>
+  </si>
+  <si>
+    <t>venc.C.A</t>
+  </si>
+  <si>
+    <t>estoque_minimo</t>
+  </si>
+  <si>
+    <t>unidade</t>
+  </si>
+  <si>
+    <t>c.a</t>
+  </si>
+  <si>
+    <t>desc_epi</t>
+  </si>
+  <si>
+    <t>fornecedor</t>
+  </si>
+  <si>
+    <t>data_fabricacao</t>
+  </si>
+  <si>
+    <t>fabricante</t>
+  </si>
+  <si>
+    <t>00081</t>
+  </si>
+  <si>
+    <t>00082</t>
+  </si>
+  <si>
+    <t>00083</t>
+  </si>
+  <si>
+    <t>00084</t>
+  </si>
+  <si>
+    <t>Luva de raspa</t>
+  </si>
+  <si>
+    <t>estoque</t>
+  </si>
+  <si>
+    <t>par</t>
+  </si>
+  <si>
+    <t>luva de uso para armador</t>
+  </si>
+  <si>
+    <t>carbografite</t>
+  </si>
+  <si>
+    <t>fijwara</t>
+  </si>
+  <si>
+    <t>ficha_epi-epi</t>
+  </si>
+  <si>
+    <t>Calça antichamas</t>
+  </si>
+  <si>
+    <t>em campo</t>
+  </si>
+  <si>
+    <t>usado pelo setor de eletrica</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,8 +732,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -468,8 +766,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -529,11 +833,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -551,15 +875,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -567,6 +882,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -578,21 +907,59 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -909,10 +1276,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33215026-C023-41C6-931A-1B3971A4E820}">
-  <dimension ref="A1:RP27"/>
+  <dimension ref="A1:RP67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,7 +1288,10 @@
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="24.28515625" customWidth="1"/>
+    <col min="4" max="5" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="22" customWidth="1"/>
     <col min="11" max="11" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
@@ -928,77 +1299,80 @@
     <col min="14" max="15" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:484" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
     </row>
     <row r="2" spans="1:484" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
     </row>
     <row r="3" spans="1:484" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>58</v>
+      <c r="C3" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>23</v>
@@ -1051,8 +1425,12 @@
       <c r="T3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
+      <c r="U3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
@@ -1518,13 +1896,13 @@
     </row>
     <row r="4" spans="1:484" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>24</v>
@@ -1577,8 +1955,12 @@
       <c r="T4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
+      <c r="U4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
@@ -2044,19 +2426,19 @@
     </row>
     <row r="5" spans="1:484" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F5" s="3">
         <v>4343554</v>
@@ -2103,8 +2485,12 @@
       <c r="T5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
+      <c r="U5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
@@ -2570,19 +2956,19 @@
     </row>
     <row r="6" spans="1:484" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F6" s="3">
         <v>45545</v>
@@ -2597,7 +2983,7 @@
         <v>15</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K6" s="3">
         <v>34354</v>
@@ -2609,7 +2995,7 @@
         <v>23</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O6" s="3">
         <v>53898989</v>
@@ -2627,10 +3013,14 @@
         <v>19</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
@@ -3095,10 +3485,72 @@
       <c r="RP6" s="4"/>
     </row>
     <row r="7" spans="1:484" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
+      <c r="A7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="3">
+        <v>54454</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="3">
+        <v>456</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="3">
+        <v>34567</v>
+      </c>
+      <c r="L7" s="3">
+        <v>2312321</v>
+      </c>
+      <c r="M7" s="3">
+        <v>26</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="3">
+        <v>4234234</v>
+      </c>
+      <c r="P7" s="3">
+        <v>4324234</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="3">
+        <v>3234444</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
@@ -3563,28 +4015,72 @@
       <c r="RP7" s="4"/>
     </row>
     <row r="8" spans="1:484" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
+      <c r="A8" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" s="3">
+        <v>434355</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="3">
+        <v>459</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K8" s="3">
+        <v>897890</v>
+      </c>
+      <c r="L8" s="3">
+        <v>7987988</v>
+      </c>
+      <c r="M8" s="3">
+        <v>43</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" s="3">
+        <v>5345345</v>
+      </c>
+      <c r="P8" s="3">
+        <v>5345345</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="27">
+        <v>40992</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
@@ -4049,23 +4545,20 @@
       <c r="RP8" s="4"/>
     </row>
     <row r="9" spans="1:484" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="9"/>
-      <c r="L9" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="M9" s="14"/>
-      <c r="N9" s="15"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
@@ -4538,27 +5031,20 @@
       <c r="RP9" s="4"/>
     </row>
     <row r="10" spans="1:484" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
@@ -5031,24 +5517,24 @@
       <c r="RP10" s="4"/>
     </row>
     <row r="11" spans="1:484" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="A11" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11"/>
+      <c r="D11" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
@@ -5521,24 +6007,30 @@
       <c r="RP11" s="4"/>
     </row>
     <row r="12" spans="1:484" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="A12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
@@ -6010,253 +6502,1688 @@
       <c r="RO12" s="4"/>
       <c r="RP12" s="4"/>
     </row>
-    <row r="13" spans="1:484" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:484" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="4"/>
+      <c r="AP13" s="4"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="4"/>
+      <c r="AS13" s="4"/>
+      <c r="AT13" s="4"/>
+      <c r="AU13" s="4"/>
+      <c r="AV13" s="4"/>
+      <c r="AW13" s="4"/>
+      <c r="AX13" s="4"/>
+      <c r="AY13" s="4"/>
+      <c r="AZ13" s="4"/>
+      <c r="BA13" s="4"/>
+      <c r="BB13" s="4"/>
+      <c r="BC13" s="4"/>
+      <c r="BD13" s="4"/>
+      <c r="BE13" s="4"/>
+      <c r="BF13" s="4"/>
+      <c r="BG13" s="4"/>
+      <c r="BH13" s="4"/>
+      <c r="BI13" s="4"/>
+      <c r="BJ13" s="4"/>
+      <c r="BK13" s="4"/>
+      <c r="BL13" s="4"/>
+      <c r="BM13" s="4"/>
+      <c r="BN13" s="4"/>
+      <c r="BO13" s="4"/>
+      <c r="BP13" s="4"/>
+      <c r="BQ13" s="4"/>
+      <c r="BR13" s="4"/>
+      <c r="BS13" s="4"/>
+      <c r="BT13" s="4"/>
+      <c r="BU13" s="4"/>
+      <c r="BV13" s="4"/>
+      <c r="BW13" s="4"/>
+      <c r="BX13" s="4"/>
+      <c r="BY13" s="4"/>
+      <c r="BZ13" s="4"/>
+      <c r="CA13" s="4"/>
+      <c r="CB13" s="4"/>
+      <c r="CC13" s="4"/>
+      <c r="CD13" s="4"/>
+      <c r="CE13" s="4"/>
+      <c r="CF13" s="4"/>
+      <c r="CG13" s="4"/>
+      <c r="CH13" s="4"/>
+      <c r="CI13" s="4"/>
+      <c r="CJ13" s="4"/>
+      <c r="CK13" s="4"/>
+      <c r="CL13" s="4"/>
+      <c r="CM13" s="4"/>
+      <c r="CN13" s="4"/>
+      <c r="CO13" s="4"/>
+      <c r="CP13" s="4"/>
+      <c r="CQ13" s="4"/>
+      <c r="CR13" s="4"/>
+      <c r="CS13" s="4"/>
+      <c r="CT13" s="4"/>
+      <c r="CU13" s="4"/>
+      <c r="CV13" s="4"/>
+      <c r="CW13" s="4"/>
+      <c r="CX13" s="4"/>
+      <c r="CY13" s="4"/>
+      <c r="CZ13" s="4"/>
+      <c r="DA13" s="4"/>
+      <c r="DB13" s="4"/>
+      <c r="DC13" s="4"/>
+      <c r="DD13" s="4"/>
+      <c r="DE13" s="4"/>
+      <c r="DF13" s="4"/>
+      <c r="DG13" s="4"/>
+      <c r="DH13" s="4"/>
+      <c r="DI13" s="4"/>
+      <c r="DJ13" s="4"/>
+      <c r="DK13" s="4"/>
+      <c r="DL13" s="4"/>
+      <c r="DM13" s="4"/>
+      <c r="DN13" s="4"/>
+      <c r="DO13" s="4"/>
+      <c r="DP13" s="4"/>
+      <c r="DQ13" s="4"/>
+      <c r="DR13" s="4"/>
+      <c r="DS13" s="4"/>
+      <c r="DT13" s="4"/>
+      <c r="DU13" s="4"/>
+      <c r="DV13" s="4"/>
+      <c r="DW13" s="4"/>
+      <c r="DX13" s="4"/>
+      <c r="DY13" s="4"/>
+      <c r="DZ13" s="4"/>
+      <c r="EA13" s="4"/>
+      <c r="EB13" s="4"/>
+      <c r="EC13" s="4"/>
+      <c r="ED13" s="4"/>
+      <c r="EE13" s="4"/>
+      <c r="EF13" s="4"/>
+      <c r="EG13" s="4"/>
+      <c r="EH13" s="4"/>
+      <c r="EI13" s="4"/>
+      <c r="EJ13" s="4"/>
+      <c r="EK13" s="4"/>
+      <c r="EL13" s="4"/>
+      <c r="EM13" s="4"/>
+      <c r="EN13" s="4"/>
+      <c r="EO13" s="4"/>
+      <c r="EP13" s="4"/>
+      <c r="EQ13" s="4"/>
+      <c r="ER13" s="4"/>
+      <c r="ES13" s="4"/>
+      <c r="ET13" s="4"/>
+      <c r="EU13" s="4"/>
+      <c r="EV13" s="4"/>
+      <c r="EW13" s="4"/>
+      <c r="EX13" s="4"/>
+      <c r="EY13" s="4"/>
+      <c r="EZ13" s="4"/>
+      <c r="FA13" s="4"/>
+      <c r="FB13" s="4"/>
+      <c r="FC13" s="4"/>
+      <c r="FD13" s="4"/>
+      <c r="FE13" s="4"/>
+      <c r="FF13" s="4"/>
+      <c r="FG13" s="4"/>
+      <c r="FH13" s="4"/>
+      <c r="FI13" s="4"/>
+      <c r="FJ13" s="4"/>
+      <c r="FK13" s="4"/>
+      <c r="FL13" s="4"/>
+      <c r="FM13" s="4"/>
+      <c r="FN13" s="4"/>
+      <c r="FO13" s="4"/>
+      <c r="FP13" s="4"/>
+      <c r="FQ13" s="4"/>
+      <c r="FR13" s="4"/>
+      <c r="FS13" s="4"/>
+      <c r="FT13" s="4"/>
+      <c r="FU13" s="4"/>
+      <c r="FV13" s="4"/>
+      <c r="FW13" s="4"/>
+      <c r="FX13" s="4"/>
+      <c r="FY13" s="4"/>
+      <c r="FZ13" s="4"/>
+      <c r="GA13" s="4"/>
+      <c r="GB13" s="4"/>
+      <c r="GC13" s="4"/>
+      <c r="GD13" s="4"/>
+      <c r="GE13" s="4"/>
+      <c r="GF13" s="4"/>
+      <c r="GG13" s="4"/>
+      <c r="GH13" s="4"/>
+      <c r="GI13" s="4"/>
+      <c r="GJ13" s="4"/>
+      <c r="GK13" s="4"/>
+      <c r="GL13" s="4"/>
+      <c r="GM13" s="4"/>
+      <c r="GN13" s="4"/>
+      <c r="GO13" s="4"/>
+      <c r="GP13" s="4"/>
+      <c r="GQ13" s="4"/>
+      <c r="GR13" s="4"/>
+      <c r="GS13" s="4"/>
+      <c r="GT13" s="4"/>
+      <c r="GU13" s="4"/>
+      <c r="GV13" s="4"/>
+      <c r="GW13" s="4"/>
+      <c r="GX13" s="4"/>
+      <c r="GY13" s="4"/>
+      <c r="GZ13" s="4"/>
+      <c r="HA13" s="4"/>
+      <c r="HB13" s="4"/>
+      <c r="HC13" s="4"/>
+      <c r="HD13" s="4"/>
+      <c r="HE13" s="4"/>
+      <c r="HF13" s="4"/>
+      <c r="HG13" s="4"/>
+      <c r="HH13" s="4"/>
+      <c r="HI13" s="4"/>
+      <c r="HJ13" s="4"/>
+      <c r="HK13" s="4"/>
+      <c r="HL13" s="4"/>
+      <c r="HM13" s="4"/>
+      <c r="HN13" s="4"/>
+      <c r="HO13" s="4"/>
+      <c r="HP13" s="4"/>
+      <c r="HQ13" s="4"/>
+      <c r="HR13" s="4"/>
+      <c r="HS13" s="4"/>
+      <c r="HT13" s="4"/>
+      <c r="HU13" s="4"/>
+      <c r="HV13" s="4"/>
+      <c r="HW13" s="4"/>
+      <c r="HX13" s="4"/>
+      <c r="HY13" s="4"/>
+      <c r="HZ13" s="4"/>
+      <c r="IA13" s="4"/>
+      <c r="IB13" s="4"/>
+      <c r="IC13" s="4"/>
+      <c r="ID13" s="4"/>
+      <c r="IE13" s="4"/>
+      <c r="IF13" s="4"/>
+      <c r="IG13" s="4"/>
+      <c r="IH13" s="4"/>
+      <c r="II13" s="4"/>
+      <c r="IJ13" s="4"/>
+      <c r="IK13" s="4"/>
+      <c r="IL13" s="4"/>
+      <c r="IM13" s="4"/>
+      <c r="IN13" s="4"/>
+      <c r="IO13" s="4"/>
+      <c r="IP13" s="4"/>
+      <c r="IQ13" s="4"/>
+      <c r="IR13" s="4"/>
+      <c r="IS13" s="4"/>
+      <c r="IT13" s="4"/>
+      <c r="IU13" s="4"/>
+      <c r="IV13" s="4"/>
+      <c r="IW13" s="4"/>
+      <c r="IX13" s="4"/>
+      <c r="IY13" s="4"/>
+      <c r="IZ13" s="4"/>
+      <c r="JA13" s="4"/>
+      <c r="JB13" s="4"/>
+      <c r="JC13" s="4"/>
+      <c r="JD13" s="4"/>
+      <c r="JE13" s="4"/>
+      <c r="JF13" s="4"/>
+      <c r="JG13" s="4"/>
+      <c r="JH13" s="4"/>
+      <c r="JI13" s="4"/>
+      <c r="JJ13" s="4"/>
+      <c r="JK13" s="4"/>
+      <c r="JL13" s="4"/>
+      <c r="JM13" s="4"/>
+      <c r="JN13" s="4"/>
+      <c r="JO13" s="4"/>
+      <c r="JP13" s="4"/>
+      <c r="JQ13" s="4"/>
+      <c r="JR13" s="4"/>
+      <c r="JS13" s="4"/>
+      <c r="JT13" s="4"/>
+      <c r="JU13" s="4"/>
+      <c r="JV13" s="4"/>
+      <c r="JW13" s="4"/>
+      <c r="JX13" s="4"/>
+      <c r="JY13" s="4"/>
+      <c r="JZ13" s="4"/>
+      <c r="KA13" s="4"/>
+      <c r="KB13" s="4"/>
+      <c r="KC13" s="4"/>
+      <c r="KD13" s="4"/>
+      <c r="KE13" s="4"/>
+      <c r="KF13" s="4"/>
+      <c r="KG13" s="4"/>
+      <c r="KH13" s="4"/>
+      <c r="KI13" s="4"/>
+      <c r="KJ13" s="4"/>
+      <c r="KK13" s="4"/>
+      <c r="KL13" s="4"/>
+      <c r="KM13" s="4"/>
+      <c r="KN13" s="4"/>
+      <c r="KO13" s="4"/>
+      <c r="KP13" s="4"/>
+      <c r="KQ13" s="4"/>
+      <c r="KR13" s="4"/>
+      <c r="KS13" s="4"/>
+      <c r="KT13" s="4"/>
+      <c r="KU13" s="4"/>
+      <c r="KV13" s="4"/>
+      <c r="KW13" s="4"/>
+      <c r="KX13" s="4"/>
+      <c r="KY13" s="4"/>
+      <c r="KZ13" s="4"/>
+      <c r="LA13" s="4"/>
+      <c r="LB13" s="4"/>
+      <c r="LC13" s="4"/>
+      <c r="LD13" s="4"/>
+      <c r="LE13" s="4"/>
+      <c r="LF13" s="4"/>
+      <c r="LG13" s="4"/>
+      <c r="LH13" s="4"/>
+      <c r="LI13" s="4"/>
+      <c r="LJ13" s="4"/>
+      <c r="LK13" s="4"/>
+      <c r="LL13" s="4"/>
+      <c r="LM13" s="4"/>
+      <c r="LN13" s="4"/>
+      <c r="LO13" s="4"/>
+      <c r="LP13" s="4"/>
+      <c r="LQ13" s="4"/>
+      <c r="LR13" s="4"/>
+      <c r="LS13" s="4"/>
+      <c r="LT13" s="4"/>
+      <c r="LU13" s="4"/>
+      <c r="LV13" s="4"/>
+      <c r="LW13" s="4"/>
+      <c r="LX13" s="4"/>
+      <c r="LY13" s="4"/>
+      <c r="LZ13" s="4"/>
+      <c r="MA13" s="4"/>
+      <c r="MB13" s="4"/>
+      <c r="MC13" s="4"/>
+      <c r="MD13" s="4"/>
+      <c r="ME13" s="4"/>
+      <c r="MF13" s="4"/>
+      <c r="MG13" s="4"/>
+      <c r="MH13" s="4"/>
+      <c r="MI13" s="4"/>
+      <c r="MJ13" s="4"/>
+      <c r="MK13" s="4"/>
+      <c r="ML13" s="4"/>
+      <c r="MM13" s="4"/>
+      <c r="MN13" s="4"/>
+      <c r="MO13" s="4"/>
+      <c r="MP13" s="4"/>
+      <c r="MQ13" s="4"/>
+      <c r="MR13" s="4"/>
+      <c r="MS13" s="4"/>
+      <c r="MT13" s="4"/>
+      <c r="MU13" s="4"/>
+      <c r="MV13" s="4"/>
+      <c r="MW13" s="4"/>
+      <c r="MX13" s="4"/>
+      <c r="MY13" s="4"/>
+      <c r="MZ13" s="4"/>
+      <c r="NA13" s="4"/>
+      <c r="NB13" s="4"/>
+      <c r="NC13" s="4"/>
+      <c r="ND13" s="4"/>
+      <c r="NE13" s="4"/>
+      <c r="NF13" s="4"/>
+      <c r="NG13" s="4"/>
+      <c r="NH13" s="4"/>
+      <c r="NI13" s="4"/>
+      <c r="NJ13" s="4"/>
+      <c r="NK13" s="4"/>
+      <c r="NL13" s="4"/>
+      <c r="NM13" s="4"/>
+      <c r="NN13" s="4"/>
+      <c r="NO13" s="4"/>
+      <c r="NP13" s="4"/>
+      <c r="NQ13" s="4"/>
+      <c r="NR13" s="4"/>
+      <c r="NS13" s="4"/>
+      <c r="NT13" s="4"/>
+      <c r="NU13" s="4"/>
+      <c r="NV13" s="4"/>
+      <c r="NW13" s="4"/>
+      <c r="NX13" s="4"/>
+      <c r="NY13" s="4"/>
+      <c r="NZ13" s="4"/>
+      <c r="OA13" s="4"/>
+      <c r="OB13" s="4"/>
+      <c r="OC13" s="4"/>
+      <c r="OD13" s="4"/>
+      <c r="OE13" s="4"/>
+      <c r="OF13" s="4"/>
+      <c r="OG13" s="4"/>
+      <c r="OH13" s="4"/>
+      <c r="OI13" s="4"/>
+      <c r="OJ13" s="4"/>
+      <c r="OK13" s="4"/>
+      <c r="OL13" s="4"/>
+      <c r="OM13" s="4"/>
+      <c r="ON13" s="4"/>
+      <c r="OO13" s="4"/>
+      <c r="OP13" s="4"/>
+      <c r="OQ13" s="4"/>
+      <c r="OR13" s="4"/>
+      <c r="OS13" s="4"/>
+      <c r="OT13" s="4"/>
+      <c r="OU13" s="4"/>
+      <c r="OV13" s="4"/>
+      <c r="OW13" s="4"/>
+      <c r="OX13" s="4"/>
+      <c r="OY13" s="4"/>
+      <c r="OZ13" s="4"/>
+      <c r="PA13" s="4"/>
+      <c r="PB13" s="4"/>
+      <c r="PC13" s="4"/>
+      <c r="PD13" s="4"/>
+      <c r="PE13" s="4"/>
+      <c r="PF13" s="4"/>
+      <c r="PG13" s="4"/>
+      <c r="PH13" s="4"/>
+      <c r="PI13" s="4"/>
+      <c r="PJ13" s="4"/>
+      <c r="PK13" s="4"/>
+      <c r="PL13" s="4"/>
+      <c r="PM13" s="4"/>
+      <c r="PN13" s="4"/>
+      <c r="PO13" s="4"/>
+      <c r="PP13" s="4"/>
+      <c r="PQ13" s="4"/>
+      <c r="PR13" s="4"/>
+      <c r="PS13" s="4"/>
+      <c r="PT13" s="4"/>
+      <c r="PU13" s="4"/>
+      <c r="PV13" s="4"/>
+      <c r="PW13" s="4"/>
+      <c r="PX13" s="4"/>
+      <c r="PY13" s="4"/>
+      <c r="PZ13" s="4"/>
+      <c r="QA13" s="4"/>
+      <c r="QB13" s="4"/>
+      <c r="QC13" s="4"/>
+      <c r="QD13" s="4"/>
+      <c r="QE13" s="4"/>
+      <c r="QF13" s="4"/>
+      <c r="QG13" s="4"/>
+      <c r="QH13" s="4"/>
+      <c r="QI13" s="4"/>
+      <c r="QJ13" s="4"/>
+      <c r="QK13" s="4"/>
+      <c r="QL13" s="4"/>
+      <c r="QM13" s="4"/>
+      <c r="QN13" s="4"/>
+      <c r="QO13" s="4"/>
+      <c r="QP13" s="4"/>
+      <c r="QQ13" s="4"/>
+      <c r="QR13" s="4"/>
+      <c r="QS13" s="4"/>
+      <c r="QT13" s="4"/>
+      <c r="QU13" s="4"/>
+      <c r="QV13" s="4"/>
+      <c r="QW13" s="4"/>
+      <c r="QX13" s="4"/>
+      <c r="QY13" s="4"/>
+      <c r="QZ13" s="4"/>
+      <c r="RA13" s="4"/>
+      <c r="RB13" s="4"/>
+      <c r="RC13" s="4"/>
+      <c r="RD13" s="4"/>
+      <c r="RE13" s="4"/>
+      <c r="RF13" s="4"/>
+      <c r="RG13" s="4"/>
+      <c r="RH13" s="4"/>
+      <c r="RI13" s="4"/>
+      <c r="RJ13" s="4"/>
+      <c r="RK13" s="4"/>
+      <c r="RL13" s="4"/>
+      <c r="RM13" s="4"/>
+      <c r="RN13" s="4"/>
+      <c r="RO13" s="4"/>
+      <c r="RP13" s="4"/>
+    </row>
+    <row r="14" spans="1:484" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="4"/>
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="4"/>
+      <c r="AS14" s="4"/>
+      <c r="AT14" s="4"/>
+      <c r="AU14" s="4"/>
+      <c r="AV14" s="4"/>
+      <c r="AW14" s="4"/>
+      <c r="AX14" s="4"/>
+      <c r="AY14" s="4"/>
+      <c r="AZ14" s="4"/>
+      <c r="BA14" s="4"/>
+      <c r="BB14" s="4"/>
+      <c r="BC14" s="4"/>
+      <c r="BD14" s="4"/>
+      <c r="BE14" s="4"/>
+      <c r="BF14" s="4"/>
+      <c r="BG14" s="4"/>
+      <c r="BH14" s="4"/>
+      <c r="BI14" s="4"/>
+      <c r="BJ14" s="4"/>
+      <c r="BK14" s="4"/>
+      <c r="BL14" s="4"/>
+      <c r="BM14" s="4"/>
+      <c r="BN14" s="4"/>
+      <c r="BO14" s="4"/>
+      <c r="BP14" s="4"/>
+      <c r="BQ14" s="4"/>
+      <c r="BR14" s="4"/>
+      <c r="BS14" s="4"/>
+      <c r="BT14" s="4"/>
+      <c r="BU14" s="4"/>
+      <c r="BV14" s="4"/>
+      <c r="BW14" s="4"/>
+      <c r="BX14" s="4"/>
+      <c r="BY14" s="4"/>
+      <c r="BZ14" s="4"/>
+      <c r="CA14" s="4"/>
+      <c r="CB14" s="4"/>
+      <c r="CC14" s="4"/>
+      <c r="CD14" s="4"/>
+      <c r="CE14" s="4"/>
+      <c r="CF14" s="4"/>
+      <c r="CG14" s="4"/>
+      <c r="CH14" s="4"/>
+      <c r="CI14" s="4"/>
+      <c r="CJ14" s="4"/>
+      <c r="CK14" s="4"/>
+      <c r="CL14" s="4"/>
+      <c r="CM14" s="4"/>
+      <c r="CN14" s="4"/>
+      <c r="CO14" s="4"/>
+      <c r="CP14" s="4"/>
+      <c r="CQ14" s="4"/>
+      <c r="CR14" s="4"/>
+      <c r="CS14" s="4"/>
+      <c r="CT14" s="4"/>
+      <c r="CU14" s="4"/>
+      <c r="CV14" s="4"/>
+      <c r="CW14" s="4"/>
+      <c r="CX14" s="4"/>
+      <c r="CY14" s="4"/>
+      <c r="CZ14" s="4"/>
+      <c r="DA14" s="4"/>
+      <c r="DB14" s="4"/>
+      <c r="DC14" s="4"/>
+      <c r="DD14" s="4"/>
+      <c r="DE14" s="4"/>
+      <c r="DF14" s="4"/>
+      <c r="DG14" s="4"/>
+      <c r="DH14" s="4"/>
+      <c r="DI14" s="4"/>
+      <c r="DJ14" s="4"/>
+      <c r="DK14" s="4"/>
+      <c r="DL14" s="4"/>
+      <c r="DM14" s="4"/>
+      <c r="DN14" s="4"/>
+      <c r="DO14" s="4"/>
+      <c r="DP14" s="4"/>
+      <c r="DQ14" s="4"/>
+      <c r="DR14" s="4"/>
+      <c r="DS14" s="4"/>
+      <c r="DT14" s="4"/>
+      <c r="DU14" s="4"/>
+      <c r="DV14" s="4"/>
+      <c r="DW14" s="4"/>
+      <c r="DX14" s="4"/>
+      <c r="DY14" s="4"/>
+      <c r="DZ14" s="4"/>
+      <c r="EA14" s="4"/>
+      <c r="EB14" s="4"/>
+      <c r="EC14" s="4"/>
+      <c r="ED14" s="4"/>
+      <c r="EE14" s="4"/>
+      <c r="EF14" s="4"/>
+      <c r="EG14" s="4"/>
+      <c r="EH14" s="4"/>
+      <c r="EI14" s="4"/>
+      <c r="EJ14" s="4"/>
+      <c r="EK14" s="4"/>
+      <c r="EL14" s="4"/>
+      <c r="EM14" s="4"/>
+      <c r="EN14" s="4"/>
+      <c r="EO14" s="4"/>
+      <c r="EP14" s="4"/>
+      <c r="EQ14" s="4"/>
+      <c r="ER14" s="4"/>
+      <c r="ES14" s="4"/>
+      <c r="ET14" s="4"/>
+      <c r="EU14" s="4"/>
+      <c r="EV14" s="4"/>
+      <c r="EW14" s="4"/>
+      <c r="EX14" s="4"/>
+      <c r="EY14" s="4"/>
+      <c r="EZ14" s="4"/>
+      <c r="FA14" s="4"/>
+      <c r="FB14" s="4"/>
+      <c r="FC14" s="4"/>
+      <c r="FD14" s="4"/>
+      <c r="FE14" s="4"/>
+      <c r="FF14" s="4"/>
+      <c r="FG14" s="4"/>
+      <c r="FH14" s="4"/>
+      <c r="FI14" s="4"/>
+      <c r="FJ14" s="4"/>
+      <c r="FK14" s="4"/>
+      <c r="FL14" s="4"/>
+      <c r="FM14" s="4"/>
+      <c r="FN14" s="4"/>
+      <c r="FO14" s="4"/>
+      <c r="FP14" s="4"/>
+      <c r="FQ14" s="4"/>
+      <c r="FR14" s="4"/>
+      <c r="FS14" s="4"/>
+      <c r="FT14" s="4"/>
+      <c r="FU14" s="4"/>
+      <c r="FV14" s="4"/>
+      <c r="FW14" s="4"/>
+      <c r="FX14" s="4"/>
+      <c r="FY14" s="4"/>
+      <c r="FZ14" s="4"/>
+      <c r="GA14" s="4"/>
+      <c r="GB14" s="4"/>
+      <c r="GC14" s="4"/>
+      <c r="GD14" s="4"/>
+      <c r="GE14" s="4"/>
+      <c r="GF14" s="4"/>
+      <c r="GG14" s="4"/>
+      <c r="GH14" s="4"/>
+      <c r="GI14" s="4"/>
+      <c r="GJ14" s="4"/>
+      <c r="GK14" s="4"/>
+      <c r="GL14" s="4"/>
+      <c r="GM14" s="4"/>
+      <c r="GN14" s="4"/>
+      <c r="GO14" s="4"/>
+      <c r="GP14" s="4"/>
+      <c r="GQ14" s="4"/>
+      <c r="GR14" s="4"/>
+      <c r="GS14" s="4"/>
+      <c r="GT14" s="4"/>
+      <c r="GU14" s="4"/>
+      <c r="GV14" s="4"/>
+      <c r="GW14" s="4"/>
+      <c r="GX14" s="4"/>
+      <c r="GY14" s="4"/>
+      <c r="GZ14" s="4"/>
+      <c r="HA14" s="4"/>
+      <c r="HB14" s="4"/>
+      <c r="HC14" s="4"/>
+      <c r="HD14" s="4"/>
+      <c r="HE14" s="4"/>
+      <c r="HF14" s="4"/>
+      <c r="HG14" s="4"/>
+      <c r="HH14" s="4"/>
+      <c r="HI14" s="4"/>
+      <c r="HJ14" s="4"/>
+      <c r="HK14" s="4"/>
+      <c r="HL14" s="4"/>
+      <c r="HM14" s="4"/>
+      <c r="HN14" s="4"/>
+      <c r="HO14" s="4"/>
+      <c r="HP14" s="4"/>
+      <c r="HQ14" s="4"/>
+      <c r="HR14" s="4"/>
+      <c r="HS14" s="4"/>
+      <c r="HT14" s="4"/>
+      <c r="HU14" s="4"/>
+      <c r="HV14" s="4"/>
+      <c r="HW14" s="4"/>
+      <c r="HX14" s="4"/>
+      <c r="HY14" s="4"/>
+      <c r="HZ14" s="4"/>
+      <c r="IA14" s="4"/>
+      <c r="IB14" s="4"/>
+      <c r="IC14" s="4"/>
+      <c r="ID14" s="4"/>
+      <c r="IE14" s="4"/>
+      <c r="IF14" s="4"/>
+      <c r="IG14" s="4"/>
+      <c r="IH14" s="4"/>
+      <c r="II14" s="4"/>
+      <c r="IJ14" s="4"/>
+      <c r="IK14" s="4"/>
+      <c r="IL14" s="4"/>
+      <c r="IM14" s="4"/>
+      <c r="IN14" s="4"/>
+      <c r="IO14" s="4"/>
+      <c r="IP14" s="4"/>
+      <c r="IQ14" s="4"/>
+      <c r="IR14" s="4"/>
+      <c r="IS14" s="4"/>
+      <c r="IT14" s="4"/>
+      <c r="IU14" s="4"/>
+      <c r="IV14" s="4"/>
+      <c r="IW14" s="4"/>
+      <c r="IX14" s="4"/>
+      <c r="IY14" s="4"/>
+      <c r="IZ14" s="4"/>
+      <c r="JA14" s="4"/>
+      <c r="JB14" s="4"/>
+      <c r="JC14" s="4"/>
+      <c r="JD14" s="4"/>
+      <c r="JE14" s="4"/>
+      <c r="JF14" s="4"/>
+      <c r="JG14" s="4"/>
+      <c r="JH14" s="4"/>
+      <c r="JI14" s="4"/>
+      <c r="JJ14" s="4"/>
+      <c r="JK14" s="4"/>
+      <c r="JL14" s="4"/>
+      <c r="JM14" s="4"/>
+      <c r="JN14" s="4"/>
+      <c r="JO14" s="4"/>
+      <c r="JP14" s="4"/>
+      <c r="JQ14" s="4"/>
+      <c r="JR14" s="4"/>
+      <c r="JS14" s="4"/>
+      <c r="JT14" s="4"/>
+      <c r="JU14" s="4"/>
+      <c r="JV14" s="4"/>
+      <c r="JW14" s="4"/>
+      <c r="JX14" s="4"/>
+      <c r="JY14" s="4"/>
+      <c r="JZ14" s="4"/>
+      <c r="KA14" s="4"/>
+      <c r="KB14" s="4"/>
+      <c r="KC14" s="4"/>
+      <c r="KD14" s="4"/>
+      <c r="KE14" s="4"/>
+      <c r="KF14" s="4"/>
+      <c r="KG14" s="4"/>
+      <c r="KH14" s="4"/>
+      <c r="KI14" s="4"/>
+      <c r="KJ14" s="4"/>
+      <c r="KK14" s="4"/>
+      <c r="KL14" s="4"/>
+      <c r="KM14" s="4"/>
+      <c r="KN14" s="4"/>
+      <c r="KO14" s="4"/>
+      <c r="KP14" s="4"/>
+      <c r="KQ14" s="4"/>
+      <c r="KR14" s="4"/>
+      <c r="KS14" s="4"/>
+      <c r="KT14" s="4"/>
+      <c r="KU14" s="4"/>
+      <c r="KV14" s="4"/>
+      <c r="KW14" s="4"/>
+      <c r="KX14" s="4"/>
+      <c r="KY14" s="4"/>
+      <c r="KZ14" s="4"/>
+      <c r="LA14" s="4"/>
+      <c r="LB14" s="4"/>
+      <c r="LC14" s="4"/>
+      <c r="LD14" s="4"/>
+      <c r="LE14" s="4"/>
+      <c r="LF14" s="4"/>
+      <c r="LG14" s="4"/>
+      <c r="LH14" s="4"/>
+      <c r="LI14" s="4"/>
+      <c r="LJ14" s="4"/>
+      <c r="LK14" s="4"/>
+      <c r="LL14" s="4"/>
+      <c r="LM14" s="4"/>
+      <c r="LN14" s="4"/>
+      <c r="LO14" s="4"/>
+      <c r="LP14" s="4"/>
+      <c r="LQ14" s="4"/>
+      <c r="LR14" s="4"/>
+      <c r="LS14" s="4"/>
+      <c r="LT14" s="4"/>
+      <c r="LU14" s="4"/>
+      <c r="LV14" s="4"/>
+      <c r="LW14" s="4"/>
+      <c r="LX14" s="4"/>
+      <c r="LY14" s="4"/>
+      <c r="LZ14" s="4"/>
+      <c r="MA14" s="4"/>
+      <c r="MB14" s="4"/>
+      <c r="MC14" s="4"/>
+      <c r="MD14" s="4"/>
+      <c r="ME14" s="4"/>
+      <c r="MF14" s="4"/>
+      <c r="MG14" s="4"/>
+      <c r="MH14" s="4"/>
+      <c r="MI14" s="4"/>
+      <c r="MJ14" s="4"/>
+      <c r="MK14" s="4"/>
+      <c r="ML14" s="4"/>
+      <c r="MM14" s="4"/>
+      <c r="MN14" s="4"/>
+      <c r="MO14" s="4"/>
+      <c r="MP14" s="4"/>
+      <c r="MQ14" s="4"/>
+      <c r="MR14" s="4"/>
+      <c r="MS14" s="4"/>
+      <c r="MT14" s="4"/>
+      <c r="MU14" s="4"/>
+      <c r="MV14" s="4"/>
+      <c r="MW14" s="4"/>
+      <c r="MX14" s="4"/>
+      <c r="MY14" s="4"/>
+      <c r="MZ14" s="4"/>
+      <c r="NA14" s="4"/>
+      <c r="NB14" s="4"/>
+      <c r="NC14" s="4"/>
+      <c r="ND14" s="4"/>
+      <c r="NE14" s="4"/>
+      <c r="NF14" s="4"/>
+      <c r="NG14" s="4"/>
+      <c r="NH14" s="4"/>
+      <c r="NI14" s="4"/>
+      <c r="NJ14" s="4"/>
+      <c r="NK14" s="4"/>
+      <c r="NL14" s="4"/>
+      <c r="NM14" s="4"/>
+      <c r="NN14" s="4"/>
+      <c r="NO14" s="4"/>
+      <c r="NP14" s="4"/>
+      <c r="NQ14" s="4"/>
+      <c r="NR14" s="4"/>
+      <c r="NS14" s="4"/>
+      <c r="NT14" s="4"/>
+      <c r="NU14" s="4"/>
+      <c r="NV14" s="4"/>
+      <c r="NW14" s="4"/>
+      <c r="NX14" s="4"/>
+      <c r="NY14" s="4"/>
+      <c r="NZ14" s="4"/>
+      <c r="OA14" s="4"/>
+      <c r="OB14" s="4"/>
+      <c r="OC14" s="4"/>
+      <c r="OD14" s="4"/>
+      <c r="OE14" s="4"/>
+      <c r="OF14" s="4"/>
+      <c r="OG14" s="4"/>
+      <c r="OH14" s="4"/>
+      <c r="OI14" s="4"/>
+      <c r="OJ14" s="4"/>
+      <c r="OK14" s="4"/>
+      <c r="OL14" s="4"/>
+      <c r="OM14" s="4"/>
+      <c r="ON14" s="4"/>
+      <c r="OO14" s="4"/>
+      <c r="OP14" s="4"/>
+      <c r="OQ14" s="4"/>
+      <c r="OR14" s="4"/>
+      <c r="OS14" s="4"/>
+      <c r="OT14" s="4"/>
+      <c r="OU14" s="4"/>
+      <c r="OV14" s="4"/>
+      <c r="OW14" s="4"/>
+      <c r="OX14" s="4"/>
+      <c r="OY14" s="4"/>
+      <c r="OZ14" s="4"/>
+      <c r="PA14" s="4"/>
+      <c r="PB14" s="4"/>
+      <c r="PC14" s="4"/>
+      <c r="PD14" s="4"/>
+      <c r="PE14" s="4"/>
+      <c r="PF14" s="4"/>
+      <c r="PG14" s="4"/>
+      <c r="PH14" s="4"/>
+      <c r="PI14" s="4"/>
+      <c r="PJ14" s="4"/>
+      <c r="PK14" s="4"/>
+      <c r="PL14" s="4"/>
+      <c r="PM14" s="4"/>
+      <c r="PN14" s="4"/>
+      <c r="PO14" s="4"/>
+      <c r="PP14" s="4"/>
+      <c r="PQ14" s="4"/>
+      <c r="PR14" s="4"/>
+      <c r="PS14" s="4"/>
+      <c r="PT14" s="4"/>
+      <c r="PU14" s="4"/>
+      <c r="PV14" s="4"/>
+      <c r="PW14" s="4"/>
+      <c r="PX14" s="4"/>
+      <c r="PY14" s="4"/>
+      <c r="PZ14" s="4"/>
+      <c r="QA14" s="4"/>
+      <c r="QB14" s="4"/>
+      <c r="QC14" s="4"/>
+      <c r="QD14" s="4"/>
+      <c r="QE14" s="4"/>
+      <c r="QF14" s="4"/>
+      <c r="QG14" s="4"/>
+      <c r="QH14" s="4"/>
+      <c r="QI14" s="4"/>
+      <c r="QJ14" s="4"/>
+      <c r="QK14" s="4"/>
+      <c r="QL14" s="4"/>
+      <c r="QM14" s="4"/>
+      <c r="QN14" s="4"/>
+      <c r="QO14" s="4"/>
+      <c r="QP14" s="4"/>
+      <c r="QQ14" s="4"/>
+      <c r="QR14" s="4"/>
+      <c r="QS14" s="4"/>
+      <c r="QT14" s="4"/>
+      <c r="QU14" s="4"/>
+      <c r="QV14" s="4"/>
+      <c r="QW14" s="4"/>
+      <c r="QX14" s="4"/>
+      <c r="QY14" s="4"/>
+      <c r="QZ14" s="4"/>
+      <c r="RA14" s="4"/>
+      <c r="RB14" s="4"/>
+      <c r="RC14" s="4"/>
+      <c r="RD14" s="4"/>
+      <c r="RE14" s="4"/>
+      <c r="RF14" s="4"/>
+      <c r="RG14" s="4"/>
+      <c r="RH14" s="4"/>
+      <c r="RI14" s="4"/>
+      <c r="RJ14" s="4"/>
+      <c r="RK14" s="4"/>
+      <c r="RL14" s="4"/>
+      <c r="RM14" s="4"/>
+      <c r="RN14" s="4"/>
+      <c r="RO14" s="4"/>
+      <c r="RP14" s="4"/>
+    </row>
+    <row r="15" spans="1:484" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:484" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="25"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="11">
+        <v>44022</v>
+      </c>
+      <c r="H21" s="11">
+        <v>44022</v>
+      </c>
+      <c r="I21" s="12">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="J21" s="12">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="18"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G34" s="27">
+        <v>44025</v>
+      </c>
+      <c r="H34" s="26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="34">
+        <v>1</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="E35" s="35">
+        <v>44025</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="33">
+        <v>43659</v>
+      </c>
+      <c r="H35" s="26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" s="37"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39" s="32"/>
+      <c r="D39" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="E39" s="18"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="D41" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="B42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="5"/>
     </row>
-    <row r="14" spans="1:484" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="5"/>
     </row>
-    <row r="16" spans="1:484" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="5"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>57</v>
-      </c>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="5"/>
     </row>
-    <row r="18" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L18" s="17">
-        <v>44022</v>
-      </c>
-      <c r="M18" s="17">
-        <v>44022</v>
-      </c>
-      <c r="N18" s="18">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="O18" s="18">
-        <v>0.625</v>
-      </c>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="5"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="5"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" s="19"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="20"/>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>1</v>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>92</v>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B56" s="29" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="18"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E63" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D64" s="11">
+        <v>44756</v>
+      </c>
+      <c r="E64" s="1">
+        <v>12345</v>
+      </c>
+      <c r="F64" s="1">
+        <v>10</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J64" s="11">
+        <v>42868</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D65" s="11">
+        <v>44756</v>
+      </c>
+      <c r="E65" s="1">
+        <v>2455</v>
+      </c>
+      <c r="F65" s="1">
+        <v>20</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J65" s="11">
+        <v>41772</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="A16:O16"/>
+  <mergeCells count="13">
+    <mergeCell ref="A62:K62"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A26:C26"/>
     <mergeCell ref="A2:Y2"/>
-    <mergeCell ref="A1:Y1"/>
-    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:Y1"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/normalização de dados.xlsx
+++ b/normalização de dados.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio -TI\Documents\faculdade\tcc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manutenção T.I\Documents\faculdade\tcc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1159E5AA-A510-4CA7-AA1B-97D1CBDAA540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{82851AB4-57C7-4768-AD19-0F0102215559}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,12 +30,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>fabio -TI</author>
   </authors>
   <commentList>
-    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{26AE789C-FEA3-418B-9C5C-A373FC9ED89A}">
+    <comment ref="A6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -62,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{C9A3BD3F-E915-4E6B-B994-52208BAAF34D}">
+    <comment ref="C14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -88,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{0B48475E-6356-4BF3-A06D-D7FC9DE555EE}">
+    <comment ref="B21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A43" authorId="0" shapeId="0" xr:uid="{70422FC8-D4F4-49A4-B53C-0F97F78FEF15}">
+    <comment ref="A43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -140,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C63" authorId="0" shapeId="0" xr:uid="{367D0889-EBBC-44C0-82A0-E0F6232938FE}">
+    <comment ref="C63" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -169,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="190">
   <si>
     <t>Normalização de Dados</t>
   </si>
@@ -606,9 +605,6 @@
     <t>o E.P.I foi perdido pelo colaborador, será descontado</t>
   </si>
   <si>
-    <t>OBS: estudar o caso do atributo c.a</t>
-  </si>
-  <si>
     <t>E.P.I</t>
   </si>
   <si>
@@ -682,12 +678,72 @@
   </si>
   <si>
     <t>usado pelo setor de eletrica</t>
+  </si>
+  <si>
+    <t>codigo_fabricante</t>
+  </si>
+  <si>
+    <t>cidade_fabricante</t>
+  </si>
+  <si>
+    <t>uf_fabricante</t>
+  </si>
+  <si>
+    <t>nome_fabricante</t>
+  </si>
+  <si>
+    <t>telefone_fabricante</t>
+  </si>
+  <si>
+    <t>epi-fabricante</t>
+  </si>
+  <si>
+    <t>codigo_epi</t>
+  </si>
+  <si>
+    <t>epi-fornecedor</t>
+  </si>
+  <si>
+    <t>cod-epi</t>
+  </si>
+  <si>
+    <t>cod_fabricante</t>
+  </si>
+  <si>
+    <t>cod_fornecedor</t>
+  </si>
+  <si>
+    <t>nome_fornecedor</t>
+  </si>
+  <si>
+    <t>rua</t>
+  </si>
+  <si>
+    <t>numero</t>
+  </si>
+  <si>
+    <t>telefone</t>
+  </si>
+  <si>
+    <t>cep</t>
+  </si>
+  <si>
+    <t>cnpj</t>
+  </si>
+  <si>
+    <t>celular</t>
+  </si>
+  <si>
+    <t>razao_social</t>
+  </si>
+  <si>
+    <t>nome_fantasia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -747,7 +803,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -766,14 +822,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -844,15 +894,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -889,13 +930,32 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -910,13 +970,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -928,39 +1000,8 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1275,12 +1316,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33215026-C023-41C6-931A-1B3971A4E820}">
-  <dimension ref="A1:RP67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:RP83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1307,62 +1348,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:484" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
     </row>
     <row r="2" spans="1:484" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
     </row>
     <row r="3" spans="1:484" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -4066,7 +4107,7 @@
       <c r="Q8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="R8" s="27">
+      <c r="R8" s="15">
         <v>40992</v>
       </c>
       <c r="S8" s="3" t="s">
@@ -5517,16 +5558,16 @@
       <c r="RP10" s="4"/>
     </row>
     <row r="11" spans="1:484" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="21"/>
+      <c r="B11" s="32"/>
       <c r="C11"/>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
@@ -7498,7 +7539,7 @@
       <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="13" t="s">
         <v>90</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -7521,10 +7562,10 @@
       <c r="D16" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="13" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7532,32 +7573,32 @@
       <c r="A17" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="13" t="s">
         <v>133</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="13" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="25"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="38"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
@@ -7601,7 +7642,7 @@
       <c r="C21" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="14" t="s">
         <v>93</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -7664,11 +7705,11 @@
       <c r="J24" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
@@ -7703,16 +7744,16 @@
       <c r="C30" s="2"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="18"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="27"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
@@ -7757,10 +7798,10 @@
       <c r="F34" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G34" s="27">
+      <c r="G34" s="15">
         <v>44025</v>
       </c>
-      <c r="H34" s="26" t="s">
+      <c r="H34" s="14" t="s">
         <v>117</v>
       </c>
     </row>
@@ -7768,23 +7809,23 @@
       <c r="A35" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="34">
+      <c r="C35" s="20">
         <v>1</v>
       </c>
-      <c r="D35" s="34" t="s">
+      <c r="D35" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="E35" s="35">
+      <c r="E35" s="21">
         <v>44025</v>
       </c>
       <c r="F35" s="10"/>
-      <c r="G35" s="33">
+      <c r="G35" s="19">
         <v>43659</v>
       </c>
-      <c r="H35" s="26" t="s">
+      <c r="H35" s="14" t="s">
         <v>144</v>
       </c>
     </row>
@@ -7805,38 +7846,36 @@
         <v>132</v>
       </c>
       <c r="B37" s="5"/>
-      <c r="C37" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="D37" s="37"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
       <c r="I38" s="5"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="D39" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="E39" s="18"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
+      <c r="B39" s="30"/>
+      <c r="D39" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="E39" s="27"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
       <c r="I39" s="5"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -7850,11 +7889,11 @@
         <v>97</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
+        <v>146</v>
+      </c>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -7866,11 +7905,11 @@
         <v>108</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
+        <v>157</v>
+      </c>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
       <c r="I41" s="5"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -7880,9 +7919,9 @@
       <c r="B42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
       <c r="I42" s="5"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -7892,9 +7931,9 @@
       <c r="B43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
       <c r="I43" s="5"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -7906,9 +7945,9 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
       <c r="I44" s="5"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -7920,45 +7959,67 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
       <c r="I45" s="5"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
       <c r="I46" s="5"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
       <c r="I47" s="5"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="B51" s="19"/>
+      <c r="B51" s="28"/>
+      <c r="D51" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="39" t="s">
+      <c r="A52" s="24" t="s">
         <v>129</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>130</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="E52" t="s">
+        <v>173</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -7968,6 +8029,11 @@
       <c r="B53" s="1" t="s">
         <v>118</v>
       </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -7976,6 +8042,11 @@
       <c r="B54" s="1" t="s">
         <v>119</v>
       </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
@@ -7984,12 +8055,17 @@
       <c r="B55" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B56" s="29" t="s">
+      <c r="B56" s="17" t="s">
         <v>121</v>
       </c>
     </row>
@@ -7997,7 +8073,7 @@
       <c r="A57" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="17" t="s">
         <v>122</v>
       </c>
     </row>
@@ -8005,7 +8081,7 @@
       <c r="A58" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B58" s="29" t="s">
+      <c r="B58" s="17" t="s">
         <v>123</v>
       </c>
     </row>
@@ -8013,69 +8089,69 @@
       <c r="A59" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B59" s="29" t="s">
+      <c r="B59" s="17" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="17"/>
-      <c r="K62" s="18"/>
+      <c r="A62" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="27"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="38" t="s">
-        <v>147</v>
+      <c r="A63" s="23" t="s">
+        <v>146</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="E63" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E63" s="28" t="s">
+      <c r="G63" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H63" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H63" s="1" t="s">
+      <c r="I63" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I63" s="1" t="s">
+      <c r="J63" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="J63" s="1" t="s">
+      <c r="K63" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="D64" s="11">
         <v>44756</v>
@@ -8087,30 +8163,30 @@
         <v>10</v>
       </c>
       <c r="G64" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H64" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H64" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="I64" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J64" s="11">
         <v>42868</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="D65" s="11">
         <v>44756</v>
@@ -8122,24 +8198,24 @@
         <v>20</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J65" s="11">
         <v>41772</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -8152,9 +8228,9 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -8167,21 +8243,250 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="B69" s="27"/>
+      <c r="D69" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="E69" s="27"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D70" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B74" s="26"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="26"/>
+      <c r="J74" s="26"/>
+      <c r="K74" s="26"/>
+      <c r="L74" s="26"/>
+      <c r="M74" s="26"/>
+      <c r="N74" s="27"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H75" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="16">
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A74:N74"/>
+    <mergeCell ref="A2:Y2"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:Y1"/>
+    <mergeCell ref="D51:H51"/>
     <mergeCell ref="A62:K62"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="A32:H32"/>
-    <mergeCell ref="C37:D37"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A2:Y2"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:Y1"/>
+    <mergeCell ref="D69:E69"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/normalização de dados.xlsx
+++ b/normalização de dados.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manutenção T.I\Documents\faculdade\tcc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{D70C40BA-C105-674B-8B8C-AE5D2443021A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4827F2E0-0A85-2445-983D-A4FE01F49359}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>fabio -TI</author>
   </authors>
   <commentList>
-    <comment ref="A6" authorId="0" shapeId="0">
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -61,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C14" authorId="0" shapeId="0">
+    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -87,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="0" shapeId="0">
+    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -113,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A43" authorId="0" shapeId="0">
+    <comment ref="A43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -139,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C63" authorId="0" shapeId="0">
+    <comment ref="C63" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -168,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="208">
   <si>
     <t>Normalização de Dados</t>
   </si>
@@ -738,13 +741,67 @@
   </si>
   <si>
     <t>nome_fantasia</t>
+  </si>
+  <si>
+    <t>00091</t>
+  </si>
+  <si>
+    <t>00092</t>
+  </si>
+  <si>
+    <t>00093</t>
+  </si>
+  <si>
+    <t>ultra master</t>
+  </si>
+  <si>
+    <t>pelotas</t>
+  </si>
+  <si>
+    <t>msa</t>
+  </si>
+  <si>
+    <t>rio grande</t>
+  </si>
+  <si>
+    <t>00101</t>
+  </si>
+  <si>
+    <t>00102</t>
+  </si>
+  <si>
+    <t>00103</t>
+  </si>
+  <si>
+    <t>00104</t>
+  </si>
+  <si>
+    <t>00105</t>
+  </si>
+  <si>
+    <t>limaseg</t>
+  </si>
+  <si>
+    <t>Manaus</t>
+  </si>
+  <si>
+    <t>npj</t>
+  </si>
+  <si>
+    <t>limasrg</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>yuuhu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -803,7 +860,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -819,6 +876,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,7 +961,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -958,16 +1021,28 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -991,18 +1066,11 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1316,96 +1384,96 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:RP83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A75" sqref="A75"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.05859375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.05859375" customWidth="1"/>
+    <col min="3" max="3" width="24.34765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="24.34765625" customWidth="1"/>
     <col min="6" max="6" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" customWidth="1"/>
-    <col min="8" max="8" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="22" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.34765625" customWidth="1"/>
+    <col min="8" max="8" width="26.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="22.05859375" customWidth="1"/>
+    <col min="11" max="11" width="21.65625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.65625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="20.71484375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.46875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.02734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.76171875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.87109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.27734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:484" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:484">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
     </row>
-    <row r="2" spans="1:484" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:484">
+      <c r="A2" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
     </row>
-    <row r="3" spans="1:484" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:484" s="3" customFormat="1">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -1935,7 +2003,7 @@
       <c r="RO3" s="4"/>
       <c r="RP3" s="4"/>
     </row>
-    <row r="4" spans="1:484" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:484" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
         <v>38</v>
       </c>
@@ -2465,7 +2533,7 @@
       <c r="RO4" s="4"/>
       <c r="RP4" s="4"/>
     </row>
-    <row r="5" spans="1:484" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:484" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
         <v>39</v>
       </c>
@@ -2995,7 +3063,7 @@
       <c r="RO5" s="4"/>
       <c r="RP5" s="4"/>
     </row>
-    <row r="6" spans="1:484" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:484" s="3" customFormat="1">
       <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
@@ -3525,7 +3593,7 @@
       <c r="RO6" s="4"/>
       <c r="RP6" s="4"/>
     </row>
-    <row r="7" spans="1:484" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:484" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
         <v>81</v>
       </c>
@@ -4055,7 +4123,7 @@
       <c r="RO7" s="4"/>
       <c r="RP7" s="4"/>
     </row>
-    <row r="8" spans="1:484" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:484" s="3" customFormat="1">
       <c r="A8" s="2" t="s">
         <v>134</v>
       </c>
@@ -4585,7 +4653,7 @@
       <c r="RO8" s="4"/>
       <c r="RP8" s="4"/>
     </row>
-    <row r="9" spans="1:484" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:484" s="3" customFormat="1">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -5071,7 +5139,7 @@
       <c r="RO9" s="4"/>
       <c r="RP9" s="4"/>
     </row>
-    <row r="10" spans="1:484" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:484" s="3" customFormat="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="4"/>
@@ -5557,16 +5625,16 @@
       <c r="RO10" s="4"/>
       <c r="RP10" s="4"/>
     </row>
-    <row r="11" spans="1:484" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+    <row r="11" spans="1:484" s="3" customFormat="1">
+      <c r="A11" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="32"/>
+      <c r="B11" s="36"/>
       <c r="C11"/>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="26"/>
+      <c r="E11" s="28"/>
       <c r="F11" s="27"/>
       <c r="G11"/>
       <c r="H11"/>
@@ -6047,7 +6115,7 @@
       <c r="RO11" s="4"/>
       <c r="RP11" s="4"/>
     </row>
-    <row r="12" spans="1:484" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:484" s="3" customFormat="1">
       <c r="A12" s="7" t="s">
         <v>31</v>
       </c>
@@ -6543,7 +6611,7 @@
       <c r="RO12" s="4"/>
       <c r="RP12" s="4"/>
     </row>
-    <row r="13" spans="1:484" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:484" s="3" customFormat="1">
       <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
@@ -7039,7 +7107,7 @@
       <c r="RO13" s="4"/>
       <c r="RP13" s="4"/>
     </row>
-    <row r="14" spans="1:484" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:484" s="3" customFormat="1">
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
@@ -7535,7 +7603,7 @@
       <c r="RO14" s="4"/>
       <c r="RP14" s="4"/>
     </row>
-    <row r="15" spans="1:484" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:484">
       <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
@@ -7552,7 +7620,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:484" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:484">
       <c r="A16" s="2" t="s">
         <v>82</v>
       </c>
@@ -7569,7 +7637,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="2" t="s">
         <v>135</v>
       </c>
@@ -7586,21 +7654,21 @@
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="36" t="s">
+    <row r="19" spans="1:10" ht="18.75">
+      <c r="A19" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="38"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="32"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" s="7" t="s">
         <v>49</v>
       </c>
@@ -7632,7 +7700,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="36" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>63</v>
       </c>
@@ -7664,7 +7732,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" s="2" t="s">
         <v>69</v>
       </c>
@@ -7678,7 +7746,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" s="2" t="s">
         <v>70</v>
       </c>
@@ -7692,7 +7760,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" s="2"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -7704,14 +7772,14 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="33" t="s">
+    <row r="26" spans="1:10">
+      <c r="A26" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="39"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27" s="7" t="s">
         <v>76</v>
       </c>
@@ -7722,7 +7790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="A28" s="2" t="s">
         <v>74</v>
       </c>
@@ -7733,29 +7801,29 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+    <row r="32" spans="1:10">
+      <c r="A32" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
       <c r="H32" s="27"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="7" t="s">
         <v>95</v>
       </c>
@@ -7781,7 +7849,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="27.75">
       <c r="A34" s="2" t="s">
         <v>108</v>
       </c>
@@ -7805,7 +7873,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="27.75">
       <c r="A35" s="2" t="s">
         <v>113</v>
       </c>
@@ -7815,7 +7883,7 @@
       <c r="C35" s="20">
         <v>1</v>
       </c>
-      <c r="D35" s="39" t="s">
+      <c r="D35" s="25" t="s">
         <v>143</v>
       </c>
       <c r="E35" s="21">
@@ -7829,7 +7897,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="2" t="s">
         <v>114</v>
       </c>
@@ -7841,7 +7909,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="2" t="s">
         <v>132</v>
       </c>
@@ -7853,7 +7921,7 @@
       <c r="G37" s="18"/>
       <c r="H37" s="18"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="5"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
@@ -7864,12 +7932,12 @@
       <c r="H38" s="18"/>
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="29" t="s">
+    <row r="39" spans="1:9">
+      <c r="A39" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="B39" s="30"/>
-      <c r="D39" s="25" t="s">
+      <c r="B39" s="34"/>
+      <c r="D39" s="26" t="s">
         <v>166</v>
       </c>
       <c r="E39" s="27"/>
@@ -7878,7 +7946,7 @@
       <c r="H39" s="18"/>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="9" t="s">
         <v>1</v>
       </c>
@@ -7896,7 +7964,7 @@
       <c r="H40" s="18"/>
       <c r="I40" s="5"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="2" t="s">
         <v>38</v>
       </c>
@@ -7912,7 +7980,7 @@
       <c r="H41" s="18"/>
       <c r="I41" s="5"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="2" t="s">
         <v>39</v>
       </c>
@@ -7924,7 +7992,7 @@
       <c r="H42" s="18"/>
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="2" t="s">
         <v>40</v>
       </c>
@@ -7936,7 +8004,7 @@
       <c r="H43" s="18"/>
       <c r="I43" s="5"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="2" t="s">
         <v>81</v>
       </c>
@@ -7950,7 +8018,7 @@
       <c r="H44" s="18"/>
       <c r="I44" s="5"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="2" t="s">
         <v>134</v>
       </c>
@@ -7964,7 +8032,7 @@
       <c r="H45" s="18"/>
       <c r="I45" s="5"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="5"/>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
@@ -7975,7 +8043,7 @@
       <c r="H46" s="18"/>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="5"/>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
@@ -7986,20 +8054,20 @@
       <c r="H47" s="18"/>
       <c r="I47" s="5"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="28" t="s">
+    <row r="51" spans="1:11">
+      <c r="A51" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="B51" s="28"/>
-      <c r="D51" s="25" t="s">
+      <c r="B51" s="29"/>
+      <c r="D51" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52" s="24" t="s">
         <v>129</v>
       </c>
@@ -8022,46 +8090,68 @@
         <v>174</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
+      <c r="D53" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="1">
+        <v>53999567842</v>
+      </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="A54" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
+      <c r="D54" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" s="1">
+        <v>53999890345</v>
+      </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D55" s="1"/>
+      <c r="D55" s="40" t="s">
+        <v>192</v>
+      </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56" s="2" t="s">
         <v>125</v>
       </c>
@@ -8069,7 +8159,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" s="2" t="s">
         <v>126</v>
       </c>
@@ -8077,7 +8167,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58" s="2" t="s">
         <v>127</v>
       </c>
@@ -8085,7 +8175,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59" s="2" t="s">
         <v>128</v>
       </c>
@@ -8093,22 +8183,22 @@
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="25" t="s">
+    <row r="62" spans="1:11">
+      <c r="A62" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="26"/>
-      <c r="J62" s="26"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
       <c r="K62" s="27"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="A63" s="23" t="s">
         <v>146</v>
       </c>
@@ -8143,7 +8233,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="A64" s="2" t="s">
         <v>156</v>
       </c>
@@ -8178,7 +8268,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14">
       <c r="A65" s="2" t="s">
         <v>157</v>
       </c>
@@ -8213,7 +8303,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14">
       <c r="A66" s="2" t="s">
         <v>158</v>
       </c>
@@ -8228,7 +8318,7 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14">
       <c r="A67" s="2" t="s">
         <v>159</v>
       </c>
@@ -8243,61 +8333,91 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="25" t="s">
+    <row r="69" spans="1:14">
+      <c r="A69" s="26" t="s">
         <v>177</v>
       </c>
       <c r="B69" s="27"/>
-      <c r="D69" s="25" t="s">
+      <c r="D69" s="26" t="s">
         <v>175</v>
       </c>
       <c r="E69" s="27"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="23" t="s">
+    <row r="70" spans="1:14">
+      <c r="A70" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="D70" s="23" t="s">
+      <c r="D70" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" s="42" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
+    <row r="71" spans="1:14">
+      <c r="A71" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>190</v>
+      </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
+    <row r="72" spans="1:14">
+      <c r="A72" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>191</v>
+      </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="25" t="s">
+    <row r="73" spans="1:14">
+      <c r="A73" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E73" s="40" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="26"/>
-      <c r="H74" s="26"/>
-      <c r="I74" s="26"/>
-      <c r="J74" s="26"/>
-      <c r="K74" s="26"/>
-      <c r="L74" s="26"/>
-      <c r="M74" s="26"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="28"/>
+      <c r="J74" s="28"/>
+      <c r="K74" s="28"/>
+      <c r="L74" s="28"/>
+      <c r="M74" s="28"/>
       <c r="N74" s="27"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14">
       <c r="A75" s="23" t="s">
         <v>180</v>
       </c>
@@ -8341,24 +8461,54 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
+    <row r="76" spans="1:14">
+      <c r="A76" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E76" s="1">
+        <v>25</v>
+      </c>
+      <c r="F76" s="1">
+        <v>32</v>
+      </c>
+      <c r="G76" s="1">
+        <v>54897654</v>
+      </c>
+      <c r="H76" s="1">
+        <v>54878903</v>
+      </c>
+      <c r="I76" s="1">
+        <v>96325789</v>
+      </c>
+      <c r="J76" s="1">
+        <v>765678999</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>207</v>
+      </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
+    <row r="77" spans="1:14">
+      <c r="A77" s="2" t="s">
+        <v>198</v>
+      </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -8373,8 +8523,10 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
+    <row r="78" spans="1:14">
+      <c r="A78" s="2" t="s">
+        <v>199</v>
+      </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -8389,8 +8541,10 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
+    <row r="79" spans="1:14">
+      <c r="A79" s="2" t="s">
+        <v>200</v>
+      </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -8405,8 +8559,10 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
+    <row r="80" spans="1:14">
+      <c r="A80" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -8421,8 +8577,8 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
+    <row r="81" spans="1:14">
+      <c r="A81" s="2"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -8437,7 +8593,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -8453,7 +8609,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
